--- a/activity/POTCartography/POT_Cartografia.xlsx
+++ b/activity/POTCartography/POT_Cartografia.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTCartography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351386AD-01AE-4A51-83A7-D7A0B9066096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A82C5-F48B-4BED-B508-3CB86A6BA317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="13337" windowHeight="15823" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="POT_Cartografia" sheetId="1" r:id="rId1"/>
     <sheet name="Setup" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">POT_Cartografia!$B$3:$X$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">POT_Cartografia!$B$3:$V$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{55E4D62F-3FF4-4F6D-8927-F79A952AC514}">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{55E4D62F-3FF4-4F6D-8927-F79A952AC514}">
       <text>
         <r>
           <rPr>
@@ -58,12 +58,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{A5F49EE0-716C-4F8C-A2C7-BB73A789F83B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Markdown</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="167">
   <si>
     <t>Categorías de protección y desarrollo restringido en suelo rural</t>
   </si>
@@ -500,37 +513,70 @@
     <t>Incluye leyenda temática (Sí/No)</t>
   </si>
   <si>
-    <t>Leyenda temática con áreas (Sí/No)</t>
-  </si>
-  <si>
-    <t>Page width (in)</t>
-  </si>
-  <si>
-    <t>Page height (in)</t>
-  </si>
-  <si>
     <t>Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978)</t>
   </si>
   <si>
-    <t>Estudio Cuenca Hidrográfica río Susaguá 2000. Estudio de Impacto Ambiental ECOPETROL Poliducto Mansilla - Tocancipá 2007. Líneas ajustadas con el Módelo Digital SRTM 2002 tiff (WEB Global Land Cover Facility) 90 metros de resolución.</t>
-  </si>
-  <si>
-    <t>Legible. Red de drenaje incompleta o discontínua.</t>
-  </si>
-  <si>
-    <t>Legible. Red de drenaje incompleta o discontínua. Cuadro de áreas no especifíca  unidades.</t>
-  </si>
-  <si>
     <t>Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000.</t>
   </si>
   <si>
-    <t>Interpretación de imágen de Satélite Landsat 7 ETM Path 8 Row 56, 2007/02/07, Metodología CORINE LAND COVER COLOMBIA, vs. Cobertura de Uso Potencial del Suelo DR-08.</t>
-  </si>
-  <si>
     <t>Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000).</t>
   </si>
   <si>
     <t>Legible.</t>
+  </si>
+  <si>
+    <t>Legible. Incluye redes acueducto y perímetro servicios públicos.</t>
+  </si>
+  <si>
+    <t>Legible. Incluye redes de alcantarillado y polígonos de sistemas.</t>
+  </si>
+  <si>
+    <t>Plan de movilidad Municipio de Zipaquirá, 2009. Datos obtenidos a través de la consultoría.</t>
+  </si>
+  <si>
+    <t>31/06/2013</t>
+  </si>
+  <si>
+    <t>Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000</t>
+  </si>
+  <si>
+    <t>Legible. Sin áreas calculadas ni porcentajes de distribución. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000</t>
+  </si>
+  <si>
+    <t>GR-02</t>
+  </si>
+  <si>
+    <t>Leyenda temática con áreas y/o longitudes (Sí/No)</t>
+  </si>
+  <si>
+    <t>Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural.</t>
+  </si>
+  <si>
+    <t>GR-01</t>
+  </si>
+  <si>
+    <t>Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano.</t>
+  </si>
+  <si>
+    <t>1000 x 600</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Legible. Red de drenaje incompleta o discontinua.</t>
+  </si>
+  <si>
+    <t>Estudio Cuenca Hidrográfica río Susaguá 2000. Estudio de Impacto Ambiental ECOPETROL Poliducto Mansilla - Tocancipá 2007. Líneas ajustadas con el Modelo Digital SRTM 2002 tiff (WEB Global Land Cover Facility) 90 metros de resolución.</t>
+  </si>
+  <si>
+    <t>Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades.</t>
+  </si>
+  <si>
+    <t>Interpretación de imagen de Satélite Landsat 7 ETM Path 8 Row 56, 2007/02/07, Metodología CORINE LAND COVER COLOMBIA, vs. Cobertura de Uso Potencial del Suelo DR-08.</t>
+  </si>
+  <si>
+    <t>---</t>
   </si>
 </sst>
 </file>
@@ -557,15 +603,15 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="Segoe UI Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -767,19 +813,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
       <right style="thin">
@@ -793,13 +826,28 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -809,17 +857,17 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -891,18 +939,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -911,11 +947,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,25 +1293,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
-  <dimension ref="B2:X60"/>
+  <dimension ref="A2:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="V15" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X24" sqref="X24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.53515625" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3828125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3046875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="5.53515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3046875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.15234375" style="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.53515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.53515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9" customWidth="1"/>
     <col min="10" max="10" width="37.921875" style="1" customWidth="1"/>
     <col min="11" max="11" width="39.07421875" style="1" customWidth="1"/>
@@ -1279,10 +1319,11 @@
     <col min="17" max="17" width="13.3046875" style="9" customWidth="1"/>
     <col min="18" max="18" width="14" style="9" customWidth="1"/>
     <col min="19" max="19" width="15.07421875" style="9" customWidth="1"/>
-    <col min="20" max="20" width="15.15234375" style="9" customWidth="1"/>
-    <col min="21" max="22" width="9.15234375" style="9" customWidth="1"/>
-    <col min="23" max="23" width="15.3828125" style="9" customWidth="1"/>
-    <col min="24" max="24" width="25.921875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="18" style="9" customWidth="1"/>
+    <col min="21" max="21" width="15.3828125" style="9" customWidth="1"/>
+    <col min="22" max="22" width="25.921875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.69140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="76.61328125" style="1" customWidth="1"/>
     <col min="25" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
@@ -1307,11 +1348,11 @@
       <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="I3" s="10" t="s">
         <v>126</v>
@@ -1343,250 +1384,237 @@
       <c r="R3" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="X3" s="6" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," | ",H3," |")</f>
+        <v>| No. | Etapa | Componente | Código | Nombre | Disponible (Sí/No) | Fecha |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="X4" s="6" t="str">
+        <f t="shared" ref="X4:X62" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",G4," | ",H4," |")</f>
+        <v>| --- | --- | --- | --- | --- | --- | --- |</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="U3" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="V3" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="W3" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L5" s="11">
         <v>3116</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M5" s="11">
         <v>40000</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="11">
+      <c r="N5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="11">
         <f>1024000-1020000</f>
         <v>4000</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P5" s="11">
         <f>1048000-1044000</f>
         <v>4000</v>
       </c>
-      <c r="Q4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T4" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V4" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W4" s="30" t="str">
-        <f>IF(U4,_xlfn.CONCAT(ROUND(U4*25.4,0)," x ",ROUND(V4*25.4,0)),"")</f>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="B5" s="14">
+      <c r="Q5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="B6" s="14">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="I6" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L6" s="11">
         <v>3116</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M6" s="11">
         <v>50000</v>
       </c>
-      <c r="N5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="11">
+      <c r="N6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="11">
         <f>1050000-1045000</f>
         <v>5000</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P6" s="11">
         <f>1025000-1020000</f>
         <v>5000</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T5" s="30" t="s">
+      <c r="Q6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="U5" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V5" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W5" s="30" t="str">
-        <f t="shared" ref="W5:W59" si="0">IF(U5,_xlfn.CONCAT(ROUND(U5*25.4,0)," x ",ROUND(V5*25.4,0)),"")</f>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="B6" s="14">
+      <c r="U6" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="B7" s="14">
         <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="11">
-        <v>3116</v>
-      </c>
-      <c r="M6" s="11">
-        <v>40000</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="11">
-        <f>1048000-1044000</f>
-        <v>4000</v>
-      </c>
-      <c r="P6" s="11">
-        <f>1024000-1020000</f>
-        <v>4000</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V6" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W6" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="102.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="14">
-        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>38</v>
@@ -1595,25 +1623,25 @@
         <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I7" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="L7" s="11">
         <v>3116</v>
@@ -1638,29 +1666,26 @@
       <c r="R7" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V7" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W7" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X7" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
+      <c r="S7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="102.9" x14ac:dyDescent="0.4">
       <c r="B8" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
@@ -1669,25 +1694,25 @@
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I8" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="L8" s="11">
         <v>3116</v>
@@ -1712,29 +1737,26 @@
       <c r="R8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T8" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V8" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W8" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X8" s="7" t="s">
-        <v>151</v>
+      <c r="S8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | Sí | 31/07/2010 |</v>
       </c>
     </row>
     <row r="9" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B9" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>38</v>
@@ -1743,25 +1765,25 @@
         <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I9" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L9" s="11">
         <v>3116</v>
@@ -1786,29 +1808,26 @@
       <c r="R9" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T9" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V9" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W9" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X9" s="7" t="s">
-        <v>151</v>
+      <c r="S9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U9" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="X9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | Sí | 31/07/2010 |</v>
       </c>
     </row>
     <row r="10" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B10" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>38</v>
@@ -1817,25 +1836,25 @@
         <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I10" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L10" s="11">
         <v>3116</v>
@@ -1860,29 +1879,26 @@
       <c r="R10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T10" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V10" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W10" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>151</v>
+      <c r="S10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="X10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 6 | Diagnóstico | Rural | DR-05 | Suelos | Sí | 31/07/2010 |</v>
       </c>
     </row>
     <row r="11" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B11" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>38</v>
@@ -1891,25 +1907,25 @@
         <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I11" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L11" s="11">
         <v>3116</v>
@@ -1934,29 +1950,26 @@
       <c r="R11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T11" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U11" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V11" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W11" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>150</v>
+      <c r="S11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U11" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="X11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 7 | Diagnóstico | Rural | DR-06 | Pendientes | Sí | 31/07/2010 |</v>
       </c>
     </row>
     <row r="12" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B12" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>38</v>
@@ -1965,25 +1978,25 @@
         <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I12" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L12" s="11">
         <v>3116</v>
@@ -2008,29 +2021,26 @@
       <c r="R12" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S12" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V12" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W12" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>151</v>
+      <c r="S12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T12" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | Sí | 31/07/2010 |</v>
       </c>
     </row>
     <row r="13" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B13" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>38</v>
@@ -2039,25 +2049,25 @@
         <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I13" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L13" s="11">
         <v>3116</v>
@@ -2082,29 +2092,26 @@
       <c r="R13" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U13" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V13" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W13" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+      <c r="S13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U13" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="X13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B14" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
@@ -2113,25 +2120,25 @@
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>65</v>
-      </c>
       <c r="I14" s="11" t="s">
         <v>127</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="L14" s="11">
         <v>3116</v>
@@ -2156,29 +2163,26 @@
       <c r="R14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U14" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V14" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W14" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="S14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B15" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>38</v>
@@ -2187,40 +2191,69 @@
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="11" t="s">
-        <v>128</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X15" s="7"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="J15" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M15" s="11">
+        <v>40000</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="11">
+        <f>1048000-1044000</f>
+        <v>4000</v>
+      </c>
+      <c r="P15" s="11">
+        <f>1024000-1020000</f>
+        <v>4000</v>
+      </c>
+      <c r="Q15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B16" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
@@ -2229,15 +2262,15 @@
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="11" t="s">
         <v>127</v>
       </c>
@@ -2250,19 +2283,20 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X16" s="7"/>
-    </row>
-    <row r="17" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V16" s="7"/>
+      <c r="X16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | No |  |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B17" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
@@ -2271,15 +2305,15 @@
         <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="11" t="s">
         <v>127</v>
       </c>
@@ -2292,19 +2326,20 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="30"/>
-      <c r="U17" s="30"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X17" s="7"/>
-    </row>
-    <row r="18" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V17" s="7"/>
+      <c r="X17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | No |  |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B18" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>38</v>
@@ -2313,15 +2348,15 @@
         <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="11" t="s">
         <v>127</v>
       </c>
@@ -2334,19 +2369,20 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X18" s="7"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V18" s="7"/>
+      <c r="X18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | No |  |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B19" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>38</v>
@@ -2355,15 +2391,15 @@
         <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="11" t="s">
         <v>127</v>
       </c>
@@ -2376,19 +2412,20 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X19" s="7"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V19" s="7"/>
+      <c r="X19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | No |  |</v>
+      </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B20" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>38</v>
@@ -2397,15 +2434,15 @@
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="11" t="s">
         <v>127</v>
       </c>
@@ -2418,19 +2455,20 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X20" s="7"/>
-    </row>
-    <row r="21" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V20" s="7"/>
+      <c r="X20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | No |  |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B21" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>38</v>
@@ -2439,15 +2477,15 @@
         <v>35</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="11" t="s">
         <v>127</v>
       </c>
@@ -2460,19 +2498,20 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X21" s="7"/>
-    </row>
-    <row r="22" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V21" s="7"/>
+      <c r="X21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | No |  |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B22" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>38</v>
@@ -2481,15 +2520,15 @@
         <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="11" t="s">
         <v>127</v>
       </c>
@@ -2502,19 +2541,20 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X22" s="7"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V22" s="7"/>
+      <c r="X22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | No |  |</v>
+      </c>
     </row>
     <row r="23" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B23" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>38</v>
@@ -2523,15 +2563,15 @@
         <v>35</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="11" t="s">
         <v>127</v>
       </c>
@@ -2544,135 +2584,134 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
-      <c r="V23" s="30"/>
-      <c r="W23" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X23" s="7"/>
-    </row>
-    <row r="24" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V23" s="7"/>
+      <c r="X23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | No |  |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B24" s="14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V24" s="7"/>
+      <c r="X24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | No |  |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B25" s="14">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" s="3" t="s">
+      <c r="I25" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L25" s="11">
         <v>3116</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M25" s="11">
         <v>8500</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O24" s="11">
+      <c r="N25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O25" s="11">
         <f>1046500-1045650</f>
         <v>850</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P25" s="11">
         <f>1011900-1011050</f>
         <v>850</v>
       </c>
-      <c r="Q24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="S24" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="T24" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="U24" s="30">
-        <v>39.36</v>
-      </c>
-      <c r="V24" s="30">
-        <v>23.63</v>
-      </c>
-      <c r="W24" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v>1000 x 600</v>
-      </c>
-      <c r="X24" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
-      <c r="B25" s="14">
+      <c r="Q25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S25" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U25" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="B26" s="14">
         <v>24</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="30"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
-      <c r="W25" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X25" s="7"/>
-    </row>
-    <row r="26" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
-      <c r="B26" s="14">
-        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>38</v>
@@ -2681,40 +2720,69 @@
         <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="11" t="s">
-        <v>65</v>
+        <v>123</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-      <c r="W26" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X26" s="7"/>
-    </row>
-    <row r="27" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L26" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M26" s="11">
+        <v>10000</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O26" s="11">
+        <f>1046000-1045000</f>
+        <v>1000</v>
+      </c>
+      <c r="P26" s="11">
+        <f>1014000-1013000</f>
+        <v>1000</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S26" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T26" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U26" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B27" s="14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>38</v>
@@ -2723,40 +2791,69 @@
         <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="11" t="s">
-        <v>65</v>
+        <v>21</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="30"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="30"/>
-      <c r="W27" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X27" s="7"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="J27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L27" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M27" s="11">
+        <v>10000</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O27" s="11">
+        <f>1046000-1045000</f>
+        <v>1000</v>
+      </c>
+      <c r="P27" s="11">
+        <f>1014000-1013000</f>
+        <v>1000</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S27" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T27" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U27" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="X27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B28" s="14">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>38</v>
@@ -2765,40 +2862,69 @@
         <v>36</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="11" t="s">
-        <v>65</v>
+        <v>22</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X28" s="7"/>
-    </row>
-    <row r="29" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="J28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M28" s="11">
+        <v>10000</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O28" s="11">
+        <f>1046000-1045000</f>
+        <v>1000</v>
+      </c>
+      <c r="P28" s="11">
+        <f>1014000-1013000</f>
+        <v>1000</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S28" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T28" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U28" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="X28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B29" s="14">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>38</v>
@@ -2807,40 +2933,69 @@
         <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="11" t="s">
-        <v>65</v>
+        <v>23</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="30"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="30"/>
-      <c r="W29" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X29" s="7"/>
+      <c r="J29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M29" s="11">
+        <v>8500</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O29" s="11">
+        <f>1046500-1045650</f>
+        <v>850</v>
+      </c>
+      <c r="P29" s="11">
+        <f>1011900-1011050</f>
+        <v>850</v>
+      </c>
+      <c r="Q29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S29" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T29" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U29" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | Sí | 31/07/2010 |</v>
+      </c>
     </row>
     <row r="30" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B30" s="14">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>38</v>
@@ -2849,40 +3004,69 @@
         <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="11" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="30"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="30"/>
-      <c r="W30" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X30" s="7"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="J30" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M30" s="11">
+        <v>8500</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="11">
+        <f>1046500-1045650</f>
+        <v>850</v>
+      </c>
+      <c r="P30" s="11">
+        <f>1011900-1011050</f>
+        <v>850</v>
+      </c>
+      <c r="Q30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S30" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U30" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B31" s="14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>38</v>
@@ -2891,40 +3075,69 @@
         <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="11" t="s">
-        <v>128</v>
+        <v>24</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="30"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="30"/>
-      <c r="W31" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X31" s="7"/>
-    </row>
-    <row r="32" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L31" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M31" s="11">
+        <v>8500</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O31" s="11">
+        <f>1046500-1045650</f>
+        <v>850</v>
+      </c>
+      <c r="P31" s="11">
+        <f>1011900-1011050</f>
+        <v>850</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T31" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U31" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | Sí | 31/07/2010 |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B32" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>38</v>
@@ -2933,15 +3146,15 @@
         <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H32" s="3"/>
       <c r="I32" s="11" t="s">
         <v>127</v>
       </c>
@@ -2954,19 +3167,20 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X32" s="7"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V32" s="7"/>
+      <c r="X32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | No |  |</v>
+      </c>
     </row>
     <row r="33" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B33" s="14">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>38</v>
@@ -2975,15 +3189,15 @@
         <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="11" t="s">
         <v>127</v>
       </c>
@@ -2996,19 +3210,20 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X33" s="7"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V33" s="7"/>
+      <c r="X33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | No |  |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B34" s="14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>38</v>
@@ -3017,15 +3232,15 @@
         <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H34" s="3"/>
       <c r="I34" s="11" t="s">
         <v>127</v>
       </c>
@@ -3038,19 +3253,20 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
-      <c r="S34" s="30"/>
-      <c r="T34" s="30"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="30"/>
-      <c r="W34" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X34" s="7"/>
-    </row>
-    <row r="35" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V34" s="7"/>
+      <c r="X34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | No |  |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B35" s="14">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>38</v>
@@ -3059,15 +3275,15 @@
         <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H35" s="3"/>
       <c r="I35" s="11" t="s">
         <v>127</v>
       </c>
@@ -3080,19 +3296,20 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
-      <c r="S35" s="30"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="30"/>
-      <c r="W35" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X35" s="7"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V35" s="7"/>
+      <c r="X35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | No |  |</v>
+      </c>
     </row>
     <row r="36" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B36" s="14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>38</v>
@@ -3101,15 +3318,15 @@
         <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H36" s="3"/>
       <c r="I36" s="11" t="s">
         <v>127</v>
       </c>
@@ -3122,19 +3339,20 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X36" s="7"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V36" s="7"/>
+      <c r="X36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | No |  |</v>
+      </c>
     </row>
     <row r="37" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B37" s="14">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>38</v>
@@ -3143,15 +3361,15 @@
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H37" s="3"/>
       <c r="I37" s="11" t="s">
         <v>127</v>
       </c>
@@ -3164,19 +3382,20 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X37" s="7"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V37" s="7"/>
+      <c r="X37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | No |  |</v>
+      </c>
     </row>
     <row r="38" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B38" s="14">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>38</v>
@@ -3185,15 +3404,15 @@
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>128</v>
       </c>
+      <c r="H38" s="3"/>
       <c r="I38" s="11" t="s">
         <v>127</v>
       </c>
@@ -3206,36 +3425,37 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="30"/>
-      <c r="W38" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X38" s="7"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V38" s="7"/>
+      <c r="X38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | No |  |</v>
+      </c>
     </row>
     <row r="39" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B39" s="14">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="11" t="s">
-        <v>65</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="3"/>
       <c r="I39" s="11" t="s">
         <v>127</v>
       </c>
@@ -3248,19 +3468,20 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X39" s="7"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V39" s="7"/>
+      <c r="X39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | No |  |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B40" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>43</v>
@@ -3269,40 +3490,69 @@
         <v>42</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="11" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X40" s="7"/>
+      <c r="J40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L40" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M40" s="11">
+        <v>40000</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O40" s="11">
+        <f>1048000-1044000</f>
+        <v>4000</v>
+      </c>
+      <c r="P40" s="11">
+        <f>1024000-1020000</f>
+        <v>4000</v>
+      </c>
+      <c r="Q40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S40" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U40" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V40" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 1 | Formulación | General | CG-01 | Clasificación general del territorio | Sí | 31/06/2013 |</v>
+      </c>
     </row>
     <row r="41" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B41" s="14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>43</v>
@@ -3311,40 +3561,69 @@
         <v>42</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="11" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I41" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="30"/>
-      <c r="V41" s="30"/>
-      <c r="W41" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X41" s="7"/>
-    </row>
-    <row r="42" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L41" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M41" s="11">
+        <v>12500</v>
+      </c>
+      <c r="N41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O41" s="11">
+        <f>1046250-1045000</f>
+        <v>1250</v>
+      </c>
+      <c r="P41" s="11">
+        <f>1013750-1012500</f>
+        <v>1250</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S41" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T41" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U41" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 2 | Formulación | General | CG-02 | Asentamientos humanos | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B42" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>43</v>
@@ -3353,40 +3632,69 @@
         <v>42</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="11" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I42" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X42" s="7"/>
-    </row>
-    <row r="43" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J42" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L42" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M42" s="11">
+        <v>40000</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O42" s="11">
+        <f>1048000-1044000</f>
+        <v>4000</v>
+      </c>
+      <c r="P42" s="11">
+        <f>1024000-1020000</f>
+        <v>4000</v>
+      </c>
+      <c r="Q42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S42" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T42" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U42" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V42" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B43" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>43</v>
@@ -3395,40 +3703,69 @@
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="11" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I43" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X43" s="7"/>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="J43" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L43" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M43" s="11">
+        <v>7500</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="11">
+        <f>1046000-1045250</f>
+        <v>750</v>
+      </c>
+      <c r="P43" s="11">
+        <f>1012750-1012000</f>
+        <v>750</v>
+      </c>
+      <c r="Q43" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S43" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T43" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U43" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B44" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>43</v>
@@ -3437,40 +3774,69 @@
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="11" t="s">
-        <v>65</v>
+        <v>39</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I44" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X44" s="7"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="J44" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L44" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M44" s="11">
+        <v>40000</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O44" s="11">
+        <f>1048000-1044000</f>
+        <v>4000</v>
+      </c>
+      <c r="P44" s="11">
+        <f>1024000-1020000</f>
+        <v>4000</v>
+      </c>
+      <c r="Q44" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S44" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T44" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U44" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B45" s="14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>43</v>
@@ -3479,40 +3845,69 @@
         <v>42</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="11" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-      <c r="R45" s="11"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X45" s="7"/>
-    </row>
-    <row r="46" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J45" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L45" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M45" s="11">
+        <v>40000</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O45" s="11">
+        <f>1048000-1044000</f>
+        <v>4000</v>
+      </c>
+      <c r="P45" s="11">
+        <f>1024000-1020000</f>
+        <v>4000</v>
+      </c>
+      <c r="Q45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S45" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T45" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U45" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 6 | Formulación | General | CG-06 | División política rural | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B46" s="14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>43</v>
@@ -3521,82 +3916,140 @@
         <v>42</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="11" t="s">
-        <v>65</v>
+        <v>41</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I46" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-      <c r="R46" s="11"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X46" s="7"/>
-    </row>
-    <row r="47" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
+      <c r="J46" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L46" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M46" s="11">
+        <v>10000</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O46" s="11">
+        <f>1047000-1046000</f>
+        <v>1000</v>
+      </c>
+      <c r="P46" s="11">
+        <f>1014000-1013000</f>
+        <v>1000</v>
+      </c>
+      <c r="Q46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T46" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U46" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V46" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 7 | Formulación | General | CG-07 | División política urbana | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B47" s="14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="11" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X47" s="7"/>
-    </row>
-    <row r="48" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="J47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L47" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M47" s="11">
+        <v>40000</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O47" s="11">
+        <f>1048000-1044000</f>
+        <v>4000</v>
+      </c>
+      <c r="P47" s="11">
+        <f>1024000-1020000</f>
+        <v>4000</v>
+      </c>
+      <c r="Q47" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S47" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T47" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U47" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" ht="120" x14ac:dyDescent="0.4">
       <c r="B48" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>43</v>
@@ -3605,40 +4058,69 @@
         <v>36</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="11" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I48" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X48" s="7"/>
-    </row>
-    <row r="49" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="J48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L48" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M48" s="11">
+        <v>8000</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O48" s="11">
+        <f>1046400-1045600</f>
+        <v>800</v>
+      </c>
+      <c r="P48" s="11">
+        <f>1012800-1012000</f>
+        <v>800</v>
+      </c>
+      <c r="Q48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S48" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T48" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U48" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V48" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="X48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" ht="120" x14ac:dyDescent="0.4">
       <c r="B49" s="14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>43</v>
@@ -3647,40 +4129,69 @@
         <v>36</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="11" t="s">
-        <v>65</v>
+        <v>44</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="30"/>
-      <c r="W49" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X49" s="7"/>
-    </row>
-    <row r="50" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J49" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L49" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M49" s="11">
+        <v>8000</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O49" s="11">
+        <f>1046400-1045600</f>
+        <v>800</v>
+      </c>
+      <c r="P49" s="11">
+        <f>1012800-1012000</f>
+        <v>800</v>
+      </c>
+      <c r="Q49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T49" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U49" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="X49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B50" s="14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>43</v>
@@ -3689,40 +4200,69 @@
         <v>36</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="11" t="s">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="30"/>
-      <c r="W50" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X50" s="7"/>
-    </row>
-    <row r="51" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="J50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L50" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M50" s="11">
+        <v>8000</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O50" s="11">
+        <f>1046400-1045600</f>
+        <v>800</v>
+      </c>
+      <c r="P50" s="11">
+        <f>1012800-1012000</f>
+        <v>800</v>
+      </c>
+      <c r="Q50" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S50" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T50" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U50" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V50" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B51" s="14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>43</v>
@@ -3731,40 +4271,69 @@
         <v>36</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="11" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H51" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I51" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
-      <c r="R51" s="11"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X51" s="7"/>
-    </row>
-    <row r="52" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L51" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M51" s="11">
+        <v>8000</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O51" s="11">
+        <f>1046400-1045600</f>
+        <v>800</v>
+      </c>
+      <c r="P51" s="11">
+        <f>1012800-1012000</f>
+        <v>800</v>
+      </c>
+      <c r="Q51" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S51" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T51" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U51" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B52" s="14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>43</v>
@@ -3773,40 +4342,69 @@
         <v>36</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="11" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11"/>
-      <c r="R52" s="11"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="30"/>
-      <c r="V52" s="30"/>
-      <c r="W52" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X52" s="7"/>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="J52" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L52" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M52" s="11">
+        <v>8000</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O52" s="11">
+        <f>1046400-1045600</f>
+        <v>800</v>
+      </c>
+      <c r="P52" s="11">
+        <f>1012800-1012000</f>
+        <v>800</v>
+      </c>
+      <c r="Q52" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S52" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T52" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U52" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V52" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B53" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>43</v>
@@ -3815,40 +4413,69 @@
         <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="11" t="s">
-        <v>65</v>
+        <v>48</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H53" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="30"/>
-      <c r="V53" s="30"/>
-      <c r="W53" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X53" s="7"/>
-    </row>
-    <row r="54" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L53" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M53" s="11">
+        <v>8000</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O53" s="11">
+        <f>1046400-1045600</f>
+        <v>800</v>
+      </c>
+      <c r="P53" s="11">
+        <f>1012800-1012000</f>
+        <v>800</v>
+      </c>
+      <c r="Q53" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R53" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S53" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T53" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U53" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B54" s="14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>43</v>
@@ -3857,102 +4484,158 @@
         <v>36</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="11" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="30"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="30"/>
-      <c r="V54" s="30"/>
-      <c r="W54" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X54" s="7"/>
-    </row>
-    <row r="55" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J54" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L54" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M54" s="11">
+        <v>8000</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O54" s="11">
+        <f>1046400-1045600</f>
+        <v>800</v>
+      </c>
+      <c r="P54" s="11">
+        <f>1012800-1012000</f>
+        <v>800</v>
+      </c>
+      <c r="Q54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S54" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T54" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U54" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V54" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B55" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="11" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="23" t="s">
+        <v>152</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="R55" s="11"/>
-      <c r="S55" s="30"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X55" s="7"/>
-    </row>
-    <row r="56" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="J55" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L55" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M55" s="11">
+        <v>8000</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O55" s="11">
+        <f>1046400-1045600</f>
+        <v>800</v>
+      </c>
+      <c r="P55" s="11">
+        <f>1012800-1012000</f>
+        <v>800</v>
+      </c>
+      <c r="Q55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S55" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T55" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U55" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V55" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B56" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>43</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>127</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" s="3"/>
+      <c r="I56" s="11"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="11"/>
@@ -3962,19 +4645,18 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="30"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="30"/>
-      <c r="V56" s="30"/>
-      <c r="W56" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X56" s="7"/>
-    </row>
-    <row r="57" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="S56" s="26"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="7"/>
+      <c r="X56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | No |  |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B57" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>43</v>
@@ -3983,40 +4665,69 @@
         <v>35</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="11" t="s">
-        <v>65</v>
+        <v>52</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X57" s="7"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="J57" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L57" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M57" s="11">
+        <v>40000</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O57" s="11">
+        <f>1048000-1044000</f>
+        <v>4000</v>
+      </c>
+      <c r="P57" s="11">
+        <f>1024000-1020000</f>
+        <v>4000</v>
+      </c>
+      <c r="Q57" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S57" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T57" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U57" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B58" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>43</v>
@@ -4025,94 +4736,305 @@
         <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L58" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M58" s="11">
+        <v>5000</v>
+      </c>
+      <c r="N58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O58" s="11">
+        <f>1048000-1047500</f>
+        <v>500</v>
+      </c>
+      <c r="P58" s="11">
+        <f>10344500-10344000</f>
+        <v>500</v>
+      </c>
+      <c r="Q58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S58" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T58" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U58" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V58" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="B59" s="14">
+        <v>20</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L59" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M59" s="11">
+        <v>5000</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O59" s="11">
+        <f>1048000-1047500</f>
+        <v>500</v>
+      </c>
+      <c r="P59" s="11">
+        <f>10344500-10344000</f>
+        <v>500</v>
+      </c>
+      <c r="Q59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S59" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T59" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="U59" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V59" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="B60" s="14">
+        <v>21</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-      <c r="R58" s="11"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-      <c r="W58" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X58" s="7"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="X59" s="27"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B60" s="15"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
-      <c r="V60" s="32"/>
-      <c r="W60" s="32"/>
-      <c r="X60" s="8"/>
+      <c r="G60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L60" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M60" s="11">
+        <v>40000</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O60" s="11">
+        <f>1048000-1044000</f>
+        <v>4000</v>
+      </c>
+      <c r="P60" s="11">
+        <f>1024000-1020000</f>
+        <v>4000</v>
+      </c>
+      <c r="Q60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S60" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T60" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U60" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V60" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 21 | Formulación | Rural | CR-03 | Plan vial rural | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="B61" s="14">
+        <v>22</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="L61" s="11">
+        <v>3116</v>
+      </c>
+      <c r="M61" s="11">
+        <v>40000</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="O61" s="11">
+        <f>1048000-1044000</f>
+        <v>4000</v>
+      </c>
+      <c r="P61" s="11">
+        <f>1024000-1020000</f>
+        <v>4000</v>
+      </c>
+      <c r="Q61" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="R61" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="S61" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="T61" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U61" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="X61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | Sí | 31/06/2013 |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B62" s="15"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="27"/>
+      <c r="T62" s="27"/>
+      <c r="U62" s="27"/>
+      <c r="V62" s="8"/>
+      <c r="X62" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:X60" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}"/>
+  <autoFilter ref="B3:V62" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4123,7 +5045,7 @@
           <x14:formula1>
             <xm:f>Setup!$B$4:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:L59</xm:sqref>
+          <xm:sqref>L5:L61</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/activity/POTCartography/POT_Cartografia.xlsx
+++ b/activity/POTCartography/POT_Cartografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTCartography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A82C5-F48B-4BED-B508-3CB86A6BA317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC36B2-FBD9-4944-8767-816DDED8489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
@@ -45,6 +45,84 @@
     <author>Admin</author>
   </authors>
   <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{F5F52D61-072D-42DF-9443-0F86B4E2E937}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sí / No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{4F986AE7-AEAE-497C-B725-8E80FB2B1186}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sí / No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{2154DC8B-BA42-4C15-B81A-FB99F92A9439}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sí / No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="0" shapeId="0" xr:uid="{42DE11FE-A7CF-479A-853E-41B7E6582475}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sí / No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="0" shapeId="0" xr:uid="{324D3AC3-6654-49C1-B7A0-5661E0C9A2AB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sí / No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{389CA9BC-B3E1-403F-A624-A1BBC4E4AAA9}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sí / No</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V3" authorId="0" shapeId="0" xr:uid="{55E4D62F-3FF4-4F6D-8927-F79A952AC514}">
       <text>
         <r>
@@ -261,18 +339,12 @@
     <t>Separación vertical grilla en metros</t>
   </si>
   <si>
-    <t>Barra de escala (Sí/No)</t>
-  </si>
-  <si>
     <t>Escala de Impresión (1:n)</t>
   </si>
   <si>
     <t>Tamaño de página en milímetros</t>
   </si>
   <si>
-    <t>Disponible (Sí/No)</t>
-  </si>
-  <si>
     <t>Sí</t>
   </si>
   <si>
@@ -453,9 +525,6 @@
     <t>Componente</t>
   </si>
   <si>
-    <t>Orientación norte (Sí/No)</t>
-  </si>
-  <si>
     <t>Formato archivo</t>
   </si>
   <si>
@@ -507,12 +576,6 @@
     <t>Datos obtenidos a través de la consultoría.</t>
   </si>
   <si>
-    <t>Incluye convenciones (Sí/No)</t>
-  </si>
-  <si>
-    <t>Incluye leyenda temática (Sí/No)</t>
-  </si>
-  <si>
     <t>Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978)</t>
   </si>
   <si>
@@ -546,9 +609,6 @@
     <t>GR-02</t>
   </si>
   <si>
-    <t>Leyenda temática con áreas y/o longitudes (Sí/No)</t>
-  </si>
-  <si>
     <t>Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural.</t>
   </si>
   <si>
@@ -577,6 +637,24 @@
   </si>
   <si>
     <t>---</t>
+  </si>
+  <si>
+    <t>Disponible</t>
+  </si>
+  <si>
+    <t>Barra de escala</t>
+  </si>
+  <si>
+    <t>Orientación norte</t>
+  </si>
+  <si>
+    <t>Incluye convenciones</t>
+  </si>
+  <si>
+    <t>Incluye leyenda temática</t>
+  </si>
+  <si>
+    <t>Leyenda temática con áreas y/o longitudes</t>
   </si>
 </sst>
 </file>
@@ -1295,9 +1373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
   <dimension ref="A2:Y62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -1314,11 +1392,12 @@
     <col min="10" max="10" width="37.921875" style="1" customWidth="1"/>
     <col min="11" max="11" width="39.07421875" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.15234375" style="9"/>
-    <col min="13" max="14" width="14.69140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14.69140625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.765625" style="9" customWidth="1"/>
     <col min="15" max="16" width="14.53515625" style="9" customWidth="1"/>
     <col min="17" max="17" width="13.3046875" style="9" customWidth="1"/>
     <col min="18" max="18" width="14" style="9" customWidth="1"/>
-    <col min="19" max="19" width="15.07421875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="12" style="9" customWidth="1"/>
     <col min="20" max="20" width="18" style="9" customWidth="1"/>
     <col min="21" max="21" width="15.3828125" style="9" customWidth="1"/>
     <col min="22" max="22" width="25.921875" style="1" customWidth="1"/>
@@ -1329,7 +1408,7 @@
   <sheetData>
     <row r="2" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="2:24" s="6" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
@@ -1340,7 +1419,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -1349,13 +1428,13 @@
         <v>33</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>56</v>
@@ -1367,10 +1446,10 @@
         <v>57</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>59</v>
@@ -1379,91 +1458,91 @@
         <v>60</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="T3" s="25" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="U3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X3" s="6" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," | ",H3," |")</f>
-        <v>| No. | Etapa | Componente | Código | Nombre | Disponible (Sí/No) | Fecha |</v>
+        <v>| No. | Etapa | Componente | Código | Nombre | Disponible | Fecha |</v>
       </c>
     </row>
     <row r="4" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="O4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="R4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="U4" s="29" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="V4" s="30" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="X4" s="6" t="str">
         <f t="shared" ref="X4:X62" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",G4," | ",H4," |")</f>
@@ -1481,25 +1560,25 @@
         <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L5" s="11">
         <v>3116</v>
@@ -1508,7 +1587,7 @@
         <v>40000</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O5" s="11">
         <f>1024000-1020000</f>
@@ -1519,22 +1598,22 @@
         <v>4000</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S5" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U5" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1552,25 +1631,25 @@
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L6" s="11">
         <v>3116</v>
@@ -1579,7 +1658,7 @@
         <v>50000</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O6" s="11">
         <f>1050000-1045000</f>
@@ -1590,22 +1669,22 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S6" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T6" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U6" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1623,25 +1702,25 @@
         <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L7" s="11">
         <v>3116</v>
@@ -1650,7 +1729,7 @@
         <v>40000</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O7" s="11">
         <f>1048000-1044000</f>
@@ -1661,22 +1740,22 @@
         <v>4000</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S7" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T7" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U7" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1694,25 +1773,25 @@
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="L8" s="11">
         <v>3116</v>
@@ -1721,7 +1800,7 @@
         <v>40000</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O8" s="11">
         <f>1048000-1044000</f>
@@ -1732,22 +1811,22 @@
         <v>4000</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U8" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1765,25 +1844,25 @@
         <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="L9" s="11">
         <v>3116</v>
@@ -1792,7 +1871,7 @@
         <v>40000</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O9" s="11">
         <f>1048000-1044000</f>
@@ -1803,22 +1882,22 @@
         <v>4000</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="X9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1836,25 +1915,25 @@
         <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="L10" s="11">
         <v>3116</v>
@@ -1863,7 +1942,7 @@
         <v>40000</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O10" s="11">
         <f>1048000-1044000</f>
@@ -1874,22 +1953,22 @@
         <v>4000</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="X10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1907,25 +1986,25 @@
         <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="L11" s="11">
         <v>3116</v>
@@ -1934,7 +2013,7 @@
         <v>40000</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O11" s="11">
         <f>1048000-1044000</f>
@@ -1945,22 +2024,22 @@
         <v>4000</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U11" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="X11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1978,25 +2057,25 @@
         <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="L12" s="11">
         <v>3116</v>
@@ -2005,7 +2084,7 @@
         <v>40000</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O12" s="11">
         <f>1048000-1044000</f>
@@ -2016,22 +2095,22 @@
         <v>4000</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S12" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U12" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2049,25 +2128,25 @@
         <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H13" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="L13" s="11">
         <v>3116</v>
@@ -2076,7 +2155,7 @@
         <v>40000</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O13" s="11">
         <f>1048000-1044000</f>
@@ -2087,22 +2166,22 @@
         <v>4000</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S13" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U13" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="X13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2120,25 +2199,25 @@
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H14" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="L14" s="11">
         <v>3116</v>
@@ -2147,7 +2226,7 @@
         <v>40000</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O14" s="11">
         <f>1048000-1044000</f>
@@ -2158,22 +2237,22 @@
         <v>4000</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S14" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U14" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2191,25 +2270,25 @@
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L15" s="11">
         <v>3116</v>
@@ -2218,7 +2297,7 @@
         <v>40000</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O15" s="11">
         <f>1048000-1044000</f>
@@ -2229,22 +2308,22 @@
         <v>4000</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S15" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T15" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U15" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2262,17 +2341,17 @@
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -2286,7 +2365,7 @@
       <c r="S16" s="26"/>
       <c r="T16" s="26"/>
       <c r="U16" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V16" s="7"/>
       <c r="X16" s="6" t="str">
@@ -2305,17 +2384,17 @@
         <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -2329,7 +2408,7 @@
       <c r="S17" s="26"/>
       <c r="T17" s="26"/>
       <c r="U17" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V17" s="7"/>
       <c r="X17" s="6" t="str">
@@ -2348,17 +2427,17 @@
         <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -2372,7 +2451,7 @@
       <c r="S18" s="26"/>
       <c r="T18" s="26"/>
       <c r="U18" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V18" s="7"/>
       <c r="X18" s="6" t="str">
@@ -2391,17 +2470,17 @@
         <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -2415,7 +2494,7 @@
       <c r="S19" s="26"/>
       <c r="T19" s="26"/>
       <c r="U19" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V19" s="7"/>
       <c r="X19" s="6" t="str">
@@ -2434,17 +2513,17 @@
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2458,7 +2537,7 @@
       <c r="S20" s="26"/>
       <c r="T20" s="26"/>
       <c r="U20" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V20" s="7"/>
       <c r="X20" s="6" t="str">
@@ -2477,17 +2556,17 @@
         <v>35</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -2501,7 +2580,7 @@
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V21" s="7"/>
       <c r="X21" s="6" t="str">
@@ -2520,17 +2599,17 @@
         <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -2544,7 +2623,7 @@
       <c r="S22" s="26"/>
       <c r="T22" s="26"/>
       <c r="U22" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V22" s="7"/>
       <c r="X22" s="6" t="str">
@@ -2563,17 +2642,17 @@
         <v>35</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2587,7 +2666,7 @@
       <c r="S23" s="26"/>
       <c r="T23" s="26"/>
       <c r="U23" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V23" s="7"/>
       <c r="X23" s="6" t="str">
@@ -2606,17 +2685,17 @@
         <v>35</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -2630,7 +2709,7 @@
       <c r="S24" s="26"/>
       <c r="T24" s="26"/>
       <c r="U24" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V24" s="7"/>
       <c r="X24" s="6" t="str">
@@ -2649,25 +2728,25 @@
         <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L25" s="11">
         <v>3116</v>
@@ -2676,7 +2755,7 @@
         <v>8500</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O25" s="11">
         <f>1046500-1045650</f>
@@ -2687,22 +2766,22 @@
         <v>850</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S25" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U25" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2720,25 +2799,25 @@
         <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L26" s="11">
         <v>3116</v>
@@ -2747,7 +2826,7 @@
         <v>10000</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O26" s="11">
         <f>1046000-1045000</f>
@@ -2758,22 +2837,22 @@
         <v>1000</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S26" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2791,25 +2870,25 @@
         <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L27" s="11">
         <v>3116</v>
@@ -2818,7 +2897,7 @@
         <v>10000</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O27" s="11">
         <f>1046000-1045000</f>
@@ -2829,22 +2908,22 @@
         <v>1000</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S27" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="X27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2862,25 +2941,25 @@
         <v>36</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L28" s="11">
         <v>3116</v>
@@ -2889,7 +2968,7 @@
         <v>10000</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O28" s="11">
         <f>1046000-1045000</f>
@@ -2900,22 +2979,22 @@
         <v>1000</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S28" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T28" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U28" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="X28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2933,25 +3012,25 @@
         <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L29" s="11">
         <v>3116</v>
@@ -2960,7 +3039,7 @@
         <v>8500</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O29" s="11">
         <f>1046500-1045650</f>
@@ -2971,22 +3050,22 @@
         <v>850</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S29" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T29" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3004,25 +3083,25 @@
         <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L30" s="11">
         <v>3116</v>
@@ -3031,7 +3110,7 @@
         <v>8500</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O30" s="11">
         <f>1046500-1045650</f>
@@ -3042,22 +3121,22 @@
         <v>850</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3075,25 +3154,25 @@
         <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L31" s="11">
         <v>3116</v>
@@ -3102,7 +3181,7 @@
         <v>8500</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O31" s="11">
         <f>1046500-1045650</f>
@@ -3113,22 +3192,22 @@
         <v>850</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S31" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T31" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U31" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3146,17 +3225,17 @@
         <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -3170,7 +3249,7 @@
       <c r="S32" s="26"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V32" s="7"/>
       <c r="X32" s="6" t="str">
@@ -3189,17 +3268,17 @@
         <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -3213,7 +3292,7 @@
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V33" s="7"/>
       <c r="X33" s="6" t="str">
@@ -3232,17 +3311,17 @@
         <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -3256,7 +3335,7 @@
       <c r="S34" s="26"/>
       <c r="T34" s="26"/>
       <c r="U34" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V34" s="7"/>
       <c r="X34" s="6" t="str">
@@ -3275,17 +3354,17 @@
         <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -3299,7 +3378,7 @@
       <c r="S35" s="26"/>
       <c r="T35" s="26"/>
       <c r="U35" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V35" s="7"/>
       <c r="X35" s="6" t="str">
@@ -3318,17 +3397,17 @@
         <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -3342,7 +3421,7 @@
       <c r="S36" s="26"/>
       <c r="T36" s="26"/>
       <c r="U36" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V36" s="7"/>
       <c r="X36" s="6" t="str">
@@ -3361,17 +3440,17 @@
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -3385,7 +3464,7 @@
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V37" s="7"/>
       <c r="X37" s="6" t="str">
@@ -3404,17 +3483,17 @@
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -3428,7 +3507,7 @@
       <c r="S38" s="26"/>
       <c r="T38" s="26"/>
       <c r="U38" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V38" s="7"/>
       <c r="X38" s="6" t="str">
@@ -3447,17 +3526,17 @@
         <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -3471,7 +3550,7 @@
       <c r="S39" s="26"/>
       <c r="T39" s="26"/>
       <c r="U39" s="26" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="V39" s="7"/>
       <c r="X39" s="6" t="str">
@@ -3490,25 +3569,25 @@
         <v>42</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L40" s="11">
         <v>3116</v>
@@ -3517,7 +3596,7 @@
         <v>40000</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O40" s="11">
         <f>1048000-1044000</f>
@@ -3528,22 +3607,22 @@
         <v>4000</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S40" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T40" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U40" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V40" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X40" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3561,25 +3640,25 @@
         <v>42</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L41" s="11">
         <v>3116</v>
@@ -3588,7 +3667,7 @@
         <v>12500</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O41" s="11">
         <f>1046250-1045000</f>
@@ -3599,22 +3678,22 @@
         <v>1250</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S41" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T41" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X41" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3632,25 +3711,25 @@
         <v>42</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L42" s="11">
         <v>3116</v>
@@ -3659,7 +3738,7 @@
         <v>40000</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O42" s="11">
         <f>1048000-1044000</f>
@@ -3670,22 +3749,22 @@
         <v>4000</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S42" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T42" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U42" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X42" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3703,25 +3782,25 @@
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L43" s="11">
         <v>3116</v>
@@ -3730,7 +3809,7 @@
         <v>7500</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O43" s="11">
         <f>1046000-1045250</f>
@@ -3741,22 +3820,22 @@
         <v>750</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S43" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U43" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X43" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3774,25 +3853,25 @@
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L44" s="11">
         <v>3116</v>
@@ -3801,7 +3880,7 @@
         <v>40000</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O44" s="11">
         <f>1048000-1044000</f>
@@ -3812,22 +3891,22 @@
         <v>4000</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S44" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T44" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U44" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X44" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3845,25 +3924,25 @@
         <v>42</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L45" s="11">
         <v>3116</v>
@@ -3872,7 +3951,7 @@
         <v>40000</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O45" s="11">
         <f>1048000-1044000</f>
@@ -3883,22 +3962,22 @@
         <v>4000</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S45" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U45" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X45" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3916,25 +3995,25 @@
         <v>42</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L46" s="11">
         <v>3116</v>
@@ -3943,7 +4022,7 @@
         <v>10000</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O46" s="11">
         <f>1047000-1046000</f>
@@ -3954,22 +4033,22 @@
         <v>1000</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S46" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T46" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U46" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X46" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3987,25 +4066,25 @@
         <v>42</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L47" s="11">
         <v>3116</v>
@@ -4014,7 +4093,7 @@
         <v>40000</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O47" s="11">
         <f>1048000-1044000</f>
@@ -4025,22 +4104,22 @@
         <v>4000</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T47" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U47" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X47" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4058,25 +4137,25 @@
         <v>36</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L48" s="11">
         <v>3116</v>
@@ -4085,7 +4164,7 @@
         <v>8000</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O48" s="11">
         <f>1046400-1045600</f>
@@ -4096,22 +4175,22 @@
         <v>800</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S48" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T48" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U48" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X48" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4129,25 +4208,25 @@
         <v>36</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L49" s="11">
         <v>3116</v>
@@ -4156,7 +4235,7 @@
         <v>8000</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O49" s="11">
         <f>1046400-1045600</f>
@@ -4167,22 +4246,22 @@
         <v>800</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T49" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U49" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="X49" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4200,25 +4279,25 @@
         <v>36</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L50" s="11">
         <v>3116</v>
@@ -4227,7 +4306,7 @@
         <v>8000</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O50" s="11">
         <f>1046400-1045600</f>
@@ -4238,22 +4317,22 @@
         <v>800</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S50" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T50" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U50" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V50" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X50" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4271,25 +4350,25 @@
         <v>36</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L51" s="11">
         <v>3116</v>
@@ -4298,7 +4377,7 @@
         <v>8000</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O51" s="11">
         <f>1046400-1045600</f>
@@ -4309,22 +4388,22 @@
         <v>800</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S51" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T51" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U51" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X51" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4342,25 +4421,25 @@
         <v>36</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L52" s="11">
         <v>3116</v>
@@ -4369,7 +4448,7 @@
         <v>8000</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O52" s="11">
         <f>1046400-1045600</f>
@@ -4380,22 +4459,22 @@
         <v>800</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S52" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T52" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U52" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V52" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X52" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4413,25 +4492,25 @@
         <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L53" s="11">
         <v>3116</v>
@@ -4440,7 +4519,7 @@
         <v>8000</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O53" s="11">
         <f>1046400-1045600</f>
@@ -4451,22 +4530,22 @@
         <v>800</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S53" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T53" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U53" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V53" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X53" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4484,25 +4563,25 @@
         <v>36</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L54" s="11">
         <v>3116</v>
@@ -4511,7 +4590,7 @@
         <v>8000</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O54" s="11">
         <f>1046400-1045600</f>
@@ -4522,22 +4601,22 @@
         <v>800</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R54" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S54" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T54" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U54" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V54" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X54" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4555,25 +4634,25 @@
         <v>36</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L55" s="11">
         <v>3116</v>
@@ -4582,7 +4661,7 @@
         <v>8000</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O55" s="11">
         <f>1046400-1045600</f>
@@ -4593,22 +4672,22 @@
         <v>800</v>
       </c>
       <c r="Q55" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S55" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T55" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U55" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V55" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="X55" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4626,13 +4705,13 @@
         <v>36</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="11"/>
@@ -4665,25 +4744,25 @@
         <v>35</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L57" s="11">
         <v>3116</v>
@@ -4692,7 +4771,7 @@
         <v>40000</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O57" s="11">
         <f>1048000-1044000</f>
@@ -4703,22 +4782,22 @@
         <v>4000</v>
       </c>
       <c r="Q57" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R57" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S57" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T57" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U57" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X57" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4736,25 +4815,25 @@
         <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L58" s="11">
         <v>3116</v>
@@ -4763,7 +4842,7 @@
         <v>5000</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O58" s="11">
         <f>1048000-1047500</f>
@@ -4774,22 +4853,22 @@
         <v>500</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R58" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S58" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T58" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U58" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V58" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X58" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4813,19 +4892,19 @@
         <v>53</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L59" s="11">
         <v>3116</v>
@@ -4834,7 +4913,7 @@
         <v>5000</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O59" s="11">
         <f>1048000-1047500</f>
@@ -4845,22 +4924,22 @@
         <v>500</v>
       </c>
       <c r="Q59" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R59" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S59" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T59" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U59" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="X59" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4878,25 +4957,25 @@
         <v>35</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L60" s="11">
         <v>3116</v>
@@ -4905,7 +4984,7 @@
         <v>40000</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O60" s="11">
         <f>1048000-1044000</f>
@@ -4916,22 +4995,22 @@
         <v>4000</v>
       </c>
       <c r="Q60" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R60" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S60" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T60" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U60" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V60" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X60" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4949,25 +5028,25 @@
         <v>35</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L61" s="11">
         <v>3116</v>
@@ -4976,7 +5055,7 @@
         <v>40000</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O61" s="11">
         <f>1048000-1044000</f>
@@ -4987,22 +5066,22 @@
         <v>4000</v>
       </c>
       <c r="Q61" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R61" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S61" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T61" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="U61" s="26" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="V61" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="X61" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5072,12 +5151,12 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>33</v>
@@ -5088,7 +5167,7 @@
         <v>4326</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -5096,7 +5175,7 @@
         <v>4329</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -5104,7 +5183,7 @@
         <v>3114</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -5112,7 +5191,7 @@
         <v>3115</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -5120,7 +5199,7 @@
         <v>3116</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -5128,7 +5207,7 @@
         <v>3117</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -5136,7 +5215,7 @@
         <v>3118</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
@@ -5144,7 +5223,7 @@
         <v>9377</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/activity/POTCartography/POT_Cartografia.xlsx
+++ b/activity/POTCartography/POT_Cartografia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTCartography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DC36B2-FBD9-4944-8767-816DDED8489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5511C83-9E1C-47D8-A6F9-10748F5E7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="POT_Cartografia" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,19 @@
             <family val="2"/>
           </rPr>
           <t>Sí / No</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{6C0AA4C0-2491-487E-A516-03B0885ECACA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:n</t>
         </r>
       </text>
     </comment>
@@ -154,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="169">
   <si>
     <t>Categorías de protección y desarrollo restringido en suelo rural</t>
   </si>
@@ -339,9 +352,6 @@
     <t>Separación vertical grilla en metros</t>
   </si>
   <si>
-    <t>Escala de Impresión (1:n)</t>
-  </si>
-  <si>
     <t>Tamaño de página en milímetros</t>
   </si>
   <si>
@@ -621,9 +631,6 @@
     <t>1000 x 600</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Legible. Red de drenaje incompleta o discontinua.</t>
   </si>
   <si>
@@ -655,6 +662,18 @@
   </si>
   <si>
     <t>Leyenda temática con áreas y/o longitudes</t>
+  </si>
+  <si>
+    <t>N/D</t>
+  </si>
+  <si>
+    <t>Escala de Impresión</t>
+  </si>
+  <si>
+    <t>Markdown</t>
+  </si>
+  <si>
+    <t>Markdown samples</t>
   </si>
 </sst>
 </file>
@@ -945,7 +964,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1036,6 +1055,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,11 +1393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
-  <dimension ref="A2:Y62"/>
+  <dimension ref="A2:Z62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U6" sqref="U6"/>
+      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -1402,16 +1424,23 @@
     <col min="21" max="21" width="15.3828125" style="9" customWidth="1"/>
     <col min="22" max="22" width="25.921875" style="1" customWidth="1"/>
     <col min="23" max="23" width="2.69140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="76.61328125" style="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.15234375" style="1"/>
+    <col min="24" max="24" width="89.4609375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="76.61328125" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" s="6" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" s="6" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
@@ -1419,7 +1448,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -1428,13 +1457,13 @@
         <v>33</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>56</v>
@@ -1446,10 +1475,10 @@
         <v>57</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O3" s="10" t="s">
         <v>59</v>
@@ -1458,98 +1487,106 @@
         <v>60</v>
       </c>
       <c r="Q3" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="S3" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="T3" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="S3" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>166</v>
-      </c>
       <c r="U3" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X3" s="6" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",G3," | ",H3," |")</f>
-        <v>| No. | Etapa | Componente | Código | Nombre | Disponible | Fecha |</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.4">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",L3," |",O3," | ",P3," | ",S3," | ",T3," | ",V3," | ")</f>
+        <v xml:space="preserve">| No. | Etapa | Componente | Código | Nombre | CRS |Separación horizontal grilla en metros | Separación vertical grilla en metros | Incluye leyenda temática | Leyenda temática con áreas y/o longitudes | Observaciones | </v>
+      </c>
+      <c r="Y3" s="6" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",J3," | ",K3," |")</f>
+        <v>| No. | Etapa | Componente | Código | Nombre | Fuente base cartográfica | Fuente temática |</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="R4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="T4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="U4" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>158</v>
       </c>
       <c r="V4" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X4" s="6" t="str">
-        <f t="shared" ref="X4:X62" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",G4," | ",H4," |")</f>
+        <f t="shared" ref="X4:X61" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",L4," |",O4," | ",P4," | ",S4," | ",T4," | ",V4," | ")</f>
+        <v xml:space="preserve">| --- | --- | --- | --- | --- | --- |--- | --- | --- | --- | --- | </v>
+      </c>
+      <c r="Y4" s="6" t="str">
+        <f t="shared" ref="Y4:Y61" si="1">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",J4," | ",K4," |")</f>
         <v>| --- | --- | --- | --- | --- | --- | --- |</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
         <v>1</v>
       </c>
@@ -1560,25 +1597,25 @@
         <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L5" s="11">
         <v>3116</v>
@@ -1587,7 +1624,7 @@
         <v>40000</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O5" s="11">
         <f>1024000-1020000</f>
@@ -1598,29 +1635,33 @@
         <v>4000</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S5" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U5" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B6" s="14">
         <v>2</v>
       </c>
@@ -1631,25 +1672,25 @@
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L6" s="11">
         <v>3116</v>
@@ -1658,7 +1699,7 @@
         <v>50000</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" s="11">
         <f>1050000-1045000</f>
@@ -1669,29 +1710,33 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S6" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T6" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U6" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | 3116 |5000 | 5000 | Sí | No | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B7" s="14">
         <v>3</v>
       </c>
@@ -1702,25 +1747,25 @@
         <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H7" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L7" s="11">
         <v>3116</v>
@@ -1729,7 +1774,7 @@
         <v>40000</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="11">
         <f>1048000-1044000</f>
@@ -1740,29 +1785,33 @@
         <v>4000</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S7" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T7" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U7" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V7" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="102.9" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="102.9" x14ac:dyDescent="0.4">
       <c r="B8" s="14">
         <v>4</v>
       </c>
@@ -1773,25 +1822,25 @@
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L8" s="11">
         <v>3116</v>
@@ -1800,7 +1849,7 @@
         <v>40000</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O8" s="11">
         <f>1048000-1044000</f>
@@ -1811,29 +1860,33 @@
         <v>4000</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T8" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U8" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio Cuenca Hidrográfica río Susaguá 2000. Estudio de Impacto Ambiental ECOPETROL Poliducto Mansilla - Tocancipá 2007. Líneas ajustadas con el Modelo Digital SRTM 2002 tiff (WEB Global Land Cover Facility) 90 metros de resolución. |</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B9" s="14">
         <v>5</v>
       </c>
@@ -1844,25 +1897,25 @@
         <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="L9" s="11">
         <v>3116</v>
@@ -1871,7 +1924,7 @@
         <v>40000</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O9" s="11">
         <f>1048000-1044000</f>
@@ -1882,29 +1935,33 @@
         <v>4000</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S9" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T9" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U9" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
+      </c>
+      <c r="Y9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B10" s="14">
         <v>6</v>
       </c>
@@ -1915,25 +1972,25 @@
         <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="L10" s="11">
         <v>3116</v>
@@ -1942,7 +1999,7 @@
         <v>40000</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O10" s="11">
         <f>1048000-1044000</f>
@@ -1953,29 +2010,33 @@
         <v>4000</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S10" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T10" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U10" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 6 | Diagnóstico | Rural | DR-05 | Suelos | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 6 | Diagnóstico | Rural | DR-05 | Suelos | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
+      </c>
+      <c r="Y10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 6 | Diagnóstico | Rural | DR-05 | Suelos | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B11" s="14">
         <v>7</v>
       </c>
@@ -1986,25 +2047,25 @@
         <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="L11" s="11">
         <v>3116</v>
@@ -2013,7 +2074,7 @@
         <v>40000</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11" s="11">
         <f>1048000-1044000</f>
@@ -2024,29 +2085,33 @@
         <v>4000</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S11" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U11" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 7 | Diagnóstico | Rural | DR-06 | Pendientes | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 7 | Diagnóstico | Rural | DR-06 | Pendientes | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
+      </c>
+      <c r="Y11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 7 | Diagnóstico | Rural | DR-06 | Pendientes | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B12" s="14">
         <v>8</v>
       </c>
@@ -2057,25 +2122,25 @@
         <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="L12" s="11">
         <v>3116</v>
@@ -2084,7 +2149,7 @@
         <v>40000</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O12" s="11">
         <f>1048000-1044000</f>
@@ -2095,29 +2160,33 @@
         <v>4000</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S12" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U12" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V12" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -2128,25 +2197,25 @@
         <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="L13" s="11">
         <v>3116</v>
@@ -2155,7 +2224,7 @@
         <v>40000</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" s="11">
         <f>1048000-1044000</f>
@@ -2166,29 +2235,33 @@
         <v>4000</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S13" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T13" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U13" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="X13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="68.599999999999994" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
+      </c>
+      <c r="Y13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B14" s="14">
         <v>10</v>
       </c>
@@ -2199,25 +2272,25 @@
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="L14" s="11">
         <v>3116</v>
@@ -2226,7 +2299,7 @@
         <v>40000</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O14" s="11">
         <f>1048000-1044000</f>
@@ -2237,29 +2310,33 @@
         <v>4000</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S14" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U14" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B15" s="14">
         <v>11</v>
       </c>
@@ -2270,25 +2347,25 @@
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L15" s="11">
         <v>3116</v>
@@ -2297,7 +2374,7 @@
         <v>40000</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O15" s="11">
         <f>1048000-1044000</f>
@@ -2308,29 +2385,33 @@
         <v>4000</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S15" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T15" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U15" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V15" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V15" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Interpretación de imagen de Satélite Landsat 7 ETM Path 8 Row 56, 2007/02/07, Metodología CORINE LAND COVER COLOMBIA, vs. Cobertura de Uso Potencial del Suelo DR-08. |</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B16" s="14">
         <v>12</v>
       </c>
@@ -2341,39 +2422,69 @@
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I16" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V16" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V16" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | No |  |</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B17" s="14">
         <v>13</v>
       </c>
@@ -2384,39 +2495,69 @@
         <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I17" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V17" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | No |  |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B18" s="14">
         <v>14</v>
       </c>
@@ -2427,39 +2568,69 @@
         <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I18" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V18" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V18" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | No |  |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B19" s="14">
         <v>15</v>
       </c>
@@ -2470,39 +2641,69 @@
         <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I19" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V19" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V19" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | No |  |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B20" s="14">
         <v>16</v>
       </c>
@@ -2513,39 +2714,69 @@
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H20" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I20" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V20" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U20" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V20" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | No |  |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B21" s="14">
         <v>17</v>
       </c>
@@ -2556,39 +2787,69 @@
         <v>35</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I21" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V21" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U21" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | No |  |</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B22" s="14">
         <v>18</v>
       </c>
@@ -2599,39 +2860,69 @@
         <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H22" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I22" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V22" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U22" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V22" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | No |  |</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -2642,39 +2933,69 @@
         <v>35</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I23" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V23" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | No |  |</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B24" s="14">
         <v>20</v>
       </c>
@@ -2685,39 +3006,69 @@
         <v>35</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I24" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V24" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U24" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | No |  |</v>
-      </c>
-    </row>
-    <row r="25" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B25" s="14">
         <v>23</v>
       </c>
@@ -2728,25 +3079,25 @@
         <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L25" s="11">
         <v>3116</v>
@@ -2755,7 +3106,7 @@
         <v>8500</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O25" s="11">
         <f>1046500-1045650</f>
@@ -2766,29 +3117,33 @@
         <v>850</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S25" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U25" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | 3116 |850 | 850 | Sí | Sí | Legible. | </v>
+      </c>
+      <c r="Y25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B26" s="14">
         <v>24</v>
       </c>
@@ -2799,25 +3154,25 @@
         <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H26" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K26" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L26" s="11">
         <v>3116</v>
@@ -2826,7 +3181,7 @@
         <v>10000</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O26" s="11">
         <f>1046000-1045000</f>
@@ -2837,29 +3192,33 @@
         <v>1000</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S26" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U26" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | 3116 |1000 | 1000 | Sí | No | Legible. | </v>
+      </c>
+      <c r="Y26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B27" s="14">
         <v>25</v>
       </c>
@@ -2870,25 +3229,25 @@
         <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L27" s="11">
         <v>3116</v>
@@ -2897,7 +3256,7 @@
         <v>10000</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O27" s="11">
         <f>1046000-1045000</f>
@@ -2908,29 +3267,33 @@
         <v>1000</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S27" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | 3116 |1000 | 1000 | Sí | No | Legible. Incluye redes acueducto y perímetro servicios públicos. | </v>
+      </c>
+      <c r="Y27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B28" s="14">
         <v>26</v>
       </c>
@@ -2941,25 +3304,25 @@
         <v>36</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L28" s="11">
         <v>3116</v>
@@ -2968,7 +3331,7 @@
         <v>10000</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O28" s="11">
         <f>1046000-1045000</f>
@@ -2979,29 +3342,33 @@
         <v>1000</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S28" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T28" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U28" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="X28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | 3116 |1000 | 1000 | Sí | No | Legible. Incluye redes de alcantarillado y polígonos de sistemas. | </v>
+      </c>
+      <c r="Y28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B29" s="14">
         <v>27</v>
       </c>
@@ -3012,25 +3379,25 @@
         <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H29" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L29" s="11">
         <v>3116</v>
@@ -3039,7 +3406,7 @@
         <v>8500</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O29" s="11">
         <f>1046500-1045650</f>
@@ -3050,29 +3417,33 @@
         <v>850</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S29" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T29" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U29" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | 3116 |850 | 850 | Sí | No | Legible. | </v>
+      </c>
+      <c r="Y29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B30" s="14">
         <v>28</v>
       </c>
@@ -3083,25 +3454,25 @@
         <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L30" s="11">
         <v>3116</v>
@@ -3110,7 +3481,7 @@
         <v>8500</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O30" s="11">
         <f>1046500-1045650</f>
@@ -3121,29 +3492,33 @@
         <v>850</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S30" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U30" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | 3116 |850 | 850 | Sí | No | Legible. | </v>
+      </c>
+      <c r="Y30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Plan de movilidad Municipio de Zipaquirá, 2009. Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B31" s="14">
         <v>29</v>
       </c>
@@ -3154,25 +3529,25 @@
         <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="L31" s="11">
         <v>3116</v>
@@ -3181,7 +3556,7 @@
         <v>8500</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O31" s="11">
         <f>1046500-1045650</f>
@@ -3192,29 +3567,33 @@
         <v>850</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S31" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T31" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U31" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | Sí | 31/07/2010 |</v>
-      </c>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | 3116 |850 | 850 | Sí | Sí | Legible. | </v>
+      </c>
+      <c r="Y31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B32" s="14">
         <v>30</v>
       </c>
@@ -3225,39 +3604,69 @@
         <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I32" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V32" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | No |  |</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B33" s="14">
         <v>31</v>
       </c>
@@ -3268,39 +3677,69 @@
         <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I33" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V33" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V33" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | No |  |</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B34" s="14">
         <v>32</v>
       </c>
@@ -3311,39 +3750,69 @@
         <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I34" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V34" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U34" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V34" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | No |  |</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B35" s="14">
         <v>33</v>
       </c>
@@ -3354,39 +3823,69 @@
         <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I35" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V35" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | No |  |</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B36" s="14">
         <v>34</v>
       </c>
@@ -3397,39 +3896,69 @@
         <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I36" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V36" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V36" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | No |  |</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B37" s="14">
         <v>35</v>
       </c>
@@ -3440,39 +3969,69 @@
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H37" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I37" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V37" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | No |  |</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B38" s="14">
         <v>36</v>
       </c>
@@ -3483,39 +4042,69 @@
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H38" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I38" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V38" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | No |  |</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B39" s="14">
         <v>37</v>
       </c>
@@ -3526,39 +4115,69 @@
         <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="3"/>
+        <v>124</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="I39" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="V39" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U39" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | No |  |</v>
-      </c>
-    </row>
-    <row r="40" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B40" s="14">
         <v>1</v>
       </c>
@@ -3569,25 +4188,25 @@
         <v>42</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L40" s="11">
         <v>3116</v>
@@ -3596,7 +4215,7 @@
         <v>40000</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O40" s="11">
         <f>1048000-1044000</f>
@@ -3607,29 +4226,33 @@
         <v>4000</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S40" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T40" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U40" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V40" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V40" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 1 | Formulación | General | CG-01 | Clasificación general del territorio | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="41" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 1 | Formulación | General | CG-01 | Clasificación general del territorio | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 1 | Formulación | General | CG-01 | Clasificación general del territorio | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B41" s="14">
         <v>2</v>
       </c>
@@ -3640,25 +4263,25 @@
         <v>42</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H41" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L41" s="11">
         <v>3116</v>
@@ -3667,7 +4290,7 @@
         <v>12500</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O41" s="11">
         <f>1046250-1045000</f>
@@ -3678,29 +4301,33 @@
         <v>1250</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S41" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T41" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U41" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 2 | Formulación | General | CG-02 | Asentamientos humanos | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 2 | Formulación | General | CG-02 | Asentamientos humanos | 3116 |1250 | 1250 | Sí | Sí | Legible. | </v>
+      </c>
+      <c r="Y41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 2 | Formulación | General | CG-02 | Asentamientos humanos | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B42" s="14">
         <v>3</v>
       </c>
@@ -3711,25 +4338,25 @@
         <v>42</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L42" s="11">
         <v>3116</v>
@@ -3738,7 +4365,7 @@
         <v>40000</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O42" s="11">
         <f>1048000-1044000</f>
@@ -3749,29 +4376,33 @@
         <v>4000</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S42" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T42" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U42" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V42" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V42" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B43" s="14">
         <v>4</v>
       </c>
@@ -3782,25 +4413,25 @@
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H43" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L43" s="11">
         <v>3116</v>
@@ -3809,7 +4440,7 @@
         <v>7500</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O43" s="11">
         <f>1046000-1045250</f>
@@ -3820,29 +4451,33 @@
         <v>750</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S43" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U43" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | 3116 |750 | 750 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B44" s="14">
         <v>5</v>
       </c>
@@ -3853,25 +4488,25 @@
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H44" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L44" s="11">
         <v>3116</v>
@@ -3880,7 +4515,7 @@
         <v>40000</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O44" s="11">
         <f>1048000-1044000</f>
@@ -3891,29 +4526,33 @@
         <v>4000</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S44" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T44" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U44" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V44" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V44" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B45" s="14">
         <v>6</v>
       </c>
@@ -3924,25 +4563,25 @@
         <v>42</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H45" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L45" s="11">
         <v>3116</v>
@@ -3951,7 +4590,7 @@
         <v>40000</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O45" s="11">
         <f>1048000-1044000</f>
@@ -3962,29 +4601,33 @@
         <v>4000</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S45" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T45" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U45" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V45" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V45" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 6 | Formulación | General | CG-06 | División política rural | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 6 | Formulación | General | CG-06 | División política rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 6 | Formulación | General | CG-06 | División política rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B46" s="14">
         <v>7</v>
       </c>
@@ -3995,25 +4638,25 @@
         <v>42</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H46" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L46" s="11">
         <v>3116</v>
@@ -4022,7 +4665,7 @@
         <v>10000</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O46" s="11">
         <f>1047000-1046000</f>
@@ -4033,29 +4676,33 @@
         <v>1000</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S46" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T46" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U46" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 7 | Formulación | General | CG-07 | División política urbana | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 7 | Formulación | General | CG-07 | División política urbana | 3116 |1000 | 1000 | Sí | Sí | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 7 | Formulación | General | CG-07 | División política urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B47" s="14">
         <v>8</v>
       </c>
@@ -4066,25 +4713,25 @@
         <v>42</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H47" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L47" s="11">
         <v>3116</v>
@@ -4093,7 +4740,7 @@
         <v>40000</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O47" s="11">
         <f>1048000-1044000</f>
@@ -4104,29 +4751,33 @@
         <v>4000</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S47" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T47" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U47" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V47" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V47" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" ht="120" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" ht="120" x14ac:dyDescent="0.4">
       <c r="B48" s="14">
         <v>9</v>
       </c>
@@ -4137,25 +4788,25 @@
         <v>36</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H48" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L48" s="11">
         <v>3116</v>
@@ -4164,7 +4815,7 @@
         <v>8000</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O48" s="11">
         <f>1046400-1045600</f>
@@ -4175,29 +4826,33 @@
         <v>800</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S48" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T48" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U48" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" ht="120" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Sin áreas calculadas ni porcentajes de distribución. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" ht="120" x14ac:dyDescent="0.4">
       <c r="B49" s="14">
         <v>10</v>
       </c>
@@ -4208,25 +4863,25 @@
         <v>36</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L49" s="11">
         <v>3116</v>
@@ -4235,7 +4890,7 @@
         <v>8000</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O49" s="11">
         <f>1046400-1045600</f>
@@ -4246,29 +4901,33 @@
         <v>800</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T49" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U49" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="X49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Sin áreas calculadas ni porcentajes de distribución. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B50" s="14">
         <v>11</v>
       </c>
@@ -4279,25 +4938,25 @@
         <v>36</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H50" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L50" s="11">
         <v>3116</v>
@@ -4306,7 +4965,7 @@
         <v>8000</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O50" s="11">
         <f>1046400-1045600</f>
@@ -4317,29 +4976,33 @@
         <v>800</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S50" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T50" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U50" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V50" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X50" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B51" s="14">
         <v>12</v>
       </c>
@@ -4350,25 +5013,25 @@
         <v>36</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H51" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L51" s="11">
         <v>3116</v>
@@ -4377,7 +5040,7 @@
         <v>8000</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O51" s="11">
         <f>1046400-1045600</f>
@@ -4388,29 +5051,33 @@
         <v>800</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S51" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T51" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U51" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X51" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B52" s="14">
         <v>13</v>
       </c>
@@ -4421,25 +5088,25 @@
         <v>36</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H52" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L52" s="11">
         <v>3116</v>
@@ -4448,7 +5115,7 @@
         <v>8000</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O52" s="11">
         <f>1046400-1045600</f>
@@ -4459,29 +5126,33 @@
         <v>800</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S52" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T52" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U52" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V52" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X52" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B53" s="14">
         <v>14</v>
       </c>
@@ -4492,25 +5163,25 @@
         <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H53" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L53" s="11">
         <v>3116</v>
@@ -4519,7 +5190,7 @@
         <v>8000</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O53" s="11">
         <f>1046400-1045600</f>
@@ -4530,29 +5201,33 @@
         <v>800</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S53" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T53" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U53" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V53" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X53" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="54" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B54" s="14">
         <v>15</v>
       </c>
@@ -4563,25 +5238,25 @@
         <v>36</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H54" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L54" s="11">
         <v>3116</v>
@@ -4590,7 +5265,7 @@
         <v>8000</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O54" s="11">
         <f>1046400-1045600</f>
@@ -4601,29 +5276,33 @@
         <v>800</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R54" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S54" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T54" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U54" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V54" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X54" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="55" spans="2:24" ht="85.75" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B55" s="14">
         <v>16</v>
       </c>
@@ -4634,25 +5313,25 @@
         <v>36</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H55" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L55" s="11">
         <v>3116</v>
@@ -4661,7 +5340,7 @@
         <v>8000</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O55" s="11">
         <f>1046400-1045600</f>
@@ -4672,29 +5351,33 @@
         <v>800</v>
       </c>
       <c r="Q55" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S55" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T55" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U55" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V55" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X55" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="Y55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="56" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B56" s="14">
         <v>17</v>
       </c>
@@ -4705,35 +5388,69 @@
         <v>36</v>
       </c>
       <c r="E56" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="24" t="s">
-        <v>153</v>
-      </c>
       <c r="G56" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="O56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="S56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="T56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="V56" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="X56" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | No |  |</v>
-      </c>
-    </row>
-    <row r="57" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | N/D |N/D | N/D | N/D | N/D | N/D | </v>
+      </c>
+      <c r="Y56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | N/D | N/D |</v>
+      </c>
+    </row>
+    <row r="57" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B57" s="14">
         <v>18</v>
       </c>
@@ -4744,25 +5461,25 @@
         <v>35</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L57" s="11">
         <v>3116</v>
@@ -4771,7 +5488,7 @@
         <v>40000</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O57" s="11">
         <f>1048000-1044000</f>
@@ -4782,29 +5499,33 @@
         <v>4000</v>
       </c>
       <c r="Q57" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R57" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S57" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T57" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U57" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V57" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V57" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X57" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="58" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="58" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B58" s="14">
         <v>19</v>
       </c>
@@ -4815,25 +5536,25 @@
         <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L58" s="11">
         <v>3116</v>
@@ -4842,7 +5563,7 @@
         <v>5000</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O58" s="11">
         <f>1048000-1047500</f>
@@ -4853,29 +5574,33 @@
         <v>500</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R58" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S58" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T58" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U58" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V58" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X58" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | 3116 |500 | 500 | Sí | No | Legible. | </v>
+      </c>
+      <c r="Y58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="59" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B59" s="14">
         <v>20</v>
       </c>
@@ -4892,19 +5617,19 @@
         <v>53</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L59" s="11">
         <v>3116</v>
@@ -4913,7 +5638,7 @@
         <v>5000</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O59" s="11">
         <f>1048000-1047500</f>
@@ -4924,29 +5649,33 @@
         <v>500</v>
       </c>
       <c r="Q59" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R59" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S59" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T59" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U59" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X59" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="60" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | 3116 |500 | 500 | Sí | No | Legible. | </v>
+      </c>
+      <c r="Y59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B60" s="14">
         <v>21</v>
       </c>
@@ -4957,25 +5686,25 @@
         <v>35</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L60" s="11">
         <v>3116</v>
@@ -4984,7 +5713,7 @@
         <v>40000</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O60" s="11">
         <f>1048000-1044000</f>
@@ -4995,29 +5724,33 @@
         <v>4000</v>
       </c>
       <c r="Q60" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R60" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S60" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T60" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U60" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V60" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V60" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X60" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 21 | Formulación | Rural | CR-03 | Plan vial rural | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" ht="51.45" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 21 | Formulación | Rural | CR-03 | Plan vial rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 21 | Formulación | Rural | CR-03 | Plan vial rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B61" s="14">
         <v>22</v>
       </c>
@@ -5028,25 +5761,25 @@
         <v>35</v>
       </c>
       <c r="E61" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="F61" s="24" t="s">
-        <v>151</v>
-      </c>
       <c r="G61" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L61" s="11">
         <v>3116</v>
@@ -5055,7 +5788,7 @@
         <v>40000</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O61" s="11">
         <f>1048000-1044000</f>
@@ -5066,29 +5799,33 @@
         <v>4000</v>
       </c>
       <c r="Q61" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R61" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S61" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T61" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U61" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="V61" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V61" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="X61" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | Sí | 31/06/2013 |</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.4">
+        <v xml:space="preserve">| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="Y61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.4">
       <c r="B62" s="15"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -5110,7 +5847,7 @@
       <c r="T62" s="27"/>
       <c r="U62" s="27"/>
       <c r="V62" s="8"/>
-      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:V62" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}"/>
@@ -5124,7 +5861,7 @@
           <x14:formula1>
             <xm:f>Setup!$B$4:$B$11</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:L61</xm:sqref>
+          <xm:sqref>L5:L15 L25:L31 L40:L55 L57:L61</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5134,11 +5871,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BE5F44-546D-4AD9-A5D9-BB397AB5A2A2}">
-  <dimension ref="B2:C11"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -5146,84 +5883,96 @@
     <col min="1" max="1" width="2.69140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="7.3046875" style="16" customWidth="1"/>
     <col min="3" max="3" width="63.3046875" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="9.23046875" style="16"/>
+    <col min="4" max="4" width="2.69140625" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="9.23046875" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="17">
         <v>4326</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>128</v>
+      </c>
+      <c r="E4" s="16" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",J3," | ",K3," |")</f>
+        <v>| EPSG | Nombre |  | Markdown samples |  |  |  |</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="17">
         <v>4329</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>129</v>
+      </c>
+      <c r="E5" s="16" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",L3," |",O3," | ",P3," | ",S3," | ",T3," | ",V3," | ")</f>
+        <v xml:space="preserve">| EPSG | Nombre |  | Markdown samples |  |  | |  |  |  |  | </v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="17">
         <v>3114</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="17">
         <v>3115</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="17">
         <v>3116</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="17">
         <v>3117</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="17">
         <v>3118</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="19">
         <v>9377</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/activity/POTCartography/POT_Cartografia.xlsx
+++ b/activity/POTCartography/POT_Cartografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTCartography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5511C83-9E1C-47D8-A6F9-10748F5E7581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5D498-04C9-44C8-86DA-B66C370C24CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="178">
   <si>
     <t>Categorías de protección y desarrollo restringido en suelo rural</t>
   </si>
@@ -674,6 +674,33 @@
   </si>
   <si>
     <t>Markdown samples</t>
+  </si>
+  <si>
+    <t>Lista de mapas en Marcdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",J3," | ",K3," |")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",L3," |",O3," | ",P3," | ",S3," | ",T3," | ",V3," | ")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CONCAT(E5," ",F5,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;")</t>
+  </si>
+  <si>
+    <t>Uso</t>
+  </si>
+  <si>
+    <t>Sentencia</t>
+  </si>
+  <si>
+    <t>Concatenación 7 columnas</t>
+  </si>
+  <si>
+    <t>Concatenación 11 columnas</t>
+  </si>
+  <si>
+    <t>Impresión de mapas</t>
   </si>
 </sst>
 </file>
@@ -964,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1011,27 +1038,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1058,6 +1064,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1393,11 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
-  <dimension ref="A2:Z62"/>
+  <dimension ref="A2:AD62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5:X61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -1424,23 +1454,26 @@
     <col min="21" max="21" width="15.3828125" style="9" customWidth="1"/>
     <col min="22" max="22" width="25.921875" style="1" customWidth="1"/>
     <col min="23" max="23" width="2.69140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="89.4609375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="76.61328125" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.15234375" style="1"/>
+    <col min="24" max="24" width="79.69140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="2.69140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="81.84375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="89.4609375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="76.61328125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="2:25" s="6" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:28" s="6" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
@@ -1492,101 +1525,112 @@
       <c r="R3" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="18" t="s">
         <v>61</v>
       </c>
       <c r="V3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="6" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",L3," |",O3," | ",P3," | ",S3," | ",T3," | ",V3," | ")</f>
-        <v xml:space="preserve">| No. | Etapa | Componente | Código | Nombre | CRS |Separación horizontal grilla en metros | Separación vertical grilla en metros | Incluye leyenda temática | Leyenda temática con áreas y/o longitudes | Observaciones | </v>
-      </c>
-      <c r="Y3" s="6" t="str">
+      <c r="X3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="6" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",V3," | ")</f>
+        <v xml:space="preserve">| No. | Etapa | Componente | Código | Nombre | Observaciones | </v>
+      </c>
+      <c r="AA3" s="6" t="str">
+        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",O3," |",P3," | ",S3," | ",T3," | ")</f>
+        <v xml:space="preserve">| No. | Etapa | Componente | Código | Nombre | Separación horizontal grilla en metros |Separación vertical grilla en metros | Incluye leyenda temática | Leyenda temática con áreas y/o longitudes | </v>
+      </c>
+      <c r="AB3" s="6" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",J3," | ",K3," |")</f>
         <v>| No. | Etapa | Componente | Código | Nombre | Fuente base cartográfica | Fuente temática |</v>
       </c>
     </row>
-    <row r="4" spans="2:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="X4" s="6" t="str">
-        <f t="shared" ref="X4:X61" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",L4," |",O4," | ",P4," | ",S4," | ",T4," | ",V4," | ")</f>
-        <v xml:space="preserve">| --- | --- | --- | --- | --- | --- |--- | --- | --- | --- | --- | </v>
-      </c>
-      <c r="Y4" s="6" t="str">
-        <f t="shared" ref="Y4:Y61" si="1">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",J4," | ",K4," |")</f>
+      <c r="Z4" s="6" t="str">
+        <f t="shared" ref="Z4:Z61" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",V4," | ")</f>
+        <v xml:space="preserve">| --- | --- | --- | --- | --- | --- | </v>
+      </c>
+      <c r="AA4" s="6" t="str">
+        <f t="shared" ref="AA4:AA61" si="1">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",O4," |",P4," | ",S4," | ",T4," | ")</f>
+        <v xml:space="preserve">| --- | --- | --- | --- | --- | --- |--- | --- | --- | </v>
+      </c>
+      <c r="AB4" s="6" t="str">
+        <f t="shared" ref="AB4:AB61" si="2">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",J4," | ",K4," |")</f>
         <v>| --- | --- | --- | --- | --- | --- | --- |</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
         <v>1</v>
       </c>
@@ -1605,7 +1649,7 @@
       <c r="G5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -1640,28 +1684,36 @@
       <c r="R5" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S5" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U5" s="26" t="s">
+      <c r="S5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X5" s="6" t="str">
+      <c r="X5" s="1" t="str">
+        <f>_xlfn.CONCAT(E5," ",F5,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;")</f>
+        <v>DR-01a Categorías de protección y desarrollo restringido en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01a.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y5" s="6" t="str">
+        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA5" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB5" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B6" s="14">
         <v>2</v>
       </c>
@@ -1680,7 +1732,7 @@
       <c r="G6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -1715,28 +1767,36 @@
       <c r="R6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S6" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6" s="26" t="s">
+      <c r="S6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="U6" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X6" s="6" t="str">
+      <c r="X6" s="1" t="str">
+        <f t="shared" ref="X6:X61" si="3">_xlfn.CONCAT(E6," ",F6,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E6,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;")</f>
+        <v>DR-01b Áreas protegidas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01b.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | 3116 |5000 | 5000 | Sí | No | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y6" s="6" t="str">
+        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA6" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | 5000 |5000 | Sí | No | </v>
+      </c>
+      <c r="AB6" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B7" s="14">
         <v>3</v>
       </c>
@@ -1755,7 +1815,7 @@
       <c r="G7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -1790,28 +1850,36 @@
       <c r="R7" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S7" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T7" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U7" s="26" t="s">
+      <c r="S7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U7" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V7" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X7" s="6" t="str">
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-02 Estructura ecológica principal rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y7" s="6" t="str">
+        <v xml:space="preserve">| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA7" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB7" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="102.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:28" ht="102.9" x14ac:dyDescent="0.4">
       <c r="B8" s="14">
         <v>4</v>
       </c>
@@ -1830,7 +1898,7 @@
       <c r="G8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -1865,28 +1933,36 @@
       <c r="R8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T8" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U8" s="26" t="s">
+      <c r="S8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X8" s="6" t="str">
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-03 Hidrografía y delimitación de cuencas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y8" s="6" t="str">
+        <v xml:space="preserve">| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA8" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB8" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio Cuenca Hidrográfica río Susaguá 2000. Estudio de Impacto Ambiental ECOPETROL Poliducto Mansilla - Tocancipá 2007. Líneas ajustadas con el Modelo Digital SRTM 2002 tiff (WEB Global Land Cover Facility) 90 metros de resolución. |</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B9" s="14">
         <v>5</v>
       </c>
@@ -1905,7 +1981,7 @@
       <c r="G9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -1940,28 +2016,36 @@
       <c r="R9" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U9" s="26" t="s">
+      <c r="S9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U9" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V9" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="X9" s="6" t="str">
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-04 Geomorfología&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
-      </c>
-      <c r="Y9" s="6" t="str">
+        <v xml:space="preserve">| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
+      </c>
+      <c r="AA9" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB9" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B10" s="14">
         <v>6</v>
       </c>
@@ -1980,7 +2064,7 @@
       <c r="G10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I10" s="11" t="s">
@@ -2015,28 +2099,36 @@
       <c r="R10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" s="26" t="s">
+      <c r="S10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T10" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U10" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V10" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="X10" s="6" t="str">
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-05 Suelos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 6 | Diagnóstico | Rural | DR-05 | Suelos | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
-      </c>
-      <c r="Y10" s="6" t="str">
+        <v xml:space="preserve">| 6 | Diagnóstico | Rural | DR-05 | Suelos | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
+      </c>
+      <c r="AA10" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 6 | Diagnóstico | Rural | DR-05 | Suelos | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB10" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 6 | Diagnóstico | Rural | DR-05 | Suelos | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B11" s="14">
         <v>7</v>
       </c>
@@ -2055,7 +2147,7 @@
       <c r="G11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -2090,28 +2182,36 @@
       <c r="R11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S11" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T11" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U11" s="26" t="s">
+      <c r="S11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U11" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V11" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="X11" s="6" t="str">
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-06 Pendientes&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z11" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 7 | Diagnóstico | Rural | DR-06 | Pendientes | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
-      </c>
-      <c r="Y11" s="6" t="str">
+        <v xml:space="preserve">| 7 | Diagnóstico | Rural | DR-06 | Pendientes | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
+      </c>
+      <c r="AA11" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 7 | Diagnóstico | Rural | DR-06 | Pendientes | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB11" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 7 | Diagnóstico | Rural | DR-06 | Pendientes | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B12" s="14">
         <v>8</v>
       </c>
@@ -2130,7 +2230,7 @@
       <c r="G12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -2165,28 +2265,36 @@
       <c r="R12" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S12" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T12" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U12" s="26" t="s">
+      <c r="S12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U12" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V12" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X12" s="6" t="str">
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-07 Zonificación agroclimática&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z12" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y12" s="6" t="str">
+        <v xml:space="preserve">| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA12" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB12" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -2205,7 +2313,7 @@
       <c r="G13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -2240,28 +2348,36 @@
       <c r="R13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T13" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U13" s="26" t="s">
+      <c r="S13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V13" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="X13" s="6" t="str">
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-08 Uso potencial del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
-      </c>
-      <c r="Y13" s="6" t="str">
+        <v xml:space="preserve">| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
+      </c>
+      <c r="AA13" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB13" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B14" s="14">
         <v>10</v>
       </c>
@@ -2280,7 +2396,7 @@
       <c r="G14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -2315,28 +2431,36 @@
       <c r="R14" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S14" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T14" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U14" s="26" t="s">
+      <c r="S14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U14" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V14" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X14" s="6" t="str">
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-09 Cobertura y uso actual del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y14" s="6" t="str">
+        <v xml:space="preserve">| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA14" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB14" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B15" s="14">
         <v>11</v>
       </c>
@@ -2355,7 +2479,7 @@
       <c r="G15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I15" s="11" t="s">
@@ -2390,28 +2514,36 @@
       <c r="R15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S15" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T15" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U15" s="26" t="s">
+      <c r="S15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U15" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V15" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X15" s="6" t="str">
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-10 Conflictos de uso del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y15" s="6" t="str">
+        <v xml:space="preserve">| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA15" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB15" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Interpretación de imagen de Satélite Landsat 7 ETM Path 8 Row 56, 2007/02/07, Metodología CORINE LAND COVER COLOMBIA, vs. Cobertura de Uso Potencial del Suelo DR-08. |</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B16" s="14">
         <v>12</v>
       </c>
@@ -2475,16 +2607,24 @@
       <c r="V16" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X16" s="6" t="str">
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-11 Zonificación de amenazas naturales y antrópicas en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y16" s="6" t="str">
+        <v xml:space="preserve">| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D | </v>
+      </c>
+      <c r="AA16" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB16" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D | N/D |</v>
       </c>
     </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B17" s="14">
         <v>13</v>
       </c>
@@ -2548,16 +2688,24 @@
       <c r="V17" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X17" s="6" t="str">
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-12 Sistema vial rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y17" s="6" t="str">
+        <v xml:space="preserve">| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D | </v>
+      </c>
+      <c r="AA17" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB17" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D | N/D |</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B18" s="14">
         <v>14</v>
       </c>
@@ -2621,16 +2769,24 @@
       <c r="V18" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X18" s="6" t="str">
+      <c r="X18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-13 Equipamientos colectivos rurales y elementos patrimoniales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z18" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y18" s="6" t="str">
+        <v xml:space="preserve">| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D | </v>
+      </c>
+      <c r="AA18" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB18" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D | N/D |</v>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B19" s="14">
         <v>15</v>
       </c>
@@ -2694,16 +2850,24 @@
       <c r="V19" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X19" s="6" t="str">
+      <c r="X19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-14 Clasificación general del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z19" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y19" s="6" t="str">
+        <v xml:space="preserve">| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D | </v>
+      </c>
+      <c r="AA19" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB19" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D | N/D |</v>
       </c>
     </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B20" s="14">
         <v>16</v>
       </c>
@@ -2767,16 +2931,24 @@
       <c r="V20" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X20" s="6" t="str">
+      <c r="X20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-15 Asentamientos humanos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z20" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y20" s="6" t="str">
+        <v xml:space="preserve">| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D | </v>
+      </c>
+      <c r="AA20" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB20" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D | N/D |</v>
       </c>
     </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B21" s="14">
         <v>17</v>
       </c>
@@ -2840,16 +3012,24 @@
       <c r="V21" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X21" s="6" t="str">
+      <c r="X21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-16 Límites y división política rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-16.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y21" s="6" t="str">
+        <v xml:space="preserve">| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D | </v>
+      </c>
+      <c r="AA21" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB21" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D | N/D |</v>
       </c>
     </row>
-    <row r="22" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B22" s="14">
         <v>18</v>
       </c>
@@ -2913,16 +3093,24 @@
       <c r="V22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X22" s="6" t="str">
+      <c r="X22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-17 Predios de propiedad del Municipio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-17.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z22" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y22" s="6" t="str">
+        <v xml:space="preserve">| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D | </v>
+      </c>
+      <c r="AA22" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB22" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D | N/D |</v>
       </c>
     </row>
-    <row r="23" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -2986,16 +3174,24 @@
       <c r="V23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X23" s="6" t="str">
+      <c r="X23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-18 Uso actual del suelo en Centros Poblados Rurales (CPR)&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-18.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y23" s="6" t="str">
+        <v xml:space="preserve">| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D | </v>
+      </c>
+      <c r="AA23" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB23" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D | N/D |</v>
       </c>
     </row>
-    <row r="24" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B24" s="14">
         <v>20</v>
       </c>
@@ -3059,16 +3255,24 @@
       <c r="V24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X24" s="6" t="str">
+      <c r="X24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DR-19 Altura de edificaciones en Centros Poblados Rurales (CPR)&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-19.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y24" s="6" t="str">
+        <v xml:space="preserve">| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | N/D | </v>
+      </c>
+      <c r="AA24" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB24" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | N/D | N/D |</v>
       </c>
     </row>
-    <row r="25" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B25" s="14">
         <v>23</v>
       </c>
@@ -3087,7 +3291,7 @@
       <c r="G25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="23" t="s">
+      <c r="H25" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I25" s="11" t="s">
@@ -3122,28 +3326,36 @@
       <c r="R25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T25" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U25" s="26" t="s">
+      <c r="S25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U25" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="X25" s="6" t="str">
+      <c r="X25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-01 Estructura ecológica principal urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | 3116 |850 | 850 | Sí | Sí | Legible. | </v>
-      </c>
-      <c r="Y25" s="6" t="str">
+        <v xml:space="preserve">| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | Legible. | </v>
+      </c>
+      <c r="AA25" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | 850 |850 | Sí | Sí | </v>
+      </c>
+      <c r="AB25" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="26" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B26" s="14">
         <v>24</v>
       </c>
@@ -3162,7 +3374,7 @@
       <c r="G26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I26" s="11" t="s">
@@ -3197,28 +3409,36 @@
       <c r="R26" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S26" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T26" s="26" t="s">
+      <c r="S26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T26" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U26" s="26" t="s">
+      <c r="U26" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="X26" s="6" t="str">
+      <c r="X26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-02 Zonificación de amenazas naturales y antrópicas en suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z26" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | 3116 |1000 | 1000 | Sí | No | Legible. | </v>
-      </c>
-      <c r="Y26" s="6" t="str">
+        <v xml:space="preserve">| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | Legible. | </v>
+      </c>
+      <c r="AA26" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | 1000 |1000 | Sí | No | </v>
+      </c>
+      <c r="AB26" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="27" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B27" s="14">
         <v>25</v>
       </c>
@@ -3237,7 +3457,7 @@
       <c r="G27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H27" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -3272,28 +3492,36 @@
       <c r="R27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S27" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T27" s="26" t="s">
+      <c r="S27" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T27" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U27" s="26" t="s">
+      <c r="U27" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="X27" s="6" t="str">
+      <c r="X27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-03 Sistema urbano de acueducto&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | 3116 |1000 | 1000 | Sí | No | Legible. Incluye redes acueducto y perímetro servicios públicos. | </v>
-      </c>
-      <c r="Y27" s="6" t="str">
+        <v xml:space="preserve">| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | Legible. Incluye redes acueducto y perímetro servicios públicos. | </v>
+      </c>
+      <c r="AA27" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | 1000 |1000 | Sí | No | </v>
+      </c>
+      <c r="AB27" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="28" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B28" s="14">
         <v>26</v>
       </c>
@@ -3312,7 +3540,7 @@
       <c r="G28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H28" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I28" s="11" t="s">
@@ -3347,28 +3575,36 @@
       <c r="R28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S28" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T28" s="26" t="s">
+      <c r="S28" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T28" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U28" s="26" t="s">
+      <c r="U28" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="X28" s="6" t="str">
+      <c r="X28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-04 Sistema urbano de alcantarillado&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | 3116 |1000 | 1000 | Sí | No | Legible. Incluye redes de alcantarillado y polígonos de sistemas. | </v>
-      </c>
-      <c r="Y28" s="6" t="str">
+        <v xml:space="preserve">| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | Legible. Incluye redes de alcantarillado y polígonos de sistemas. | </v>
+      </c>
+      <c r="AA28" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | 1000 |1000 | Sí | No | </v>
+      </c>
+      <c r="AB28" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="29" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B29" s="14">
         <v>27</v>
       </c>
@@ -3387,7 +3623,7 @@
       <c r="G29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -3422,28 +3658,36 @@
       <c r="R29" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S29" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T29" s="26" t="s">
+      <c r="S29" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T29" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U29" s="26" t="s">
+      <c r="U29" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="X29" s="6" t="str">
+      <c r="X29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-05 Sistema vial urbano existente&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | 3116 |850 | 850 | Sí | No | Legible. | </v>
-      </c>
-      <c r="Y29" s="6" t="str">
+        <v xml:space="preserve">| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | Legible. | </v>
+      </c>
+      <c r="AA29" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | 850 |850 | Sí | No | </v>
+      </c>
+      <c r="AB29" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="30" spans="2:25" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B30" s="14">
         <v>28</v>
       </c>
@@ -3462,7 +3706,7 @@
       <c r="G30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I30" s="11" t="s">
@@ -3497,28 +3741,36 @@
       <c r="R30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S30" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T30" s="26" t="s">
+      <c r="S30" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T30" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U30" s="26" t="s">
+      <c r="U30" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V30" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="X30" s="6" t="str">
+      <c r="X30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z30" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | 3116 |850 | 850 | Sí | No | Legible. | </v>
-      </c>
-      <c r="Y30" s="6" t="str">
+        <v xml:space="preserve">| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | Legible. | </v>
+      </c>
+      <c r="AA30" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | 850 |850 | Sí | No | </v>
+      </c>
+      <c r="AB30" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Plan de movilidad Municipio de Zipaquirá, 2009. Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="31" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B31" s="14">
         <v>29</v>
       </c>
@@ -3537,7 +3789,7 @@
       <c r="G31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="16" t="s">
         <v>137</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -3572,28 +3824,36 @@
       <c r="R31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S31" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T31" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U31" s="26" t="s">
+      <c r="S31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U31" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="X31" s="6" t="str">
+      <c r="X31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-07 Sistemas urbanos de espacio público y equipamientos colectivos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z31" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | 3116 |850 | 850 | Sí | Sí | Legible. | </v>
-      </c>
-      <c r="Y31" s="6" t="str">
+        <v xml:space="preserve">| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | Legible. | </v>
+      </c>
+      <c r="AA31" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | 850 |850 | Sí | Sí | </v>
+      </c>
+      <c r="AB31" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B32" s="14">
         <v>30</v>
       </c>
@@ -3657,16 +3917,24 @@
       <c r="V32" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X32" s="6" t="str">
+      <c r="X32" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-08 Uso actual de suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z32" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y32" s="6" t="str">
+        <v xml:space="preserve">| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D | </v>
+      </c>
+      <c r="AA32" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB32" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D | N/D |</v>
       </c>
     </row>
-    <row r="33" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B33" s="14">
         <v>31</v>
       </c>
@@ -3730,16 +3998,24 @@
       <c r="V33" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X33" s="6" t="str">
+      <c r="X33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-09 Conflictos por uso del suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z33" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y33" s="6" t="str">
+        <v xml:space="preserve">| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D | </v>
+      </c>
+      <c r="AA33" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB33" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D | N/D |</v>
       </c>
     </row>
-    <row r="34" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B34" s="14">
         <v>32</v>
       </c>
@@ -3803,16 +4079,24 @@
       <c r="V34" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X34" s="6" t="str">
+      <c r="X34" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-10 Ocupación en áreas de ronda&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z34" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y34" s="6" t="str">
+        <v xml:space="preserve">| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D | </v>
+      </c>
+      <c r="AA34" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB34" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D | N/D |</v>
       </c>
     </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B35" s="14">
         <v>33</v>
       </c>
@@ -3876,16 +4160,24 @@
       <c r="V35" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X35" s="6" t="str">
+      <c r="X35" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-11 Altura de edificaciones&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y35" s="6" t="str">
+        <v xml:space="preserve">| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D | </v>
+      </c>
+      <c r="AA35" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB35" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D | N/D |</v>
       </c>
     </row>
-    <row r="36" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B36" s="14">
         <v>34</v>
       </c>
@@ -3949,16 +4241,24 @@
       <c r="V36" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X36" s="6" t="str">
+      <c r="X36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-12 Unidades morfológicas homogéneas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z36" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y36" s="6" t="str">
+        <v xml:space="preserve">| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D | </v>
+      </c>
+      <c r="AA36" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB36" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D | N/D |</v>
       </c>
     </row>
-    <row r="37" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B37" s="14">
         <v>35</v>
       </c>
@@ -4022,16 +4322,24 @@
       <c r="V37" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X37" s="6" t="str">
+      <c r="X37" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-13 Perímetro y división política urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z37" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y37" s="6" t="str">
+        <v xml:space="preserve">| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D | </v>
+      </c>
+      <c r="AA37" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB37" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D | N/D |</v>
       </c>
     </row>
-    <row r="38" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B38" s="14">
         <v>36</v>
       </c>
@@ -4095,16 +4403,24 @@
       <c r="V38" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X38" s="6" t="str">
+      <c r="X38" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-14 Conflictos POT vigente y expectativas ajuste&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z38" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y38" s="6" t="str">
+        <v xml:space="preserve">| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D | </v>
+      </c>
+      <c r="AA38" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB38" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D | N/D |</v>
       </c>
     </row>
-    <row r="39" spans="2:25" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B39" s="14">
         <v>37</v>
       </c>
@@ -4168,16 +4484,24 @@
       <c r="V39" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X39" s="6" t="str">
+      <c r="X39" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>DU-15 Usos por Planes Parciales y Especiales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z39" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y39" s="6" t="str">
+        <v xml:space="preserve">| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | N/D | </v>
+      </c>
+      <c r="AA39" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB39" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | N/D | N/D |</v>
       </c>
     </row>
-    <row r="40" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B40" s="14">
         <v>1</v>
       </c>
@@ -4196,7 +4520,7 @@
       <c r="G40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H40" s="23" t="s">
+      <c r="H40" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I40" s="11" t="s">
@@ -4231,28 +4555,36 @@
       <c r="R40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S40" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T40" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U40" s="26" t="s">
+      <c r="S40" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T40" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U40" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V40" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X40" s="6" t="str">
+      <c r="X40" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CG-01 Clasificación general del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z40" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 1 | Formulación | General | CG-01 | Clasificación general del territorio | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y40" s="6" t="str">
+        <v xml:space="preserve">| 1 | Formulación | General | CG-01 | Clasificación general del territorio | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA40" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 1 | Formulación | General | CG-01 | Clasificación general del territorio | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB40" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 1 | Formulación | General | CG-01 | Clasificación general del territorio | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="41" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B41" s="14">
         <v>2</v>
       </c>
@@ -4271,7 +4603,7 @@
       <c r="G41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I41" s="11" t="s">
@@ -4306,28 +4638,36 @@
       <c r="R41" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S41" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T41" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U41" s="26" t="s">
+      <c r="S41" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T41" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U41" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V41" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="X41" s="6" t="str">
+      <c r="X41" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CG-02 Asentamientos humanos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z41" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 2 | Formulación | General | CG-02 | Asentamientos humanos | 3116 |1250 | 1250 | Sí | Sí | Legible. | </v>
-      </c>
-      <c r="Y41" s="6" t="str">
+        <v xml:space="preserve">| 2 | Formulación | General | CG-02 | Asentamientos humanos | Legible. | </v>
+      </c>
+      <c r="AA41" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 2 | Formulación | General | CG-02 | Asentamientos humanos | 1250 |1250 | Sí | Sí | </v>
+      </c>
+      <c r="AB41" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 2 | Formulación | General | CG-02 | Asentamientos humanos | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="42" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B42" s="14">
         <v>3</v>
       </c>
@@ -4346,7 +4686,7 @@
       <c r="G42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I42" s="11" t="s">
@@ -4381,28 +4721,36 @@
       <c r="R42" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S42" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T42" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U42" s="26" t="s">
+      <c r="S42" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T42" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U42" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V42" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X42" s="6" t="str">
+      <c r="X42" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CG-03 Categorías de protección y desarrollo restringido en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z42" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y42" s="6" t="str">
+        <v xml:space="preserve">| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA42" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB42" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="43" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B43" s="14">
         <v>4</v>
       </c>
@@ -4421,7 +4769,7 @@
       <c r="G43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H43" s="23" t="s">
+      <c r="H43" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I43" s="11" t="s">
@@ -4456,28 +4804,36 @@
       <c r="R43" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S43" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T43" s="26" t="s">
+      <c r="S43" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T43" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U43" s="26" t="s">
+      <c r="U43" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="X43" s="6" t="str">
+      <c r="X43" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CG-04 Estructura ecológica principal urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z43" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | 3116 |750 | 750 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y43" s="6" t="str">
+        <v xml:space="preserve">| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA43" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | 750 |750 | Sí | No | </v>
+      </c>
+      <c r="AB43" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="44" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B44" s="14">
         <v>5</v>
       </c>
@@ -4496,7 +4852,7 @@
       <c r="G44" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="23" t="s">
+      <c r="H44" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I44" s="11" t="s">
@@ -4531,28 +4887,36 @@
       <c r="R44" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S44" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T44" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U44" s="26" t="s">
+      <c r="S44" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T44" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U44" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V44" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X44" s="6" t="str">
+      <c r="X44" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CG-05 Modelo de ocupación del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z44" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y44" s="6" t="str">
+        <v xml:space="preserve">| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA44" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB44" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="45" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B45" s="14">
         <v>6</v>
       </c>
@@ -4571,7 +4935,7 @@
       <c r="G45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -4606,28 +4970,36 @@
       <c r="R45" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S45" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T45" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U45" s="26" t="s">
+      <c r="S45" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T45" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U45" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V45" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X45" s="6" t="str">
+      <c r="X45" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CG-06 División política rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z45" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 6 | Formulación | General | CG-06 | División política rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y45" s="6" t="str">
+        <v xml:space="preserve">| 6 | Formulación | General | CG-06 | División política rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA45" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 6 | Formulación | General | CG-06 | División política rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB45" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 6 | Formulación | General | CG-06 | División política rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="46" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B46" s="14">
         <v>7</v>
       </c>
@@ -4646,7 +5018,7 @@
       <c r="G46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I46" s="11" t="s">
@@ -4681,28 +5053,36 @@
       <c r="R46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S46" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T46" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U46" s="26" t="s">
+      <c r="S46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T46" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U46" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V46" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="X46" s="6" t="str">
+      <c r="X46" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CG-07 División política urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z46" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 7 | Formulación | General | CG-07 | División política urbana | 3116 |1000 | 1000 | Sí | Sí | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y46" s="6" t="str">
+        <v xml:space="preserve">| 7 | Formulación | General | CG-07 | División política urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA46" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 7 | Formulación | General | CG-07 | División política urbana | 1000 |1000 | Sí | Sí | </v>
+      </c>
+      <c r="AB46" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 7 | Formulación | General | CG-07 | División política urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="47" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B47" s="14">
         <v>8</v>
       </c>
@@ -4721,7 +5101,7 @@
       <c r="G47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -4756,28 +5136,36 @@
       <c r="R47" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S47" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T47" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U47" s="26" t="s">
+      <c r="S47" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T47" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U47" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V47" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X47" s="6" t="str">
+      <c r="X47" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CG-08 Estructura ecológica principal rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z47" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y47" s="6" t="str">
+        <v xml:space="preserve">| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA47" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB47" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="48" spans="2:25" ht="120" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:28" ht="120" x14ac:dyDescent="0.4">
       <c r="B48" s="14">
         <v>9</v>
       </c>
@@ -4796,7 +5184,7 @@
       <c r="G48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="23" t="s">
+      <c r="H48" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I48" s="11" t="s">
@@ -4831,28 +5219,36 @@
       <c r="R48" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S48" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T48" s="26" t="s">
+      <c r="S48" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T48" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U48" s="26" t="s">
+      <c r="U48" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V48" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="X48" s="6" t="str">
+      <c r="X48" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CU-01 Áreas morfológicas homogéneas en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z48" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Sin áreas calculadas ni porcentajes de distribución. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y48" s="6" t="str">
+        <v xml:space="preserve">| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | Legible. Sin áreas calculadas ni porcentajes de distribución. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA48" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
+      </c>
+      <c r="AB48" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="49" spans="2:25" ht="120" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:28" ht="120" x14ac:dyDescent="0.4">
       <c r="B49" s="14">
         <v>10</v>
       </c>
@@ -4871,7 +5267,7 @@
       <c r="G49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H49" s="23" t="s">
+      <c r="H49" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I49" s="11" t="s">
@@ -4909,25 +5305,33 @@
       <c r="S49" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="T49" s="26" t="s">
+      <c r="T49" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U49" s="26" t="s">
+      <c r="U49" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V49" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="X49" s="6" t="str">
+      <c r="X49" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CU-02 Tratamientos en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z49" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Sin áreas calculadas ni porcentajes de distribución. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y49" s="6" t="str">
+        <v xml:space="preserve">| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | Legible. Sin áreas calculadas ni porcentajes de distribución. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA49" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
+      </c>
+      <c r="AB49" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="50" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B50" s="14">
         <v>11</v>
       </c>
@@ -4946,7 +5350,7 @@
       <c r="G50" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H50" s="23" t="s">
+      <c r="H50" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I50" s="11" t="s">
@@ -4981,28 +5385,36 @@
       <c r="R50" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S50" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T50" s="26" t="s">
+      <c r="S50" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T50" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U50" s="26" t="s">
+      <c r="U50" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V50" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="X50" s="6" t="str">
+      <c r="X50" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CU-03 Áreas de actividad en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z50" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y50" s="6" t="str">
+        <v xml:space="preserve">| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA50" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
+      </c>
+      <c r="AB50" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="51" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B51" s="14">
         <v>12</v>
       </c>
@@ -5021,7 +5433,7 @@
       <c r="G51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H51" s="23" t="s">
+      <c r="H51" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I51" s="11" t="s">
@@ -5056,28 +5468,36 @@
       <c r="R51" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S51" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T51" s="26" t="s">
+      <c r="S51" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T51" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U51" s="26" t="s">
+      <c r="U51" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V51" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="X51" s="6" t="str">
+      <c r="X51" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CU-04 Plan vial en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z51" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y51" s="6" t="str">
+        <v xml:space="preserve">| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA51" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
+      </c>
+      <c r="AB51" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="52" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B52" s="14">
         <v>13</v>
       </c>
@@ -5096,7 +5516,7 @@
       <c r="G52" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H52" s="23" t="s">
+      <c r="H52" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I52" s="11" t="s">
@@ -5131,28 +5551,36 @@
       <c r="R52" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S52" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T52" s="26" t="s">
+      <c r="S52" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T52" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U52" s="26" t="s">
+      <c r="U52" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V52" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="X52" s="6" t="str">
+      <c r="X52" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CU-05 Plan de espacio público en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z52" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y52" s="6" t="str">
+        <v xml:space="preserve">| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA52" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
+      </c>
+      <c r="AB52" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="53" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B53" s="14">
         <v>14</v>
       </c>
@@ -5171,7 +5599,7 @@
       <c r="G53" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H53" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I53" s="11" t="s">
@@ -5206,28 +5634,36 @@
       <c r="R53" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S53" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T53" s="26" t="s">
+      <c r="S53" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T53" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U53" s="26" t="s">
+      <c r="U53" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V53" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="X53" s="6" t="str">
+      <c r="X53" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CU-06 Plan de equipamientos comunitarios&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z53" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y53" s="6" t="str">
+        <v xml:space="preserve">| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA53" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | 800 |800 | Sí | No | </v>
+      </c>
+      <c r="AB53" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="54" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B54" s="14">
         <v>15</v>
       </c>
@@ -5246,7 +5682,7 @@
       <c r="G54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H54" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I54" s="11" t="s">
@@ -5281,28 +5717,36 @@
       <c r="R54" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S54" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T54" s="26" t="s">
+      <c r="S54" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T54" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U54" s="26" t="s">
+      <c r="U54" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V54" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="X54" s="6" t="str">
+      <c r="X54" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CU-07 Plan parcial La Fraguita&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z54" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y54" s="6" t="str">
+        <v xml:space="preserve">| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA54" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | 800 |800 | Sí | No | </v>
+      </c>
+      <c r="AB54" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="55" spans="2:25" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B55" s="14">
         <v>16</v>
       </c>
@@ -5321,7 +5765,7 @@
       <c r="G55" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="23" t="s">
+      <c r="H55" s="16" t="s">
         <v>146</v>
       </c>
       <c r="I55" s="11" t="s">
@@ -5356,28 +5800,36 @@
       <c r="R55" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S55" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T55" s="26" t="s">
+      <c r="S55" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T55" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U55" s="26" t="s">
+      <c r="U55" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V55" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="X55" s="6" t="str">
+      <c r="X55" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CU-08 Localización de áreas para VIS y VIP&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z55" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | 3116 |800 | 800 | Sí | No | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="Y55" s="6" t="str">
+        <v xml:space="preserve">| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
+      </c>
+      <c r="AA55" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | 800 |800 | Sí | No | </v>
+      </c>
+      <c r="AB55" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="56" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B56" s="14">
         <v>17</v>
       </c>
@@ -5387,10 +5839,10 @@
       <c r="D56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="24" t="s">
+      <c r="E56" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="17" t="s">
         <v>152</v>
       </c>
       <c r="G56" s="11" t="s">
@@ -5441,16 +5893,24 @@
       <c r="V56" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="X56" s="6" t="str">
+      <c r="X56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>GR-01 Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano.&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z56" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | N/D |N/D | N/D | N/D | N/D | N/D | </v>
-      </c>
-      <c r="Y56" s="6" t="str">
+        <v xml:space="preserve">| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | N/D | </v>
+      </c>
+      <c r="AA56" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | N/D |N/D | N/D | N/D | </v>
+      </c>
+      <c r="AB56" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | N/D | N/D |</v>
       </c>
     </row>
-    <row r="57" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B57" s="14">
         <v>18</v>
       </c>
@@ -5504,28 +5964,36 @@
       <c r="R57" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S57" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T57" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U57" s="26" t="s">
+      <c r="S57" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T57" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U57" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V57" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X57" s="6" t="str">
+      <c r="X57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CR-01 Áreas de actividad en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z57" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y57" s="6" t="str">
+        <v xml:space="preserve">| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA57" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB57" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="58" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B58" s="14">
         <v>19</v>
       </c>
@@ -5579,28 +6047,36 @@
       <c r="R58" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S58" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T58" s="26" t="s">
+      <c r="S58" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T58" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U58" s="26" t="s">
+      <c r="U58" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V58" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="X58" s="6" t="str">
+      <c r="X58" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CR-02a Áreas de actividad en Centros Poblados Rurales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02a.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z58" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | 3116 |500 | 500 | Sí | No | Legible. | </v>
-      </c>
-      <c r="Y58" s="6" t="str">
+        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | Legible. | </v>
+      </c>
+      <c r="AA58" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | 500 |500 | Sí | No | </v>
+      </c>
+      <c r="AB58" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="59" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B59" s="14">
         <v>20</v>
       </c>
@@ -5654,28 +6130,36 @@
       <c r="R59" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S59" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T59" s="26" t="s">
+      <c r="S59" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T59" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="U59" s="26" t="s">
+      <c r="U59" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V59" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="X59" s="6" t="str">
+      <c r="X59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CR-02b Áreas de actividad en Centros Poblados Rurales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02b.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z59" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | 3116 |500 | 500 | Sí | No | Legible. | </v>
-      </c>
-      <c r="Y59" s="6" t="str">
+        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | Legible. | </v>
+      </c>
+      <c r="AA59" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | 500 |500 | Sí | No | </v>
+      </c>
+      <c r="AB59" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="60" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B60" s="14">
         <v>21</v>
       </c>
@@ -5729,28 +6213,36 @@
       <c r="R60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S60" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T60" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U60" s="26" t="s">
+      <c r="S60" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T60" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U60" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V60" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X60" s="6" t="str">
+      <c r="X60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>CR-03 Plan vial rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z60" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 21 | Formulación | Rural | CR-03 | Plan vial rural | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y60" s="6" t="str">
+        <v xml:space="preserve">| 21 | Formulación | Rural | CR-03 | Plan vial rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA60" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 21 | Formulación | Rural | CR-03 | Plan vial rural | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB60" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 21 | Formulación | Rural | CR-03 | Plan vial rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="61" spans="2:25" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B61" s="14">
         <v>22</v>
       </c>
@@ -5760,10 +6252,10 @@
       <c r="D61" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="24" t="s">
+      <c r="E61" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="F61" s="24" t="s">
+      <c r="F61" s="17" t="s">
         <v>150</v>
       </c>
       <c r="G61" s="11" t="s">
@@ -5804,28 +6296,36 @@
       <c r="R61" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="S61" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="T61" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="U61" s="26" t="s">
+      <c r="S61" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="T61" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="U61" s="19" t="s">
         <v>153</v>
       </c>
       <c r="V61" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="X61" s="6" t="str">
+      <c r="X61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>GR-02 Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural.&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+      </c>
+      <c r="Z61" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | 3116 |4000 | 4000 | Sí | Sí | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="Y61" s="6" t="str">
+        <v xml:space="preserve">| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | Legible. Red de drenaje incompleta o discontinua. | </v>
+      </c>
+      <c r="AA61" s="6" t="str">
         <f t="shared" si="1"/>
+        <v xml:space="preserve">| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | 4000 |4000 | Sí | Sí | </v>
+      </c>
+      <c r="AB61" s="6" t="str">
+        <f t="shared" si="2"/>
         <v>| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="62" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B62" s="15"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -5843,11 +6343,11 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
-      <c r="S62" s="27"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="27"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
       <c r="V62" s="8"/>
-      <c r="Y62" s="6"/>
+      <c r="AB62" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:V62" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}"/>
@@ -5856,7 +6356,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49F67D06-3AAD-4F4F-BB22-A388BFBFB0E5}">
           <x14:formula1>
             <xm:f>Setup!$B$4:$B$11</xm:f>
@@ -5871,109 +6371,137 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BE5F44-546D-4AD9-A5D9-BB397AB5A2A2}">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="7.3046875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="63.3046875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="2.69140625" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="16"/>
+    <col min="1" max="1" width="2.69140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="7.3046875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="63.3046875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="2.69140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="26.3828125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="67.3828125" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="25" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="21" t="s">
+      <c r="E2" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="17">
+      <c r="E3" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="29">
         <v>4326</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="16" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",J3," | ",K3," |")</f>
-        <v>| EPSG | Nombre |  | Markdown samples |  |  |  |</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="17">
+      <c r="E4" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
+      <c r="B5" s="29">
         <v>4329</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="16" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",L3," |",O3," | ",P3," | ",S3," | ",T3," | ",V3," | ")</f>
-        <v xml:space="preserve">| EPSG | Nombre |  | Markdown samples |  |  | |  |  |  |  | </v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="17">
+      <c r="E5" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="51.45" x14ac:dyDescent="0.4">
+      <c r="B6" s="29">
         <v>3114</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="30" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="17">
+      <c r="E6" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="29">
         <v>3115</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="30" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="17">
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="29">
         <v>3116</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="30" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="17">
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="29">
         <v>3117</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="17">
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="29">
         <v>3118</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="30" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="19">
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="31">
         <v>9377</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="32" t="s">
         <v>135</v>
       </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/activity/POTCartography/POT_Cartografia.xlsx
+++ b/activity/POTCartography/POT_Cartografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTCartography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5D498-04C9-44C8-86DA-B66C370C24CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E87DE3-3B6D-4B45-AC85-0AD33D01F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
@@ -331,9 +331,6 @@
     <t>Áreas de actividad en Centros Poblados Rurales</t>
   </si>
   <si>
-    <t>CR-02b</t>
-  </si>
-  <si>
     <t>Plan vial rural</t>
   </si>
   <si>
@@ -427,12 +424,6 @@
     <t>DU-02</t>
   </si>
   <si>
-    <t>DR-01a</t>
-  </si>
-  <si>
-    <t>DR-01b</t>
-  </si>
-  <si>
     <t>DU-03</t>
   </si>
   <si>
@@ -523,9 +514,6 @@
     <t>CR-01</t>
   </si>
   <si>
-    <t>CR-02a</t>
-  </si>
-  <si>
     <t>CR-03</t>
   </si>
   <si>
@@ -685,9 +673,6 @@
     <t xml:space="preserve"> =CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",L3," |",O3," | ",P3," | ",S3," | ",T3," | ",V3," | ")</t>
   </si>
   <si>
-    <t xml:space="preserve"> =CONCAT(E5," ",F5,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;")</t>
-  </si>
-  <si>
     <t>Uso</t>
   </si>
   <si>
@@ -701,6 +686,21 @@
   </si>
   <si>
     <t>Impresión de mapas</t>
+  </si>
+  <si>
+    <t>DR-01A</t>
+  </si>
+  <si>
+    <t>DR-01B</t>
+  </si>
+  <si>
+    <t>CR-02B</t>
+  </si>
+  <si>
+    <t>CR-02A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CONCAT(E5," ",F5,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</t>
   </si>
 </sst>
 </file>
@@ -1425,9 +1425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
   <dimension ref="A2:AD62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5:X61"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -1454,7 +1454,7 @@
     <col min="21" max="21" width="15.3828125" style="9" customWidth="1"/>
     <col min="22" max="22" width="25.921875" style="1" customWidth="1"/>
     <col min="23" max="23" width="2.69140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="79.69140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="70.69140625" style="1" customWidth="1"/>
     <col min="25" max="25" width="2.69140625" style="1" customWidth="1"/>
     <col min="26" max="26" width="81.84375" style="1" customWidth="1"/>
     <col min="27" max="27" width="89.4609375" style="1" customWidth="1"/>
@@ -1464,13 +1464,13 @@
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:28" s="6" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
@@ -1481,7 +1481,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>34</v>
@@ -1490,55 +1490,55 @@
         <v>33</v>
       </c>
       <c r="G3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="T3" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="10" t="s">
+      <c r="U3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>61</v>
-      </c>
       <c r="V3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z3" s="6" t="str">
         <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",V3," | ")</f>
@@ -1555,67 +1555,67 @@
     </row>
     <row r="4" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="T4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="U4" s="24" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="V4" s="23" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Z4" s="6" t="str">
         <f t="shared" ref="Z4:Z61" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",V4," | ")</f>
@@ -1641,25 +1641,25 @@
         <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L5" s="11">
         <v>3116</v>
@@ -1668,7 +1668,7 @@
         <v>40000</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O5" s="11">
         <f>1024000-1020000</f>
@@ -1679,38 +1679,38 @@
         <v>4000</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X5" s="1" t="str">
-        <f>_xlfn.CONCAT(E5," ",F5,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;")</f>
-        <v>DR-01a Categorías de protección y desarrollo restringido en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01a.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <f>_xlfn.CONCAT(E5," ",F5,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</f>
+        <v>DR-01A Categorías de protección y desarrollo restringido en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01A.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
+        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01A | Categorías de protección y desarrollo restringido en suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
       </c>
       <c r="AA5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | 4000 |4000 | Sí | Sí | </v>
+        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01A | Categorías de protección y desarrollo restringido en suelo rural | 4000 |4000 | Sí | Sí | </v>
       </c>
       <c r="AB5" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>| 1 | Diagnóstico | Rural | DR-01a | Categorías de protección y desarrollo restringido en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+        <v>| 1 | Diagnóstico | Rural | DR-01A | Categorías de protección y desarrollo restringido en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
@@ -1724,25 +1724,25 @@
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L6" s="11">
         <v>3116</v>
@@ -1751,7 +1751,7 @@
         <v>50000</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O6" s="11">
         <f>1050000-1045000</f>
@@ -1762,38 +1762,38 @@
         <v>5000</v>
       </c>
       <c r="Q6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T6" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U6" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f t="shared" ref="X6:X61" si="3">_xlfn.CONCAT(E6," ",F6,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E6,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;")</f>
-        <v>DR-01b Áreas protegidas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01b.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <f t="shared" ref="X6:X61" si="3">_xlfn.CONCAT(E6," ",F6,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E6,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</f>
+        <v>DR-01B Áreas protegidas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01B.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | Legible. Red de drenaje incompleta o discontinua. | </v>
+        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01B | Áreas protegidas | Legible. Red de drenaje incompleta o discontinua. | </v>
       </c>
       <c r="AA6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | 5000 |5000 | Sí | No | </v>
+        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01B | Áreas protegidas | 5000 |5000 | Sí | No | </v>
       </c>
       <c r="AB6" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>| 2 | Diagnóstico | Rural | DR-01b | Áreas protegidas | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+        <v>| 2 | Diagnóstico | Rural | DR-01B | Áreas protegidas | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
@@ -1807,25 +1807,25 @@
         <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L7" s="11">
         <v>3116</v>
@@ -1834,7 +1834,7 @@
         <v>40000</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O7" s="11">
         <f>1048000-1044000</f>
@@ -1845,26 +1845,26 @@
         <v>4000</v>
       </c>
       <c r="Q7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S7" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U7" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-02 Estructura ecológica principal rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-02 Estructura ecológica principal rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1890,25 +1890,25 @@
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L8" s="11">
         <v>3116</v>
@@ -1917,7 +1917,7 @@
         <v>40000</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O8" s="11">
         <f>1048000-1044000</f>
@@ -1928,26 +1928,26 @@
         <v>4000</v>
       </c>
       <c r="Q8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S8" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-03 Hidrografía y delimitación de cuencas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-03 Hidrografía y delimitación de cuencas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1973,25 +1973,25 @@
         <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L9" s="11">
         <v>3116</v>
@@ -2000,7 +2000,7 @@
         <v>40000</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O9" s="11">
         <f>1048000-1044000</f>
@@ -2011,26 +2011,26 @@
         <v>4000</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S9" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="X9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-04 Geomorfología&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-04 Geomorfología&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2056,25 +2056,25 @@
         <v>35</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L10" s="11">
         <v>3116</v>
@@ -2083,7 +2083,7 @@
         <v>40000</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O10" s="11">
         <f>1048000-1044000</f>
@@ -2094,26 +2094,26 @@
         <v>4000</v>
       </c>
       <c r="Q10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="X10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-05 Suelos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-05 Suelos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2139,25 +2139,25 @@
         <v>35</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L11" s="11">
         <v>3116</v>
@@ -2166,7 +2166,7 @@
         <v>40000</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O11" s="11">
         <f>1048000-1044000</f>
@@ -2177,26 +2177,26 @@
         <v>4000</v>
       </c>
       <c r="Q11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S11" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="X11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-06 Pendientes&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-06 Pendientes&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2222,25 +2222,25 @@
         <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L12" s="11">
         <v>3116</v>
@@ -2249,7 +2249,7 @@
         <v>40000</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O12" s="11">
         <f>1048000-1044000</f>
@@ -2260,26 +2260,26 @@
         <v>4000</v>
       </c>
       <c r="Q12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-07 Zonificación agroclimática&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-07 Zonificación agroclimática&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2305,25 +2305,25 @@
         <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L13" s="11">
         <v>3116</v>
@@ -2332,7 +2332,7 @@
         <v>40000</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O13" s="11">
         <f>1048000-1044000</f>
@@ -2343,26 +2343,26 @@
         <v>4000</v>
       </c>
       <c r="Q13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="X13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-08 Uso potencial del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-08 Uso potencial del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2388,25 +2388,25 @@
         <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L14" s="11">
         <v>3116</v>
@@ -2415,7 +2415,7 @@
         <v>40000</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O14" s="11">
         <f>1048000-1044000</f>
@@ -2426,26 +2426,26 @@
         <v>4000</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-09 Cobertura y uso actual del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-09 Cobertura y uso actual del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2471,25 +2471,25 @@
         <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L15" s="11">
         <v>3116</v>
@@ -2498,7 +2498,7 @@
         <v>40000</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O15" s="11">
         <f>1048000-1044000</f>
@@ -2509,26 +2509,26 @@
         <v>4000</v>
       </c>
       <c r="Q15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S15" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-10 Conflictos de uso del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-10 Conflictos de uso del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2554,62 +2554,62 @@
         <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-11 Zonificación de amenazas naturales y antrópicas en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-11 Zonificación de amenazas naturales y antrópicas en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2635,62 +2635,62 @@
         <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-12 Sistema vial rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-12 Sistema vial rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2716,62 +2716,62 @@
         <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-13 Equipamientos colectivos rurales y elementos patrimoniales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-13 Equipamientos colectivos rurales y elementos patrimoniales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2797,62 +2797,62 @@
         <v>35</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U19" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-14 Clasificación general del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-14 Clasificación general del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2878,62 +2878,62 @@
         <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U20" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V20" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-15 Asentamientos humanos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-15 Asentamientos humanos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2959,62 +2959,62 @@
         <v>35</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-16 Límites y división política rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-16.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-16 Límites y división política rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-16.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3040,62 +3040,62 @@
         <v>35</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U22" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-17 Predios de propiedad del Municipio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-17.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-17 Predios de propiedad del Municipio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-17.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3121,62 +3121,62 @@
         <v>35</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-18 Uso actual del suelo en Centros Poblados Rurales (CPR)&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-18.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-18 Uso actual del suelo en Centros Poblados Rurales (CPR)&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-18.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3202,62 +3202,62 @@
         <v>35</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U24" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-19 Altura de edificaciones en Centros Poblados Rurales (CPR)&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-19.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DR-19 Altura de edificaciones en Centros Poblados Rurales (CPR)&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-19.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3283,25 +3283,25 @@
         <v>36</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H25" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K25" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L25" s="11">
         <v>3116</v>
@@ -3310,7 +3310,7 @@
         <v>8500</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O25" s="11">
         <f>1046500-1045650</f>
@@ -3321,26 +3321,26 @@
         <v>850</v>
       </c>
       <c r="Q25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T25" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U25" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-01 Estructura ecológica principal urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-01 Estructura ecológica principal urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3366,25 +3366,25 @@
         <v>36</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K26" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L26" s="11">
         <v>3116</v>
@@ -3393,7 +3393,7 @@
         <v>10000</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O26" s="11">
         <f>1046000-1045000</f>
@@ -3404,26 +3404,26 @@
         <v>1000</v>
       </c>
       <c r="Q26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S26" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T26" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U26" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X26" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-02 Zonificación de amenazas naturales y antrópicas en suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-02 Zonificación de amenazas naturales y antrópicas en suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3449,25 +3449,25 @@
         <v>36</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K27" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L27" s="11">
         <v>3116</v>
@@ -3476,7 +3476,7 @@
         <v>10000</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O27" s="11">
         <f>1046000-1045000</f>
@@ -3487,26 +3487,26 @@
         <v>1000</v>
       </c>
       <c r="Q27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T27" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U27" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="X27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-03 Sistema urbano de acueducto&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-03 Sistema urbano de acueducto&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3532,25 +3532,25 @@
         <v>36</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H28" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I28" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K28" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L28" s="11">
         <v>3116</v>
@@ -3559,7 +3559,7 @@
         <v>10000</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O28" s="11">
         <f>1046000-1045000</f>
@@ -3570,26 +3570,26 @@
         <v>1000</v>
       </c>
       <c r="Q28" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S28" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T28" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U28" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="X28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-04 Sistema urbano de alcantarillado&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-04 Sistema urbano de alcantarillado&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3615,25 +3615,25 @@
         <v>36</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H29" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I29" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K29" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L29" s="11">
         <v>3116</v>
@@ -3642,7 +3642,7 @@
         <v>8500</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O29" s="11">
         <f>1046500-1045650</f>
@@ -3653,26 +3653,26 @@
         <v>850</v>
       </c>
       <c r="Q29" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S29" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U29" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X29" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-05 Sistema vial urbano existente&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-05 Sistema vial urbano existente&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3698,25 +3698,25 @@
         <v>36</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="L30" s="11">
         <v>3116</v>
@@ -3725,7 +3725,7 @@
         <v>8500</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O30" s="11">
         <f>1046500-1045650</f>
@@ -3736,26 +3736,26 @@
         <v>850</v>
       </c>
       <c r="Q30" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S30" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T30" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U30" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V30" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3781,25 +3781,25 @@
         <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>24</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>141</v>
-      </c>
       <c r="K31" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L31" s="11">
         <v>3116</v>
@@ -3808,7 +3808,7 @@
         <v>8500</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O31" s="11">
         <f>1046500-1045650</f>
@@ -3819,26 +3819,26 @@
         <v>850</v>
       </c>
       <c r="Q31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U31" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-07 Sistemas urbanos de espacio público y equipamientos colectivos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-07 Sistemas urbanos de espacio público y equipamientos colectivos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3864,62 +3864,62 @@
         <v>36</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-08 Uso actual de suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-08 Uso actual de suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z32" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3945,62 +3945,62 @@
         <v>36</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U33" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-09 Conflictos por uso del suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-09 Conflictos por uso del suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z33" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4026,62 +4026,62 @@
         <v>36</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U34" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V34" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-10 Ocupación en áreas de ronda&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-10 Ocupación en áreas de ronda&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z34" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4107,62 +4107,62 @@
         <v>36</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U35" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-11 Altura de edificaciones&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-11 Altura de edificaciones&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z35" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4188,62 +4188,62 @@
         <v>36</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U36" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V36" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-12 Unidades morfológicas homogéneas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-12 Unidades morfológicas homogéneas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z36" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4269,62 +4269,62 @@
         <v>36</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U37" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X37" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-13 Perímetro y división política urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-13 Perímetro y división política urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z37" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4350,62 +4350,62 @@
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V38" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-14 Conflictos POT vigente y expectativas ajuste&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-14 Conflictos POT vigente y expectativas ajuste&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z38" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4431,62 +4431,62 @@
         <v>36</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U39" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X39" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-15 Usos por Planes Parciales y Especiales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>DU-15 Usos por Planes Parciales y Especiales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z39" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4512,25 +4512,25 @@
         <v>42</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L40" s="11">
         <v>3116</v>
@@ -4539,7 +4539,7 @@
         <v>40000</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O40" s="11">
         <f>1048000-1044000</f>
@@ -4550,26 +4550,26 @@
         <v>4000</v>
       </c>
       <c r="Q40" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S40" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T40" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U40" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V40" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-01 Clasificación general del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CG-01 Clasificación general del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z40" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4595,25 +4595,25 @@
         <v>42</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L41" s="11">
         <v>3116</v>
@@ -4622,7 +4622,7 @@
         <v>12500</v>
       </c>
       <c r="N41" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O41" s="11">
         <f>1046250-1045000</f>
@@ -4633,26 +4633,26 @@
         <v>1250</v>
       </c>
       <c r="Q41" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S41" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T41" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U41" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-02 Asentamientos humanos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CG-02 Asentamientos humanos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z41" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4678,25 +4678,25 @@
         <v>42</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L42" s="11">
         <v>3116</v>
@@ -4705,7 +4705,7 @@
         <v>40000</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O42" s="11">
         <f>1048000-1044000</f>
@@ -4716,26 +4716,26 @@
         <v>4000</v>
       </c>
       <c r="Q42" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S42" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T42" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U42" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-03 Categorías de protección y desarrollo restringido en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CG-03 Categorías de protección y desarrollo restringido en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z42" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4761,25 +4761,25 @@
         <v>42</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L43" s="11">
         <v>3116</v>
@@ -4788,7 +4788,7 @@
         <v>7500</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O43" s="11">
         <f>1046000-1045250</f>
@@ -4799,26 +4799,26 @@
         <v>750</v>
       </c>
       <c r="Q43" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S43" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T43" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U43" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X43" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-04 Estructura ecológica principal urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CG-04 Estructura ecológica principal urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z43" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4844,25 +4844,25 @@
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L44" s="11">
         <v>3116</v>
@@ -4871,7 +4871,7 @@
         <v>40000</v>
       </c>
       <c r="N44" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O44" s="11">
         <f>1048000-1044000</f>
@@ -4882,26 +4882,26 @@
         <v>4000</v>
       </c>
       <c r="Q44" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S44" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T44" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U44" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V44" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-05 Modelo de ocupación del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CG-05 Modelo de ocupación del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z44" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4927,25 +4927,25 @@
         <v>42</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L45" s="11">
         <v>3116</v>
@@ -4954,7 +4954,7 @@
         <v>40000</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O45" s="11">
         <f>1048000-1044000</f>
@@ -4965,26 +4965,26 @@
         <v>4000</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S45" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T45" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U45" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-06 División política rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CG-06 División política rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z45" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5010,25 +5010,25 @@
         <v>42</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L46" s="11">
         <v>3116</v>
@@ -5037,7 +5037,7 @@
         <v>10000</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O46" s="11">
         <f>1047000-1046000</f>
@@ -5048,26 +5048,26 @@
         <v>1000</v>
       </c>
       <c r="Q46" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S46" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T46" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U46" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V46" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X46" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-07 División política urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CG-07 División política urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z46" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5093,25 +5093,25 @@
         <v>42</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L47" s="11">
         <v>3116</v>
@@ -5120,7 +5120,7 @@
         <v>40000</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O47" s="11">
         <f>1048000-1044000</f>
@@ -5131,26 +5131,26 @@
         <v>4000</v>
       </c>
       <c r="Q47" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R47" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S47" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T47" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U47" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X47" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-08 Estructura ecológica principal rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CG-08 Estructura ecológica principal rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z47" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5176,25 +5176,25 @@
         <v>36</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L48" s="11">
         <v>3116</v>
@@ -5203,7 +5203,7 @@
         <v>8000</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O48" s="11">
         <f>1046400-1045600</f>
@@ -5214,26 +5214,26 @@
         <v>800</v>
       </c>
       <c r="Q48" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S48" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T48" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U48" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V48" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X48" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-01 Áreas morfológicas homogéneas en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CU-01 Áreas morfológicas homogéneas en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z48" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5259,25 +5259,25 @@
         <v>36</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L49" s="11">
         <v>3116</v>
@@ -5286,7 +5286,7 @@
         <v>8000</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O49" s="11">
         <f>1046400-1045600</f>
@@ -5297,26 +5297,26 @@
         <v>800</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T49" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U49" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V49" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X49" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-02 Tratamientos en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CU-02 Tratamientos en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z49" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5342,25 +5342,25 @@
         <v>36</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L50" s="11">
         <v>3116</v>
@@ -5369,7 +5369,7 @@
         <v>8000</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O50" s="11">
         <f>1046400-1045600</f>
@@ -5380,26 +5380,26 @@
         <v>800</v>
       </c>
       <c r="Q50" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S50" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T50" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U50" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V50" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X50" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-03 Áreas de actividad en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CU-03 Áreas de actividad en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z50" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5425,25 +5425,25 @@
         <v>36</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L51" s="11">
         <v>3116</v>
@@ -5452,7 +5452,7 @@
         <v>8000</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O51" s="11">
         <f>1046400-1045600</f>
@@ -5463,26 +5463,26 @@
         <v>800</v>
       </c>
       <c r="Q51" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S51" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T51" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U51" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V51" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X51" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-04 Plan vial en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CU-04 Plan vial en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z51" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5508,25 +5508,25 @@
         <v>36</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L52" s="11">
         <v>3116</v>
@@ -5535,7 +5535,7 @@
         <v>8000</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O52" s="11">
         <f>1046400-1045600</f>
@@ -5546,26 +5546,26 @@
         <v>800</v>
       </c>
       <c r="Q52" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S52" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T52" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U52" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V52" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X52" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-05 Plan de espacio público en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CU-05 Plan de espacio público en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z52" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5591,25 +5591,25 @@
         <v>36</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L53" s="11">
         <v>3116</v>
@@ -5618,7 +5618,7 @@
         <v>8000</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O53" s="11">
         <f>1046400-1045600</f>
@@ -5629,26 +5629,26 @@
         <v>800</v>
       </c>
       <c r="Q53" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S53" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T53" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U53" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V53" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X53" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-06 Plan de equipamientos comunitarios&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CU-06 Plan de equipamientos comunitarios&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z53" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5674,25 +5674,25 @@
         <v>36</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L54" s="11">
         <v>3116</v>
@@ -5701,7 +5701,7 @@
         <v>8000</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O54" s="11">
         <f>1046400-1045600</f>
@@ -5712,26 +5712,26 @@
         <v>800</v>
       </c>
       <c r="Q54" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R54" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S54" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T54" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U54" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V54" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X54" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-07 Plan parcial La Fraguita&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CU-07 Plan parcial La Fraguita&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z54" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5757,25 +5757,25 @@
         <v>36</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L55" s="11">
         <v>3116</v>
@@ -5784,7 +5784,7 @@
         <v>8000</v>
       </c>
       <c r="N55" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O55" s="11">
         <f>1046400-1045600</f>
@@ -5795,26 +5795,26 @@
         <v>800</v>
       </c>
       <c r="Q55" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S55" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T55" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U55" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V55" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X55" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-08 Localización de áreas para VIS y VIP&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CU-08 Localización de áreas para VIS y VIP&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z55" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5840,62 +5840,62 @@
         <v>36</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="T56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="V56" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="X56" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>GR-01 Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano.&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>GR-01 Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano.&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z56" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5921,25 +5921,25 @@
         <v>35</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L57" s="11">
         <v>3116</v>
@@ -5948,7 +5948,7 @@
         <v>40000</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O57" s="11">
         <f>1048000-1044000</f>
@@ -5959,26 +5959,26 @@
         <v>4000</v>
       </c>
       <c r="Q57" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R57" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S57" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T57" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U57" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V57" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X57" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CR-01 Áreas de actividad en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CR-01 Áreas de actividad en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z57" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6004,25 +6004,25 @@
         <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L58" s="11">
         <v>3116</v>
@@ -6031,7 +6031,7 @@
         <v>5000</v>
       </c>
       <c r="N58" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O58" s="11">
         <f>1048000-1047500</f>
@@ -6042,38 +6042,38 @@
         <v>500</v>
       </c>
       <c r="Q58" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R58" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S58" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T58" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U58" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V58" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X58" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CR-02a Áreas de actividad en Centros Poblados Rurales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02a.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CR-02A Áreas de actividad en Centros Poblados Rurales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02A.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z58" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | Legible. | </v>
+        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02A | Áreas de actividad en Centros Poblados Rurales | Legible. | </v>
       </c>
       <c r="AA58" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | 500 |500 | Sí | No | </v>
+        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02A | Áreas de actividad en Centros Poblados Rurales | 500 |500 | Sí | No | </v>
       </c>
       <c r="AB58" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>| 19 | Formulación | Rural | CR-02a | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+        <v>| 19 | Formulación | Rural | CR-02A | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
     <row r="59" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
@@ -6087,25 +6087,25 @@
         <v>35</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L59" s="11">
         <v>3116</v>
@@ -6114,7 +6114,7 @@
         <v>5000</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O59" s="11">
         <f>1048000-1047500</f>
@@ -6125,38 +6125,38 @@
         <v>500</v>
       </c>
       <c r="Q59" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R59" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S59" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T59" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U59" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V59" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="X59" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CR-02b Áreas de actividad en Centros Poblados Rurales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02b.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CR-02B Áreas de actividad en Centros Poblados Rurales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02B.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z59" s="6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | Legible. | </v>
+        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02B | Áreas de actividad en Centros Poblados Rurales | Legible. | </v>
       </c>
       <c r="AA59" s="6" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | 500 |500 | Sí | No | </v>
+        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02B | Áreas de actividad en Centros Poblados Rurales | 500 |500 | Sí | No | </v>
       </c>
       <c r="AB59" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>| 20 | Formulación | Rural | CR-02b | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
+        <v>| 20 | Formulación | Rural | CR-02B | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
     <row r="60" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
@@ -6170,25 +6170,25 @@
         <v>35</v>
       </c>
       <c r="E60" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I60" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="J60" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L60" s="11">
         <v>3116</v>
@@ -6197,7 +6197,7 @@
         <v>40000</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O60" s="11">
         <f>1048000-1044000</f>
@@ -6208,26 +6208,26 @@
         <v>4000</v>
       </c>
       <c r="Q60" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R60" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S60" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T60" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U60" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V60" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X60" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CR-03 Plan vial rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>CR-03 Plan vial rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z60" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6253,25 +6253,25 @@
         <v>35</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L61" s="11">
         <v>3116</v>
@@ -6280,7 +6280,7 @@
         <v>40000</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O61" s="11">
         <f>1048000-1044000</f>
@@ -6291,26 +6291,26 @@
         <v>4000</v>
       </c>
       <c r="Q61" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R61" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S61" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T61" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U61" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="V61" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="X61" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>GR-02 Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural.&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;</v>
+        <v>GR-02 Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural.&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z61" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6375,7 +6375,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -6391,24 +6391,24 @@
   <sheetData>
     <row r="2" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="25" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -6416,13 +6416,13 @@
         <v>4326</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
@@ -6430,13 +6430,13 @@
         <v>4329</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="51.45" x14ac:dyDescent="0.4">
@@ -6444,13 +6444,13 @@
         <v>3114</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E6" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="30" t="s">
         <v>177</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -6458,7 +6458,7 @@
         <v>3115</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="30"/>
@@ -6468,7 +6468,7 @@
         <v>3116</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
@@ -6478,7 +6478,7 @@
         <v>3117</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
@@ -6488,7 +6488,7 @@
         <v>3118</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="30"/>
@@ -6498,7 +6498,7 @@
         <v>9377</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>

--- a/activity/POTCartography/POT_Cartografia.xlsx
+++ b/activity/POTCartography/POT_Cartografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTCartography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E87DE3-3B6D-4B45-AC85-0AD33D01F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC1F4F5-6226-4745-9981-B7023153C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
@@ -700,7 +700,7 @@
     <t>CR-02A</t>
   </si>
   <si>
-    <t xml:space="preserve"> =CONCAT(E5," ",F5,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</t>
+    <t xml:space="preserve"> =CONCAT(E5," ",F5,".&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</t>
   </si>
 </sst>
 </file>
@@ -1423,6 +1423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:AD62"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1553,7 +1554,7 @@
         <v>| No. | Etapa | Componente | Código | Nombre | Fuente base cartográfica | Fuente temática |</v>
       </c>
     </row>
-    <row r="4" spans="2:28" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:28" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>154</v>
       </c>
@@ -1697,8 +1698,8 @@
         <v>150</v>
       </c>
       <c r="X5" s="1" t="str">
-        <f>_xlfn.CONCAT(E5," ",F5,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</f>
-        <v>DR-01A Categorías de protección y desarrollo restringido en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01A.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <f>_xlfn.CONCAT(E5," ",F5,".&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</f>
+        <v>DR-01A Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01A.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z5" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1780,8 +1781,8 @@
         <v>150</v>
       </c>
       <c r="X6" s="1" t="str">
-        <f t="shared" ref="X6:X61" si="3">_xlfn.CONCAT(E6," ",F6,"&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E6,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</f>
-        <v>DR-01B Áreas protegidas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01B.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <f t="shared" ref="X6:X61" si="3">_xlfn.CONCAT(E6," ",F6,".&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E6,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</f>
+        <v>DR-01B Áreas protegidas.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01B.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z6" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1864,7 +1865,7 @@
       </c>
       <c r="X7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-02 Estructura ecológica principal rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-02 Estructura ecológica principal rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z7" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1947,7 +1948,7 @@
       </c>
       <c r="X8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-03 Hidrografía y delimitación de cuencas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-03 Hidrografía y delimitación de cuencas.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z8" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2030,7 +2031,7 @@
       </c>
       <c r="X9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-04 Geomorfología&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-04 Geomorfología.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2113,7 +2114,7 @@
       </c>
       <c r="X10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-05 Suelos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-05 Suelos.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z10" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="X11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-06 Pendientes&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-06 Pendientes.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z11" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2279,7 +2280,7 @@
       </c>
       <c r="X12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-07 Zonificación agroclimática&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-07 Zonificación agroclimática.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z12" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2362,7 +2363,7 @@
       </c>
       <c r="X13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-08 Uso potencial del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-08 Uso potencial del suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2445,7 +2446,7 @@
       </c>
       <c r="X14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-09 Cobertura y uso actual del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-09 Cobertura y uso actual del suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2528,7 +2529,7 @@
       </c>
       <c r="X15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-10 Conflictos de uso del suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-10 Conflictos de uso del suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2543,7 +2544,7 @@
         <v>| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Interpretación de imagen de Satélite Landsat 7 ETM Path 8 Row 56, 2007/02/07, Metodología CORINE LAND COVER COLOMBIA, vs. Cobertura de Uso Potencial del Suelo DR-08. |</v>
       </c>
     </row>
-    <row r="16" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="B16" s="14">
         <v>12</v>
       </c>
@@ -2609,7 +2610,7 @@
       </c>
       <c r="X16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-11 Zonificación de amenazas naturales y antrópicas en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-11 Zonificación de amenazas naturales y antrópicas en suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2624,7 +2625,7 @@
         <v>| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D | N/D |</v>
       </c>
     </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="B17" s="14">
         <v>13</v>
       </c>
@@ -2690,7 +2691,7 @@
       </c>
       <c r="X17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-12 Sistema vial rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-12 Sistema vial rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2705,7 +2706,7 @@
         <v>| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D | N/D |</v>
       </c>
     </row>
-    <row r="18" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="B18" s="14">
         <v>14</v>
       </c>
@@ -2771,7 +2772,7 @@
       </c>
       <c r="X18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-13 Equipamientos colectivos rurales y elementos patrimoniales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-13 Equipamientos colectivos rurales y elementos patrimoniales.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2786,7 +2787,7 @@
         <v>| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D | N/D |</v>
       </c>
     </row>
-    <row r="19" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B19" s="14">
         <v>15</v>
       </c>
@@ -2852,7 +2853,7 @@
       </c>
       <c r="X19" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-14 Clasificación general del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-14 Clasificación general del territorio.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2867,7 +2868,7 @@
         <v>| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D | N/D |</v>
       </c>
     </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="B20" s="14">
         <v>16</v>
       </c>
@@ -2933,7 +2934,7 @@
       </c>
       <c r="X20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-15 Asentamientos humanos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-15 Asentamientos humanos.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2948,7 +2949,7 @@
         <v>| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D | N/D |</v>
       </c>
     </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="14">
         <v>17</v>
       </c>
@@ -3014,7 +3015,7 @@
       </c>
       <c r="X21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-16 Límites y división política rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-16.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-16 Límites y división política rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-16.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3029,7 +3030,7 @@
         <v>| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D | N/D |</v>
       </c>
     </row>
-    <row r="22" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B22" s="14">
         <v>18</v>
       </c>
@@ -3095,7 +3096,7 @@
       </c>
       <c r="X22" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-17 Predios de propiedad del Municipio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-17.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-17 Predios de propiedad del Municipio.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-17.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3110,7 +3111,7 @@
         <v>| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D | N/D |</v>
       </c>
     </row>
-    <row r="23" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -3176,7 +3177,7 @@
       </c>
       <c r="X23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-18 Uso actual del suelo en Centros Poblados Rurales (CPR)&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-18.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-18 Uso actual del suelo en Centros Poblados Rurales (CPR).&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-18.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3191,7 +3192,7 @@
         <v>| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D | N/D |</v>
       </c>
     </row>
-    <row r="24" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="B24" s="14">
         <v>20</v>
       </c>
@@ -3257,7 +3258,7 @@
       </c>
       <c r="X24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DR-19 Altura de edificaciones en Centros Poblados Rurales (CPR)&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-19.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DR-19 Altura de edificaciones en Centros Poblados Rurales (CPR).&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-19.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3340,7 +3341,7 @@
       </c>
       <c r="X25" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-01 Estructura ecológica principal urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-01 Estructura ecológica principal urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3423,7 +3424,7 @@
       </c>
       <c r="X26" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-02 Zonificación de amenazas naturales y antrópicas en suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-02 Zonificación de amenazas naturales y antrópicas en suelo urbano.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3506,7 +3507,7 @@
       </c>
       <c r="X27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-03 Sistema urbano de acueducto&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-03 Sistema urbano de acueducto.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3589,7 +3590,7 @@
       </c>
       <c r="X28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-04 Sistema urbano de alcantarillado&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-04 Sistema urbano de alcantarillado.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3672,7 +3673,7 @@
       </c>
       <c r="X29" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-05 Sistema vial urbano existente&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-05 Sistema vial urbano existente.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3755,7 +3756,7 @@
       </c>
       <c r="X30" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3838,7 +3839,7 @@
       </c>
       <c r="X31" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-07 Sistemas urbanos de espacio público y equipamientos colectivos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-07 Sistemas urbanos de espacio público y equipamientos colectivos.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3853,7 +3854,7 @@
         <v>| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="B32" s="14">
         <v>30</v>
       </c>
@@ -3919,7 +3920,7 @@
       </c>
       <c r="X32" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-08 Uso actual de suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-08 Uso actual de suelo urbano.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z32" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3934,7 +3935,7 @@
         <v>| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D | N/D |</v>
       </c>
     </row>
-    <row r="33" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B33" s="14">
         <v>31</v>
       </c>
@@ -4000,7 +4001,7 @@
       </c>
       <c r="X33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-09 Conflictos por uso del suelo urbano&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-09 Conflictos por uso del suelo urbano.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z33" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4015,7 +4016,7 @@
         <v>| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D | N/D |</v>
       </c>
     </row>
-    <row r="34" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="14">
         <v>32</v>
       </c>
@@ -4081,7 +4082,7 @@
       </c>
       <c r="X34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-10 Ocupación en áreas de ronda&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-10 Ocupación en áreas de ronda.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z34" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4096,7 +4097,7 @@
         <v>| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D | N/D |</v>
       </c>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="B35" s="14">
         <v>33</v>
       </c>
@@ -4162,7 +4163,7 @@
       </c>
       <c r="X35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-11 Altura de edificaciones&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-11 Altura de edificaciones.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z35" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4177,7 +4178,7 @@
         <v>| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D | N/D |</v>
       </c>
     </row>
-    <row r="36" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B36" s="14">
         <v>34</v>
       </c>
@@ -4243,7 +4244,7 @@
       </c>
       <c r="X36" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-12 Unidades morfológicas homogéneas&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-12 Unidades morfológicas homogéneas.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z36" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4258,7 +4259,7 @@
         <v>| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D | N/D |</v>
       </c>
     </row>
-    <row r="37" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B37" s="14">
         <v>35</v>
       </c>
@@ -4324,7 +4325,7 @@
       </c>
       <c r="X37" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-13 Perímetro y división política urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-13 Perímetro y división política urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z37" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4339,7 +4340,7 @@
         <v>| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D | N/D |</v>
       </c>
     </row>
-    <row r="38" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="14">
         <v>36</v>
       </c>
@@ -4405,7 +4406,7 @@
       </c>
       <c r="X38" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-14 Conflictos POT vigente y expectativas ajuste&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-14 Conflictos POT vigente y expectativas ajuste.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z38" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4420,7 +4421,7 @@
         <v>| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D | N/D |</v>
       </c>
     </row>
-    <row r="39" spans="2:28" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
       <c r="B39" s="14">
         <v>37</v>
       </c>
@@ -4486,7 +4487,7 @@
       </c>
       <c r="X39" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>DU-15 Usos por Planes Parciales y Especiales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>DU-15 Usos por Planes Parciales y Especiales.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z39" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4569,7 +4570,7 @@
       </c>
       <c r="X40" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-01 Clasificación general del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CG-01 Clasificación general del territorio.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z40" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4652,7 +4653,7 @@
       </c>
       <c r="X41" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-02 Asentamientos humanos&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CG-02 Asentamientos humanos.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z41" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4735,7 +4736,7 @@
       </c>
       <c r="X42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-03 Categorías de protección y desarrollo restringido en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CG-03 Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z42" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4818,7 +4819,7 @@
       </c>
       <c r="X43" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-04 Estructura ecológica principal urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CG-04 Estructura ecológica principal urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z43" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4901,7 +4902,7 @@
       </c>
       <c r="X44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-05 Modelo de ocupación del territorio&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CG-05 Modelo de ocupación del territorio.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z44" s="6" t="str">
         <f t="shared" si="0"/>
@@ -4984,7 +4985,7 @@
       </c>
       <c r="X45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-06 División política rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CG-06 División política rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z45" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5067,7 +5068,7 @@
       </c>
       <c r="X46" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-07 División política urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CG-07 División política urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z46" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5150,7 +5151,7 @@
       </c>
       <c r="X47" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CG-08 Estructura ecológica principal rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CG-08 Estructura ecológica principal rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z47" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5233,7 +5234,7 @@
       </c>
       <c r="X48" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-01 Áreas morfológicas homogéneas en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CU-01 Áreas morfológicas homogéneas en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z48" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="X49" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-02 Tratamientos en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CU-02 Tratamientos en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z49" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5399,7 +5400,7 @@
       </c>
       <c r="X50" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-03 Áreas de actividad en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CU-03 Áreas de actividad en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z50" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5482,7 +5483,7 @@
       </c>
       <c r="X51" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-04 Plan vial en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CU-04 Plan vial en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z51" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5565,7 +5566,7 @@
       </c>
       <c r="X52" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-05 Plan de espacio público en suelo urbano y de expansión urbana&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CU-05 Plan de espacio público en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z52" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5648,7 +5649,7 @@
       </c>
       <c r="X53" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-06 Plan de equipamientos comunitarios&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CU-06 Plan de equipamientos comunitarios.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z53" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5731,7 +5732,7 @@
       </c>
       <c r="X54" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-07 Plan parcial La Fraguita&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CU-07 Plan parcial La Fraguita.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z54" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5814,7 +5815,7 @@
       </c>
       <c r="X55" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CU-08 Localización de áreas para VIS y VIP&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CU-08 Localización de áreas para VIS y VIP.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z55" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5829,7 +5830,7 @@
         <v>| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="56" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
       <c r="B56" s="14">
         <v>17</v>
       </c>
@@ -5895,7 +5896,7 @@
       </c>
       <c r="X56" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>GR-01 Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano.&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>GR-01 Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano..&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z56" s="6" t="str">
         <f t="shared" si="0"/>
@@ -5978,7 +5979,7 @@
       </c>
       <c r="X57" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CR-01 Áreas de actividad en suelo rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CR-01 Áreas de actividad en suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z57" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6061,7 +6062,7 @@
       </c>
       <c r="X58" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CR-02A Áreas de actividad en Centros Poblados Rurales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02A.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CR-02A Áreas de actividad en Centros Poblados Rurales.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02A.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z58" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6144,7 +6145,7 @@
       </c>
       <c r="X59" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CR-02B Áreas de actividad en Centros Poblados Rurales&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02B.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CR-02B Áreas de actividad en Centros Poblados Rurales.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02B.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z59" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6227,7 +6228,7 @@
       </c>
       <c r="X60" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>CR-03 Plan vial rural&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>CR-03 Plan vial rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z60" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6310,7 +6311,7 @@
       </c>
       <c r="X61" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>GR-02 Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural.&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
+        <v>GR-02 Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural..&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
       </c>
       <c r="Z61" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6325,7 +6326,7 @@
         <v>| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
       </c>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
       <c r="B62" s="15"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -6350,7 +6351,13 @@
       <c r="AB62" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:V62" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}"/>
+  <autoFilter ref="B3:V62" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Sí"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6439,7 +6446,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B6" s="29">
         <v>3114</v>
       </c>

--- a/activity/POTCartography/POT_Cartografia.xlsx
+++ b/activity/POTCartography/POT_Cartografia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTCartography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC1F4F5-6226-4745-9981-B7023153C9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E8E16-3020-4708-9CE5-886C366BB258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="POT_Cartografia" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="178">
   <si>
     <t>Categorías de protección y desarrollo restringido en suelo rural</t>
   </si>
@@ -658,15 +658,9 @@
     <t>Escala de Impresión</t>
   </si>
   <si>
-    <t>Markdown</t>
-  </si>
-  <si>
     <t>Markdown samples</t>
   </si>
   <si>
-    <t>Lista de mapas en Marcdown</t>
-  </si>
-  <si>
     <t xml:space="preserve"> =CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",J3," | ",K3," |")</t>
   </si>
   <si>
@@ -701,6 +695,12 @@
   </si>
   <si>
     <t xml:space="preserve"> =CONCAT(E5," ",F5,".&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",V3," | ")</t>
+  </si>
+  <si>
+    <t>Concatenación 6 columnas</t>
   </si>
 </sst>
 </file>
@@ -1423,12 +1423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A2:AD62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -1442,8 +1441,7 @@
     <col min="7" max="7" width="11" style="9" customWidth="1"/>
     <col min="8" max="8" width="12.53515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9" customWidth="1"/>
-    <col min="10" max="10" width="37.921875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="39.07421875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="45.765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9.15234375" style="9"/>
     <col min="13" max="13" width="14.69140625" style="9" customWidth="1"/>
     <col min="14" max="14" width="8.765625" style="9" customWidth="1"/>
@@ -1455,26 +1453,15 @@
     <col min="21" max="21" width="15.3828125" style="9" customWidth="1"/>
     <col min="22" max="22" width="25.921875" style="1" customWidth="1"/>
     <col min="23" max="23" width="2.69140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="70.69140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="2.69140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="81.84375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="89.4609375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="76.61328125" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.15234375" style="1"/>
+    <col min="24" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="2:28" s="6" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="2:22" s="6" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
@@ -1538,23 +1525,8 @@
       <c r="V3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z3" s="6" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",V3," | ")</f>
-        <v xml:space="preserve">| No. | Etapa | Componente | Código | Nombre | Observaciones | </v>
-      </c>
-      <c r="AA3" s="6" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",O3," |",P3," | ",S3," | ",T3," | ")</f>
-        <v xml:space="preserve">| No. | Etapa | Componente | Código | Nombre | Separación horizontal grilla en metros |Separación vertical grilla en metros | Incluye leyenda temática | Leyenda temática con áreas y/o longitudes | </v>
-      </c>
-      <c r="AB3" s="6" t="str">
-        <f>_xlfn.CONCAT("| ",B3," | ",C3," | ",D3," | ",E3," | ",F3," | ",J3," | ",K3," |")</f>
-        <v>| No. | Etapa | Componente | Código | Nombre | Fuente base cartográfica | Fuente temática |</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>154</v>
       </c>
@@ -1618,20 +1590,8 @@
       <c r="V4" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="Z4" s="6" t="str">
-        <f t="shared" ref="Z4:Z61" si="0">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",V4," | ")</f>
-        <v xml:space="preserve">| --- | --- | --- | --- | --- | --- | </v>
-      </c>
-      <c r="AA4" s="6" t="str">
-        <f t="shared" ref="AA4:AA61" si="1">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",O4," |",P4," | ",S4," | ",T4," | ")</f>
-        <v xml:space="preserve">| --- | --- | --- | --- | --- | --- |--- | --- | --- | </v>
-      </c>
-      <c r="AB4" s="6" t="str">
-        <f t="shared" ref="AB4:AB61" si="2">_xlfn.CONCAT("| ",B4," | ",C4," | ",D4," | ",E4," | ",F4," | ",J4," | ",K4," |")</f>
-        <v>| --- | --- | --- | --- | --- | --- | --- |</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B5" s="14">
         <v>1</v>
       </c>
@@ -1642,7 +1602,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>0</v>
@@ -1697,24 +1657,8 @@
       <c r="V5" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X5" s="1" t="str">
-        <f>_xlfn.CONCAT(E5," ",F5,".&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E5,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</f>
-        <v>DR-01A Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01A.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01A | Categorías de protección y desarrollo restringido en suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 1 | Diagnóstico | Rural | DR-01A | Categorías de protección y desarrollo restringido en suelo rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB5" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 1 | Diagnóstico | Rural | DR-01A | Categorías de protección y desarrollo restringido en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B6" s="14">
         <v>2</v>
       </c>
@@ -1725,7 +1669,7 @@
         <v>35</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>1</v>
@@ -1780,24 +1724,8 @@
       <c r="V6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X6" s="1" t="str">
-        <f t="shared" ref="X6:X61" si="3">_xlfn.CONCAT(E6," ",F6,".&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/",E6,".jpg","' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;")</f>
-        <v>DR-01B Áreas protegidas.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-01B.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01B | Áreas protegidas | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA6" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 2 | Diagnóstico | Rural | DR-01B | Áreas protegidas | 5000 |5000 | Sí | No | </v>
-      </c>
-      <c r="AB6" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 2 | Diagnóstico | Rural | DR-01B | Áreas protegidas | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B7" s="14">
         <v>3</v>
       </c>
@@ -1863,24 +1791,8 @@
       <c r="V7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-02 Estructura ecológica principal rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB7" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 3 | Diagnóstico | Rural | DR-02 | Estructura ecológica principal rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" ht="102.9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B8" s="14">
         <v>4</v>
       </c>
@@ -1946,24 +1858,8 @@
       <c r="V8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X8" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-03 Hidrografía y delimitación de cuencas.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA8" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB8" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 4 | Diagnóstico | Rural | DR-03 | Hidrografía y delimitación de cuencas | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio Cuenca Hidrográfica río Susaguá 2000. Estudio de Impacto Ambiental ECOPETROL Poliducto Mansilla - Tocancipá 2007. Líneas ajustadas con el Modelo Digital SRTM 2002 tiff (WEB Global Land Cover Facility) 90 metros de resolución. |</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B9" s="14">
         <v>5</v>
       </c>
@@ -2029,24 +1925,8 @@
       <c r="V9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="X9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-04 Geomorfología.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
-      </c>
-      <c r="AA9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB9" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 5 | Diagnóstico | Rural | DR-04 | Geomorfología | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
-      </c>
-    </row>
-    <row r="10" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B10" s="14">
         <v>6</v>
       </c>
@@ -2112,24 +1992,8 @@
       <c r="V10" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="X10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-05 Suelos.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 6 | Diagnóstico | Rural | DR-05 | Suelos | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
-      </c>
-      <c r="AA10" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 6 | Diagnóstico | Rural | DR-05 | Suelos | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB10" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 6 | Diagnóstico | Rural | DR-05 | Suelos | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
-      </c>
-    </row>
-    <row r="11" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B11" s="14">
         <v>7</v>
       </c>
@@ -2195,24 +2059,8 @@
       <c r="V11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="X11" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-06 Pendientes.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 7 | Diagnóstico | Rural | DR-06 | Pendientes | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
-      </c>
-      <c r="AA11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 7 | Diagnóstico | Rural | DR-06 | Pendientes | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB11" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 7 | Diagnóstico | Rural | DR-06 | Pendientes | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B12" s="14">
         <v>8</v>
       </c>
@@ -2278,24 +2126,8 @@
       <c r="V12" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-07 Zonificación agroclimática.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB12" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 8 | Diagnóstico | Rural | DR-07 | Zonificación agroclimática | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -2361,24 +2193,8 @@
       <c r="V13" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="X13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-08 Uso potencial del suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | Legible. Red de drenaje incompleta o discontinua. Cuadro de áreas no especifica  unidades. | </v>
-      </c>
-      <c r="AA13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 9 | Diagnóstico | Rural | DR-08 | Uso potencial del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B14" s="14">
         <v>10</v>
       </c>
@@ -2444,24 +2260,8 @@
       <c r="V14" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-09 Cobertura y uso actual del suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB14" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 10 | Diagnóstico | Rural | DR-09 | Cobertura y uso actual del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Estudio General de Suelos y Zonificación de Tierras del Departamento de Cundinamarca, Bogotá D.C 2000, IGAC Subdirección de Agrología, Escala 1:100000. |</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B15" s="14">
         <v>11</v>
       </c>
@@ -2527,24 +2327,8 @@
       <c r="V15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-10 Conflictos de uso del suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB15" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 11 | Diagnóstico | Rural | DR-10 | Conflictos de uso del suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Interpretación de imagen de Satélite Landsat 7 ETM Path 8 Row 56, 2007/02/07, Metodología CORINE LAND COVER COLOMBIA, vs. Cobertura de Uso Potencial del Suelo DR-08. |</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B16" s="14">
         <v>12</v>
       </c>
@@ -2608,24 +2392,8 @@
       <c r="V16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-11 Zonificación de amenazas naturales y antrópicas en suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D | </v>
-      </c>
-      <c r="AA16" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB16" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 12 | Diagnóstico | Rural | DR-11 | Zonificación de amenazas naturales y antrópicas en suelo rural | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="17" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B17" s="14">
         <v>13</v>
       </c>
@@ -2689,24 +2457,8 @@
       <c r="V17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-12 Sistema vial rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D | </v>
-      </c>
-      <c r="AA17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB17" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 13 | Diagnóstico | Rural | DR-12 | Sistema vial rural | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="18" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B18" s="14">
         <v>14</v>
       </c>
@@ -2770,24 +2522,8 @@
       <c r="V18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-13 Equipamientos colectivos rurales y elementos patrimoniales.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D | </v>
-      </c>
-      <c r="AA18" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB18" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 14 | Diagnóstico | Rural | DR-13 | Equipamientos colectivos rurales y elementos patrimoniales | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="19" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B19" s="14">
         <v>15</v>
       </c>
@@ -2851,24 +2587,8 @@
       <c r="V19" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-14 Clasificación general del territorio.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D | </v>
-      </c>
-      <c r="AA19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB19" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 15 | Diagnóstico | Rural | DR-14 | Clasificación general del territorio | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="20" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B20" s="14">
         <v>16</v>
       </c>
@@ -2932,24 +2652,8 @@
       <c r="V20" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-15 Asentamientos humanos.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D | </v>
-      </c>
-      <c r="AA20" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB20" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 16 | Diagnóstico | Rural | DR-15 | Asentamientos humanos | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="21" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B21" s="14">
         <v>17</v>
       </c>
@@ -3013,24 +2717,8 @@
       <c r="V21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-16 Límites y división política rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-16.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D | </v>
-      </c>
-      <c r="AA21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB21" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 17 | Diagnóstico | Rural | DR-16 | Límites y división política rural | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="22" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B22" s="14">
         <v>18</v>
       </c>
@@ -3094,24 +2782,8 @@
       <c r="V22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-17 Predios de propiedad del Municipio.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-17.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D | </v>
-      </c>
-      <c r="AA22" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB22" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 18 | Diagnóstico | Rural | DR-17 | Predios de propiedad del Municipio | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="23" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -3175,24 +2847,8 @@
       <c r="V23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-18 Uso actual del suelo en Centros Poblados Rurales (CPR).&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-18.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D | </v>
-      </c>
-      <c r="AA23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB23" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 19 | Diagnóstico | Rural | DR-18 | Uso actual del suelo en Centros Poblados Rurales (CPR) | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="24" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B24" s="14">
         <v>20</v>
       </c>
@@ -3256,24 +2912,8 @@
       <c r="V24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DR-19 Altura de edificaciones en Centros Poblados Rurales (CPR).&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DR-19.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | N/D | </v>
-      </c>
-      <c r="AA24" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB24" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 20 | Diagnóstico | Rural | DR-19 | Altura de edificaciones en Centros Poblados Rurales (CPR) | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B25" s="14">
         <v>23</v>
       </c>
@@ -3339,24 +2979,8 @@
       <c r="V25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-01 Estructura ecológica principal urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | Legible. | </v>
-      </c>
-      <c r="AA25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | 850 |850 | Sí | Sí | </v>
-      </c>
-      <c r="AB25" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 23 | Diagnóstico | Urbano | DU-01 | Estructura ecológica principal urbana | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B26" s="14">
         <v>24</v>
       </c>
@@ -3422,24 +3046,8 @@
       <c r="V26" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-02 Zonificación de amenazas naturales y antrópicas en suelo urbano.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | Legible. | </v>
-      </c>
-      <c r="AA26" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | 1000 |1000 | Sí | No | </v>
-      </c>
-      <c r="AB26" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 24 | Diagnóstico | Urbano | DU-02 | Zonificación de amenazas naturales y antrópicas en suelo urbano | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B27" s="14">
         <v>25</v>
       </c>
@@ -3505,24 +3113,8 @@
       <c r="V27" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="X27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-03 Sistema urbano de acueducto.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | Legible. Incluye redes acueducto y perímetro servicios públicos. | </v>
-      </c>
-      <c r="AA27" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | 1000 |1000 | Sí | No | </v>
-      </c>
-      <c r="AB27" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 25 | Diagnóstico | Urbano | DU-03 | Sistema urbano de acueducto | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B28" s="14">
         <v>26</v>
       </c>
@@ -3588,24 +3180,8 @@
       <c r="V28" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="X28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-04 Sistema urbano de alcantarillado.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | Legible. Incluye redes de alcantarillado y polígonos de sistemas. | </v>
-      </c>
-      <c r="AA28" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | 1000 |1000 | Sí | No | </v>
-      </c>
-      <c r="AB28" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 26 | Diagnóstico | Urbano | DU-04 | Sistema urbano de alcantarillado | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B29" s="14">
         <v>27</v>
       </c>
@@ -3671,24 +3247,8 @@
       <c r="V29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-05 Sistema vial urbano existente.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | Legible. | </v>
-      </c>
-      <c r="AA29" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | 850 |850 | Sí | No | </v>
-      </c>
-      <c r="AB29" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 27 | Diagnóstico | Urbano | DU-05 | Sistema vial urbano existente | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B30" s="14">
         <v>28</v>
       </c>
@@ -3754,24 +3314,8 @@
       <c r="V30" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-06 Sistema vial urbano proyectado en POT vigente y plan de movilidad.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | Legible. | </v>
-      </c>
-      <c r="AA30" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | 850 |850 | Sí | No | </v>
-      </c>
-      <c r="AB30" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 28 | Diagnóstico | Urbano | DU-06 | Sistema vial urbano proyectado en POT vigente y plan de movilidad | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Plan de movilidad Municipio de Zipaquirá, 2009. Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B31" s="14">
         <v>29</v>
       </c>
@@ -3837,24 +3381,8 @@
       <c r="V31" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-07 Sistemas urbanos de espacio público y equipamientos colectivos.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | Legible. | </v>
-      </c>
-      <c r="AA31" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | 850 |850 | Sí | Sí | </v>
-      </c>
-      <c r="AB31" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 29 | Diagnóstico | Urbano | DU-07 | Sistemas urbanos de espacio público y equipamientos colectivos | Planchas IGAC Escala 1:10000, 209-III-C1, 209-III-C2 y 209-III-C4 (2000). | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B32" s="14">
         <v>30</v>
       </c>
@@ -3918,24 +3446,8 @@
       <c r="V32" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-08 Uso actual de suelo urbano.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D | </v>
-      </c>
-      <c r="AA32" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB32" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 30 | Diagnóstico | Urbano | DU-08 | Uso actual de suelo urbano | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B33" s="14">
         <v>31</v>
       </c>
@@ -3999,24 +3511,8 @@
       <c r="V33" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-09 Conflictos por uso del suelo urbano.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-09.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D | </v>
-      </c>
-      <c r="AA33" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB33" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 31 | Diagnóstico | Urbano | DU-09 | Conflictos por uso del suelo urbano | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B34" s="14">
         <v>32</v>
       </c>
@@ -4080,24 +3576,8 @@
       <c r="V34" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-10 Ocupación en áreas de ronda.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-10.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D | </v>
-      </c>
-      <c r="AA34" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB34" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 32 | Diagnóstico | Urbano | DU-10 | Ocupación en áreas de ronda | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="35" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B35" s="14">
         <v>33</v>
       </c>
@@ -4161,24 +3641,8 @@
       <c r="V35" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-11 Altura de edificaciones.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-11.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D | </v>
-      </c>
-      <c r="AA35" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB35" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 33 | Diagnóstico | Urbano | DU-11 | Altura de edificaciones | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="36" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B36" s="14">
         <v>34</v>
       </c>
@@ -4242,24 +3706,8 @@
       <c r="V36" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-12 Unidades morfológicas homogéneas.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-12.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D | </v>
-      </c>
-      <c r="AA36" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB36" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 34 | Diagnóstico | Urbano | DU-12 | Unidades morfológicas homogéneas | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B37" s="14">
         <v>35</v>
       </c>
@@ -4323,24 +3771,8 @@
       <c r="V37" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-13 Perímetro y división política urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-13.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D | </v>
-      </c>
-      <c r="AA37" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB37" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 35 | Diagnóstico | Urbano | DU-13 | Perímetro y división política urbana | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="38" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B38" s="14">
         <v>36</v>
       </c>
@@ -4404,24 +3836,8 @@
       <c r="V38" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-14 Conflictos POT vigente y expectativas ajuste.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-14.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z38" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D | </v>
-      </c>
-      <c r="AA38" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB38" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 36 | Diagnóstico | Urbano | DU-14 | Conflictos POT vigente y expectativas ajuste | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="39" spans="2:28" ht="34.299999999999997" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B39" s="14">
         <v>37</v>
       </c>
@@ -4485,24 +3901,8 @@
       <c r="V39" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>DU-15 Usos por Planes Parciales y Especiales.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/DU-15.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | N/D | </v>
-      </c>
-      <c r="AA39" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB39" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 37 | Diagnóstico | Urbano | DU-15 | Usos por Planes Parciales y Especiales | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="40" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B40" s="14">
         <v>1</v>
       </c>
@@ -4568,24 +3968,8 @@
       <c r="V40" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CG-01 Clasificación general del territorio.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 1 | Formulación | General | CG-01 | Clasificación general del territorio | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA40" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 1 | Formulación | General | CG-01 | Clasificación general del territorio | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB40" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 1 | Formulación | General | CG-01 | Clasificación general del territorio | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="41" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B41" s="14">
         <v>2</v>
       </c>
@@ -4651,24 +4035,8 @@
       <c r="V41" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CG-02 Asentamientos humanos.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 2 | Formulación | General | CG-02 | Asentamientos humanos | Legible. | </v>
-      </c>
-      <c r="AA41" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 2 | Formulación | General | CG-02 | Asentamientos humanos | 1250 |1250 | Sí | Sí | </v>
-      </c>
-      <c r="AB41" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 2 | Formulación | General | CG-02 | Asentamientos humanos | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B42" s="14">
         <v>3</v>
       </c>
@@ -4734,24 +4102,8 @@
       <c r="V42" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CG-03 Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA42" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB42" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 3 | Formulación | General | CG-03 | Categorías de protección y desarrollo restringido en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="43" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B43" s="14">
         <v>4</v>
       </c>
@@ -4817,24 +4169,8 @@
       <c r="V43" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="X43" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CG-04 Estructura ecológica principal urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA43" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | 750 |750 | Sí | No | </v>
-      </c>
-      <c r="AB43" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 4 | Formulación | General | CG-04 | Estructura ecológica principal urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B44" s="14">
         <v>5</v>
       </c>
@@ -4900,24 +4236,8 @@
       <c r="V44" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CG-05 Modelo de ocupación del territorio.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA44" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB44" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 5 | Formulación | General | CG-05 | Modelo de ocupación del territorio | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="45" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B45" s="14">
         <v>6</v>
       </c>
@@ -4983,24 +4303,8 @@
       <c r="V45" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CG-06 División política rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 6 | Formulación | General | CG-06 | División política rural | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 6 | Formulación | General | CG-06 | División política rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB45" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 6 | Formulación | General | CG-06 | División política rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B46" s="14">
         <v>7</v>
       </c>
@@ -5066,24 +4370,8 @@
       <c r="V46" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="X46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CG-07 División política urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 7 | Formulación | General | CG-07 | División política urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA46" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 7 | Formulación | General | CG-07 | División política urbana | 1000 |1000 | Sí | Sí | </v>
-      </c>
-      <c r="AB46" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 7 | Formulación | General | CG-07 | División política urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B47" s="14">
         <v>8</v>
       </c>
@@ -5149,24 +4437,8 @@
       <c r="V47" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CG-08 Estructura ecológica principal rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CG-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA47" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB47" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 8 | Formulación | General | CG-08 | Estructura ecológica principal rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" ht="120" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="2:22" ht="120" x14ac:dyDescent="0.4">
       <c r="B48" s="14">
         <v>9</v>
       </c>
@@ -5232,24 +4504,8 @@
       <c r="V48" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="X48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CU-01 Áreas morfológicas homogéneas en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | Legible. Sin áreas calculadas ni porcentajes de distribución. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA48" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
-      </c>
-      <c r="AB48" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 9 | Formulación | Urbano | CU-01 | Áreas morfológicas homogéneas en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="49" spans="2:28" ht="120" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="2:22" ht="120" x14ac:dyDescent="0.4">
       <c r="B49" s="14">
         <v>10</v>
       </c>
@@ -5315,24 +4571,8 @@
       <c r="V49" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="X49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CU-02 Tratamientos en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | Legible. Sin áreas calculadas ni porcentajes de distribución. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA49" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
-      </c>
-      <c r="AB49" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 10 | Formulación | Urbano | CU-02 | Tratamientos en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="50" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B50" s="14">
         <v>11</v>
       </c>
@@ -5398,24 +4638,8 @@
       <c r="V50" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="X50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CU-03 Áreas de actividad en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
-      </c>
-      <c r="AB50" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 11 | Formulación | Urbano | CU-03 | Áreas de actividad en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="51" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B51" s="14">
         <v>12</v>
       </c>
@@ -5481,24 +4705,8 @@
       <c r="V51" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="X51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CU-04 Plan vial en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-04.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
-      </c>
-      <c r="AB51" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 12 | Formulación | Urbano | CU-04 | Plan vial en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="52" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B52" s="14">
         <v>13</v>
       </c>
@@ -5564,24 +4772,8 @@
       <c r="V52" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="X52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CU-05 Plan de espacio público en suelo urbano y de expansión urbana.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-05.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA52" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | 800 |800 | Sí | No | </v>
-      </c>
-      <c r="AB52" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 13 | Formulación | Urbano | CU-05 | Plan de espacio público en suelo urbano y de expansión urbana | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="53" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B53" s="14">
         <v>14</v>
       </c>
@@ -5647,24 +4839,8 @@
       <c r="V53" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="X53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CU-06 Plan de equipamientos comunitarios.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-06.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA53" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | 800 |800 | Sí | No | </v>
-      </c>
-      <c r="AB53" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 14 | Formulación | Urbano | CU-06 | Plan de equipamientos comunitarios | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="54" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B54" s="14">
         <v>15</v>
       </c>
@@ -5730,24 +4906,8 @@
       <c r="V54" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="X54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CU-07 Plan parcial La Fraguita.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-07.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA54" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | 800 |800 | Sí | No | </v>
-      </c>
-      <c r="AB54" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 15 | Formulación | Urbano | CU-07 | Plan parcial La Fraguita | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="55" spans="2:28" ht="85.75" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
       <c r="B55" s="14">
         <v>16</v>
       </c>
@@ -5813,24 +4973,8 @@
       <c r="V55" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="X55" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CU-08 Localización de áreas para VIS y VIP.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CU-08.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | Legible. Fuente base cartográfica indicada es 1:25000 y para el nivel de detalle urbano la usada en el diagnóstico fue 1:10000 | </v>
-      </c>
-      <c r="AA55" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | 800 |800 | Sí | No | </v>
-      </c>
-      <c r="AB55" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 16 | Formulación | Urbano | CU-08 | Localización de áreas para VIS y VIP | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="56" spans="2:28" ht="51.45" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B56" s="14">
         <v>17</v>
       </c>
@@ -5894,24 +5038,8 @@
       <c r="V56" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="X56" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>GR-01 Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano..&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | N/D | </v>
-      </c>
-      <c r="AA56" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | N/D |N/D | N/D | N/D | </v>
-      </c>
-      <c r="AB56" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 17 | Formulación | Urbano | GR-01 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo urbano. | N/D | N/D |</v>
-      </c>
-    </row>
-    <row r="57" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B57" s="14">
         <v>18</v>
       </c>
@@ -5977,24 +5105,8 @@
       <c r="V57" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X57" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CR-01 Áreas de actividad en suelo rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-01.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA57" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB57" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 18 | Formulación | Rural | CR-01 | Áreas de actividad en suelo rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="58" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B58" s="14">
         <v>19</v>
       </c>
@@ -6005,7 +5117,7 @@
         <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>53</v>
@@ -6060,24 +5172,8 @@
       <c r="V58" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X58" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CR-02A Áreas de actividad en Centros Poblados Rurales.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02A.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02A | Áreas de actividad en Centros Poblados Rurales | Legible. | </v>
-      </c>
-      <c r="AA58" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 19 | Formulación | Rural | CR-02A | Áreas de actividad en Centros Poblados Rurales | 500 |500 | Sí | No | </v>
-      </c>
-      <c r="AB58" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 19 | Formulación | Rural | CR-02A | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="59" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B59" s="14">
         <v>20</v>
       </c>
@@ -6088,7 +5184,7 @@
         <v>35</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>53</v>
@@ -6143,24 +5239,8 @@
       <c r="V59" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="X59" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CR-02B Áreas de actividad en Centros Poblados Rurales.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-02B.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02B | Áreas de actividad en Centros Poblados Rurales | Legible. | </v>
-      </c>
-      <c r="AA59" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 20 | Formulación | Rural | CR-02B | Áreas de actividad en Centros Poblados Rurales | 500 |500 | Sí | No | </v>
-      </c>
-      <c r="AB59" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 20 | Formulación | Rural | CR-02B | Áreas de actividad en Centros Poblados Rurales | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="60" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B60" s="14">
         <v>21</v>
       </c>
@@ -6226,24 +5306,8 @@
       <c r="V60" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>CR-03 Plan vial rural.&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/CR-03.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z60" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 21 | Formulación | Rural | CR-03 | Plan vial rural | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA60" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 21 | Formulación | Rural | CR-03 | Plan vial rural | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB60" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 21 | Formulación | Rural | CR-03 | Plan vial rural | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="61" spans="2:28" ht="51.45" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
       <c r="B61" s="14">
         <v>22</v>
       </c>
@@ -6309,24 +5373,8 @@
       <c r="V61" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="X61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>GR-02 Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural..&lt;br&gt;&lt;sub&gt;Tomado de: Plan de Ordenamiento Territorial Municipio de Zipaquirá, Acuerdo 012 de 2013.&lt;/sub&gt;&lt;br&gt;&lt;img src='../../file/data/POT/Anexo_Acuerdo_012_2013/GR-02.jpg' alt='R.SIGE' width='100%' border='0' /&gt;&lt;br&gt;&lt;br&gt;</v>
-      </c>
-      <c r="Z61" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | Legible. Red de drenaje incompleta o discontinua. | </v>
-      </c>
-      <c r="AA61" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | 4000 |4000 | Sí | Sí | </v>
-      </c>
-      <c r="AB61" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>| 22 | Formulación | Rural | GR-02 | Mapa de gestión del riesgo. Zonificación de riesgos en suelo rural. | Planchas IGAC, Escala 1:25000, Nºs. 208-IV-B, 208-IV-D (1969), 209-I-C, 209-III-A, 209-III-C y 209-III-D (1978) | Datos obtenidos a través de la consultoría. |</v>
-      </c>
-    </row>
-    <row r="62" spans="2:28" hidden="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B62" s="15"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -6348,16 +5396,9 @@
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
       <c r="V62" s="8"/>
-      <c r="AB62" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:V62" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Sí"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:V62" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6380,9 +5421,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BE5F44-546D-4AD9-A5D9-BB397AB5A2A2}">
   <dimension ref="B2:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -6392,7 +5433,7 @@
     <col min="3" max="3" width="63.3046875" style="28" customWidth="1"/>
     <col min="4" max="4" width="2.69140625" style="28" customWidth="1"/>
     <col min="5" max="5" width="26.3828125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="67.3828125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="67.15234375" style="28" customWidth="1"/>
     <col min="7" max="16384" width="9.23046875" style="28"/>
   </cols>
   <sheetData>
@@ -6401,7 +5442,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
@@ -6412,10 +5453,10 @@
         <v>33</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
@@ -6426,13 +5467,13 @@
         <v>124</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="29">
         <v>4329</v>
       </c>
@@ -6440,13 +5481,13 @@
         <v>125</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="68.599999999999994" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
       <c r="B6" s="29">
         <v>3114</v>
       </c>
@@ -6454,21 +5495,25 @@
         <v>126</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="68.599999999999994" x14ac:dyDescent="0.4">
       <c r="B7" s="29">
         <v>3115</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
+      <c r="E7" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="29">

--- a/activity/POTCartography/POT_Cartografia.xlsx
+++ b/activity/POTCartography/POT_Cartografia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTCartography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E8E16-3020-4708-9CE5-886C366BB258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B2BDEE-4BE2-47BA-A8B0-7C6CA7C48D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="180">
   <si>
     <t>Categorías de protección y desarrollo restringido en suelo rural</t>
   </si>
@@ -701,6 +701,12 @@
   </si>
   <si>
     <t>Concatenación 6 columnas</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>Otro sistema</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -987,11 +993,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1087,6 +1119,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1423,11 +1461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
-  <dimension ref="A2:AD62"/>
+  <dimension ref="B2:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -1766,11 +1804,11 @@
         <v>61</v>
       </c>
       <c r="O7" s="11">
-        <f>1048000-1044000</f>
+        <f t="shared" ref="O7:O15" si="0">1048000-1044000</f>
         <v>4000</v>
       </c>
       <c r="P7" s="11">
-        <f>1024000-1020000</f>
+        <f t="shared" ref="P7:P15" si="1">1024000-1020000</f>
         <v>4000</v>
       </c>
       <c r="Q7" s="11" t="s">
@@ -1833,11 +1871,11 @@
         <v>61</v>
       </c>
       <c r="O8" s="11">
-        <f>1048000-1044000</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="P8" s="11">
-        <f>1024000-1020000</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="Q8" s="11" t="s">
@@ -1900,11 +1938,11 @@
         <v>61</v>
       </c>
       <c r="O9" s="11">
-        <f>1048000-1044000</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="P9" s="11">
-        <f>1024000-1020000</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="Q9" s="11" t="s">
@@ -1967,11 +2005,11 @@
         <v>61</v>
       </c>
       <c r="O10" s="11">
-        <f>1048000-1044000</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="P10" s="11">
-        <f>1024000-1020000</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="Q10" s="11" t="s">
@@ -2034,11 +2072,11 @@
         <v>61</v>
       </c>
       <c r="O11" s="11">
-        <f>1048000-1044000</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="P11" s="11">
-        <f>1024000-1020000</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="Q11" s="11" t="s">
@@ -2101,11 +2139,11 @@
         <v>61</v>
       </c>
       <c r="O12" s="11">
-        <f>1048000-1044000</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="P12" s="11">
-        <f>1024000-1020000</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="Q12" s="11" t="s">
@@ -2168,11 +2206,11 @@
         <v>61</v>
       </c>
       <c r="O13" s="11">
-        <f>1048000-1044000</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="P13" s="11">
-        <f>1024000-1020000</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="Q13" s="11" t="s">
@@ -2235,11 +2273,11 @@
         <v>61</v>
       </c>
       <c r="O14" s="11">
-        <f>1048000-1044000</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="P14" s="11">
-        <f>1024000-1020000</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="Q14" s="11" t="s">
@@ -2302,11 +2340,11 @@
         <v>61</v>
       </c>
       <c r="O15" s="11">
-        <f>1048000-1044000</f>
+        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
       <c r="P15" s="11">
-        <f>1024000-1020000</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="Q15" s="11" t="s">
@@ -4479,11 +4517,11 @@
         <v>61</v>
       </c>
       <c r="O48" s="11">
-        <f>1046400-1045600</f>
+        <f t="shared" ref="O48:O55" si="2">1046400-1045600</f>
         <v>800</v>
       </c>
       <c r="P48" s="11">
-        <f>1012800-1012000</f>
+        <f t="shared" ref="P48:P55" si="3">1012800-1012000</f>
         <v>800</v>
       </c>
       <c r="Q48" s="11" t="s">
@@ -4546,11 +4584,11 @@
         <v>61</v>
       </c>
       <c r="O49" s="11">
-        <f>1046400-1045600</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="P49" s="11">
-        <f>1012800-1012000</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="Q49" s="11" t="s">
@@ -4613,11 +4651,11 @@
         <v>61</v>
       </c>
       <c r="O50" s="11">
-        <f>1046400-1045600</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="P50" s="11">
-        <f>1012800-1012000</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="Q50" s="11" t="s">
@@ -4680,11 +4718,11 @@
         <v>61</v>
       </c>
       <c r="O51" s="11">
-        <f>1046400-1045600</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="P51" s="11">
-        <f>1012800-1012000</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="Q51" s="11" t="s">
@@ -4747,11 +4785,11 @@
         <v>61</v>
       </c>
       <c r="O52" s="11">
-        <f>1046400-1045600</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="P52" s="11">
-        <f>1012800-1012000</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="Q52" s="11" t="s">
@@ -4814,11 +4852,11 @@
         <v>61</v>
       </c>
       <c r="O53" s="11">
-        <f>1046400-1045600</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="P53" s="11">
-        <f>1012800-1012000</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="Q53" s="11" t="s">
@@ -4881,11 +4919,11 @@
         <v>61</v>
       </c>
       <c r="O54" s="11">
-        <f>1046400-1045600</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="P54" s="11">
-        <f>1012800-1012000</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="Q54" s="11" t="s">
@@ -4948,11 +4986,11 @@
         <v>61</v>
       </c>
       <c r="O55" s="11">
-        <f>1046400-1045600</f>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="P55" s="11">
-        <f>1012800-1012000</f>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="Q55" s="11" t="s">
@@ -5404,12 +5442,12 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49F67D06-3AAD-4F4F-BB22-A388BFBFB0E5}">
           <x14:formula1>
-            <xm:f>Setup!$B$4:$B$11</xm:f>
+            <xm:f>Setup!$B$4:$B$12</xm:f>
           </x14:formula1>
-          <xm:sqref>L5:L15 L25:L31 L40:L55 L57:L61</xm:sqref>
+          <xm:sqref>L5:L15 L57:L61 L40:L55 L25:L31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5419,11 +5457,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BE5F44-546D-4AD9-A5D9-BB397AB5A2A2}">
-  <dimension ref="B2:F11"/>
+  <dimension ref="B2:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
@@ -5546,14 +5584,22 @@
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="31">
+      <c r="B11" s="33">
         <v>9377</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="34" t="s">
         <v>131</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B12" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/activity/POTCartography/POT_Cartografia.xlsx
+++ b/activity/POTCartography/POT_Cartografia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28606"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\activity\POTCartography\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.SIGE\activity\POTCartography\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B2BDEE-4BE2-47BA-A8B0-7C6CA7C48D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEFACFC-3E2A-4724-B651-8F5214CEEBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{27AF85AE-8C58-4194-9D32-EF3E0E581D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="POT_Cartografia" sheetId="1" r:id="rId1"/>
@@ -1463,43 +1463,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94650A0-CE97-402D-83DD-6C8BA7626B99}">
   <dimension ref="B2:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.17578125" defaultRowHeight="16.350000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.53515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.3828125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.3046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.15234375" style="1"/>
+    <col min="1" max="1" width="2.703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.52734375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.3515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.29296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.17578125" style="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.53515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.52734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="9" customWidth="1"/>
-    <col min="10" max="11" width="45.765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.15234375" style="9"/>
-    <col min="13" max="13" width="14.69140625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="8.765625" style="9" customWidth="1"/>
-    <col min="15" max="16" width="14.53515625" style="9" customWidth="1"/>
-    <col min="17" max="17" width="13.3046875" style="9" customWidth="1"/>
+    <col min="10" max="11" width="45.76171875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.17578125" style="9"/>
+    <col min="13" max="13" width="14.703125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="8.76171875" style="9" customWidth="1"/>
+    <col min="15" max="16" width="14.52734375" style="9" customWidth="1"/>
+    <col min="17" max="17" width="13.29296875" style="9" customWidth="1"/>
     <col min="18" max="18" width="14" style="9" customWidth="1"/>
     <col min="19" max="19" width="12" style="9" customWidth="1"/>
     <col min="20" max="20" width="18" style="9" customWidth="1"/>
-    <col min="21" max="21" width="15.3828125" style="9" customWidth="1"/>
-    <col min="22" max="22" width="25.921875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.69140625" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.15234375" style="1"/>
+    <col min="21" max="21" width="15.3515625" style="9" customWidth="1"/>
+    <col min="22" max="22" width="25.9375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.703125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.17578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="2:22" s="6" customFormat="1" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:22" s="6" customFormat="1" ht="49" x14ac:dyDescent="0.5">
       <c r="B3" s="13" t="s">
         <v>32</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:22" s="6" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B4" s="21" t="s">
         <v>154</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B5" s="14">
         <v>1</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B6" s="14">
         <v>2</v>
       </c>
@@ -1763,7 +1765,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B7" s="14">
         <v>3</v>
       </c>
@@ -1830,7 +1832,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:22" ht="81.7" x14ac:dyDescent="0.5">
       <c r="B8" s="14">
         <v>4</v>
       </c>
@@ -1897,7 +1899,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:22" ht="65.349999999999994" x14ac:dyDescent="0.5">
       <c r="B9" s="14">
         <v>5</v>
       </c>
@@ -1964,7 +1966,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:22" ht="65.349999999999994" x14ac:dyDescent="0.5">
       <c r="B10" s="14">
         <v>6</v>
       </c>
@@ -2031,7 +2033,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:22" ht="65.349999999999994" x14ac:dyDescent="0.5">
       <c r="B11" s="14">
         <v>7</v>
       </c>
@@ -2098,7 +2100,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:22" ht="65.349999999999994" x14ac:dyDescent="0.5">
       <c r="B12" s="14">
         <v>8</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:22" ht="65.349999999999994" x14ac:dyDescent="0.5">
       <c r="B13" s="14">
         <v>9</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:22" ht="65.349999999999994" x14ac:dyDescent="0.5">
       <c r="B14" s="14">
         <v>10</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:22" ht="65.349999999999994" x14ac:dyDescent="0.5">
       <c r="B15" s="14">
         <v>11</v>
       </c>
@@ -2366,7 +2368,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B16" s="14">
         <v>12</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B17" s="14">
         <v>13</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B18" s="14">
         <v>14</v>
       </c>
@@ -2561,7 +2563,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B19" s="14">
         <v>15</v>
       </c>
@@ -2626,7 +2628,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B20" s="14">
         <v>16</v>
       </c>
@@ -2691,7 +2693,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B21" s="14">
         <v>17</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B22" s="14">
         <v>18</v>
       </c>
@@ -2821,7 +2823,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B23" s="14">
         <v>19</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B24" s="14">
         <v>20</v>
       </c>
@@ -2951,7 +2953,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B25" s="14">
         <v>23</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B26" s="14">
         <v>24</v>
       </c>
@@ -3085,7 +3087,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B27" s="14">
         <v>25</v>
       </c>
@@ -3152,7 +3154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B28" s="14">
         <v>26</v>
       </c>
@@ -3219,7 +3221,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B29" s="14">
         <v>27</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B30" s="14">
         <v>28</v>
       </c>
@@ -3353,7 +3355,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B31" s="14">
         <v>29</v>
       </c>
@@ -3420,7 +3422,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B32" s="14">
         <v>30</v>
       </c>
@@ -3485,7 +3487,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B33" s="14">
         <v>31</v>
       </c>
@@ -3550,7 +3552,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B34" s="14">
         <v>32</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B35" s="14">
         <v>33</v>
       </c>
@@ -3680,7 +3682,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B36" s="14">
         <v>34</v>
       </c>
@@ -3745,7 +3747,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B37" s="14">
         <v>35</v>
       </c>
@@ -3810,7 +3812,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B38" s="14">
         <v>36</v>
       </c>
@@ -3875,7 +3877,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="2:22" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B39" s="14">
         <v>37</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B40" s="14">
         <v>1</v>
       </c>
@@ -4007,7 +4009,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B41" s="14">
         <v>2</v>
       </c>
@@ -4074,7 +4076,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B42" s="14">
         <v>3</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:22" ht="81.7" x14ac:dyDescent="0.5">
       <c r="B43" s="14">
         <v>4</v>
       </c>
@@ -4208,7 +4210,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B44" s="14">
         <v>5</v>
       </c>
@@ -4275,7 +4277,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B45" s="14">
         <v>6</v>
       </c>
@@ -4342,7 +4344,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:22" ht="81.7" x14ac:dyDescent="0.5">
       <c r="B46" s="14">
         <v>7</v>
       </c>
@@ -4409,7 +4411,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B47" s="14">
         <v>8</v>
       </c>
@@ -4476,7 +4478,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="2:22" ht="120" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:22" ht="114.35" x14ac:dyDescent="0.5">
       <c r="B48" s="14">
         <v>9</v>
       </c>
@@ -4543,7 +4545,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="2:22" ht="120" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:22" ht="114.35" x14ac:dyDescent="0.5">
       <c r="B49" s="14">
         <v>10</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:22" ht="81.7" x14ac:dyDescent="0.5">
       <c r="B50" s="14">
         <v>11</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:22" ht="81.7" x14ac:dyDescent="0.5">
       <c r="B51" s="14">
         <v>12</v>
       </c>
@@ -4744,7 +4746,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:22" ht="81.7" x14ac:dyDescent="0.5">
       <c r="B52" s="14">
         <v>13</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:22" ht="81.7" x14ac:dyDescent="0.5">
       <c r="B53" s="14">
         <v>14</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:22" ht="81.7" x14ac:dyDescent="0.5">
       <c r="B54" s="14">
         <v>15</v>
       </c>
@@ -4945,7 +4947,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="2:22" ht="85.75" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:22" ht="81.7" x14ac:dyDescent="0.5">
       <c r="B55" s="14">
         <v>16</v>
       </c>
@@ -5012,7 +5014,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B56" s="14">
         <v>17</v>
       </c>
@@ -5077,7 +5079,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B57" s="14">
         <v>18</v>
       </c>
@@ -5144,7 +5146,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B58" s="14">
         <v>19</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B59" s="14">
         <v>20</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:22" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B60" s="14">
         <v>21</v>
       </c>
@@ -5345,7 +5347,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="61" spans="2:22" ht="51.45" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:22" ht="49" x14ac:dyDescent="0.5">
       <c r="B61" s="14">
         <v>22</v>
       </c>
@@ -5412,7 +5414,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.5">
       <c r="B62" s="15"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -5464,18 +5466,18 @@
       <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="16.350000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="2.69140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="7.3046875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="63.3046875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="2.69140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="26.3828125" style="28" customWidth="1"/>
-    <col min="6" max="6" width="67.15234375" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9.23046875" style="28"/>
+    <col min="1" max="1" width="2.703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="7.29296875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="63.29296875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="2.703125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="26.3515625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="67.17578125" style="28" customWidth="1"/>
+    <col min="7" max="16384" width="9.234375" style="28"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" s="25" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B2" s="25" t="s">
         <v>123</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B3" s="26" t="s">
         <v>122</v>
       </c>
@@ -5497,7 +5499,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B4" s="29">
         <v>4326</v>
       </c>
@@ -5511,7 +5513,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B5" s="29">
         <v>4329</v>
       </c>
@@ -5525,7 +5527,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="34.299999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" ht="32.700000000000003" x14ac:dyDescent="0.5">
       <c r="B6" s="29">
         <v>3114</v>
       </c>
@@ -5539,7 +5541,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="68.599999999999994" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="65.349999999999994" x14ac:dyDescent="0.5">
       <c r="B7" s="29">
         <v>3115</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B8" s="29">
         <v>3116</v>
       </c>
@@ -5563,7 +5565,7 @@
       <c r="E8" s="29"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B9" s="29">
         <v>3117</v>
       </c>
@@ -5573,7 +5575,7 @@
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B10" s="29">
         <v>3118</v>
       </c>
@@ -5583,7 +5585,7 @@
       <c r="E10" s="29"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B11" s="33">
         <v>9377</v>
       </c>
@@ -5593,7 +5595,7 @@
       <c r="E11" s="31"/>
       <c r="F11" s="32"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.5">
       <c r="B12" s="31" t="s">
         <v>178</v>
       </c>
